--- a/ProjectManager/data/templates/工程表/工程表作成補助アプリ_#案件名#.xlsx
+++ b/ProjectManager/data/templates/工程表/工程表作成補助アプリ_#案件名#.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gbrai\Documents\Projects\ProjectSuite\ProjectManager\data\templates\工程表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF69DD14-7403-4755-B637-FD2C0C4EDCED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE8BBC2F-4DF1-4FB8-AB28-C5DE38A51A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{28A2323B-E62A-43AD-B2A2-DC3C28A28AA3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{98C77031-3F58-4D24-87E8-8387817059C2}"/>
   </bookViews>
   <sheets>
-    <sheet name="ガントチャート20250414_001142" sheetId="2" r:id="rId1"/>
+    <sheet name="ガントチャート20250424_221553" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,9 +34,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="85">
   <si>
     <t>2025年</t>
+  </si>
+  <si>
+    <t>2026年</t>
   </si>
   <si>
     <t>3月</t>
@@ -61,6 +64,15 @@
   </si>
   <si>
     <t>10月</t>
+  </si>
+  <si>
+    <t>11月</t>
+  </si>
+  <si>
+    <t>12月</t>
+  </si>
+  <si>
+    <t>1月</t>
   </si>
   <si>
     <t>タスク名</t>
@@ -518,7 +530,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -538,6 +550,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -561,7 +576,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
@@ -574,9 +589,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
@@ -597,7 +609,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
@@ -606,20 +618,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -630,10 +630,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
@@ -1003,8 +1000,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{159E6E00-BBC6-4F7C-8E6A-38C4EB95551D}">
-  <dimension ref="A1:HT35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4AA0CCF-55C0-4F03-9909-39C3B8264641}">
+  <dimension ref="A1:LK35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="8" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
@@ -1017,14 +1014,14 @@
   <cols>
     <col min="1" max="1" width="24.09765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.296875" style="42" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.296875" style="37" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.3984375" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="228" width="1.69921875" customWidth="1"/>
+    <col min="9" max="323" width="1.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:228" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:323" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
@@ -1078,9 +1075,9 @@
       <c r="AW1" s="3"/>
       <c r="AX1" s="3"/>
       <c r="AY1" s="3"/>
-      <c r="AZ1" s="4"/>
-      <c r="BA1" s="5"/>
-      <c r="BB1" s="6"/>
+      <c r="AZ1" s="3"/>
+      <c r="BA1" s="3"/>
+      <c r="BB1" s="3"/>
       <c r="BC1" s="3"/>
       <c r="BD1" s="3"/>
       <c r="BE1" s="3"/>
@@ -1088,9 +1085,9 @@
       <c r="BG1" s="3"/>
       <c r="BH1" s="3"/>
       <c r="BI1" s="3"/>
-      <c r="BJ1" s="3"/>
-      <c r="BK1" s="3"/>
-      <c r="BL1" s="3"/>
+      <c r="BJ1" s="4"/>
+      <c r="BK1" s="5"/>
+      <c r="BL1" s="6"/>
       <c r="BM1" s="3"/>
       <c r="BN1" s="3"/>
       <c r="BO1" s="3"/>
@@ -1255,8 +1252,105 @@
       <c r="HR1" s="3"/>
       <c r="HS1" s="3"/>
       <c r="HT1" s="3"/>
+      <c r="HU1" s="3"/>
+      <c r="HV1" s="3"/>
+      <c r="HW1" s="3"/>
+      <c r="HX1" s="3"/>
+      <c r="HY1" s="3"/>
+      <c r="HZ1" s="3"/>
+      <c r="IA1" s="3"/>
+      <c r="IB1" s="3"/>
+      <c r="IC1" s="3"/>
+      <c r="ID1" s="3"/>
+      <c r="IE1" s="3"/>
+      <c r="IF1" s="3"/>
+      <c r="IG1" s="3"/>
+      <c r="IH1" s="3"/>
+      <c r="II1" s="3"/>
+      <c r="IJ1" s="3"/>
+      <c r="IK1" s="3"/>
+      <c r="IL1" s="3"/>
+      <c r="IM1" s="3"/>
+      <c r="IN1" s="3"/>
+      <c r="IO1" s="3"/>
+      <c r="IP1" s="3"/>
+      <c r="IQ1" s="3"/>
+      <c r="IR1" s="3"/>
+      <c r="IS1" s="3"/>
+      <c r="IT1" s="3"/>
+      <c r="IU1" s="3"/>
+      <c r="IV1" s="3"/>
+      <c r="IW1" s="3"/>
+      <c r="IX1" s="3"/>
+      <c r="IY1" s="3"/>
+      <c r="IZ1" s="3"/>
+      <c r="JA1" s="3"/>
+      <c r="JB1" s="3"/>
+      <c r="JC1" s="3"/>
+      <c r="JD1" s="3"/>
+      <c r="JE1" s="3"/>
+      <c r="JF1" s="3"/>
+      <c r="JG1" s="3"/>
+      <c r="JH1" s="3"/>
+      <c r="JI1" s="3"/>
+      <c r="JJ1" s="3"/>
+      <c r="JK1" s="3"/>
+      <c r="JL1" s="3"/>
+      <c r="JM1" s="3"/>
+      <c r="JN1" s="3"/>
+      <c r="JO1" s="3"/>
+      <c r="JP1" s="3"/>
+      <c r="JQ1" s="3"/>
+      <c r="JR1" s="3"/>
+      <c r="JS1" s="3"/>
+      <c r="JT1" s="3"/>
+      <c r="JU1" s="3"/>
+      <c r="JV1" s="3"/>
+      <c r="JW1" s="3"/>
+      <c r="JX1" s="3"/>
+      <c r="JY1" s="3"/>
+      <c r="JZ1" s="3"/>
+      <c r="KA1" s="3"/>
+      <c r="KB1" s="3"/>
+      <c r="KC1" s="3"/>
+      <c r="KD1" s="3"/>
+      <c r="KE1" s="3"/>
+      <c r="KF1" s="3"/>
+      <c r="KG1" s="3"/>
+      <c r="KH1" s="3"/>
+      <c r="KI1" s="3"/>
+      <c r="KJ1" s="3"/>
+      <c r="KK1" s="3"/>
+      <c r="KL1" s="3"/>
+      <c r="KM1" s="3"/>
+      <c r="KN1" s="3"/>
+      <c r="KO1" s="3"/>
+      <c r="KP1" s="3"/>
+      <c r="KQ1" s="3"/>
+      <c r="KR1" s="3"/>
+      <c r="KS1" s="3"/>
+      <c r="KT1" s="3"/>
+      <c r="KU1" s="3"/>
+      <c r="KV1" s="3"/>
+      <c r="KW1" s="3"/>
+      <c r="KX1" s="3"/>
+      <c r="KY1" s="3"/>
+      <c r="KZ1" s="3"/>
+      <c r="LA1" s="3"/>
+      <c r="LB1" s="3"/>
+      <c r="LC1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="LD1" s="7"/>
+      <c r="LE1" s="7"/>
+      <c r="LF1" s="7"/>
+      <c r="LG1" s="7"/>
+      <c r="LH1" s="7"/>
+      <c r="LI1" s="7"/>
+      <c r="LJ1" s="7"/>
+      <c r="LK1" s="7"/>
     </row>
-    <row r="2" spans="1:228" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:323" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
@@ -1265,244 +1359,345 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="7"/>
-      <c r="AC2" s="7"/>
-      <c r="AD2" s="7"/>
-      <c r="AE2" s="7"/>
-      <c r="AF2" s="7"/>
-      <c r="AG2" s="7"/>
-      <c r="AH2" s="7"/>
-      <c r="AI2" s="7"/>
-      <c r="AJ2" s="7"/>
-      <c r="AK2" s="7"/>
-      <c r="AL2" s="7"/>
-      <c r="AM2" s="7"/>
-      <c r="AN2" s="7" t="s">
+      <c r="I2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="AO2" s="7"/>
-      <c r="AP2" s="7"/>
-      <c r="AQ2" s="7"/>
-      <c r="AR2" s="7"/>
-      <c r="AS2" s="7"/>
-      <c r="AT2" s="7"/>
-      <c r="AU2" s="7"/>
-      <c r="AV2" s="7"/>
-      <c r="AW2" s="7"/>
-      <c r="AX2" s="7"/>
-      <c r="AY2" s="7"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="8"/>
+      <c r="AH2" s="8"/>
+      <c r="AI2" s="8"/>
+      <c r="AJ2" s="8"/>
+      <c r="AK2" s="8"/>
+      <c r="AL2" s="8"/>
+      <c r="AM2" s="8"/>
+      <c r="AN2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO2" s="8"/>
+      <c r="AP2" s="8"/>
+      <c r="AQ2" s="8"/>
+      <c r="AR2" s="8"/>
+      <c r="AS2" s="8"/>
+      <c r="AT2" s="8"/>
+      <c r="AU2" s="8"/>
+      <c r="AV2" s="8"/>
+      <c r="AW2" s="8"/>
+      <c r="AX2" s="8"/>
+      <c r="AY2" s="8"/>
       <c r="AZ2" s="8"/>
-      <c r="BA2" s="9"/>
-      <c r="BB2" s="10"/>
-      <c r="BC2" s="7"/>
-      <c r="BD2" s="7"/>
-      <c r="BE2" s="7"/>
-      <c r="BF2" s="7"/>
-      <c r="BG2" s="7"/>
-      <c r="BH2" s="7"/>
-      <c r="BI2" s="7"/>
-      <c r="BJ2" s="7"/>
-      <c r="BK2" s="7"/>
-      <c r="BL2" s="7"/>
-      <c r="BM2" s="7"/>
-      <c r="BN2" s="7"/>
-      <c r="BO2" s="7"/>
-      <c r="BP2" s="7"/>
-      <c r="BQ2" s="7"/>
-      <c r="BR2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="BS2" s="7"/>
-      <c r="BT2" s="7"/>
-      <c r="BU2" s="7"/>
-      <c r="BV2" s="7"/>
-      <c r="BW2" s="7"/>
-      <c r="BX2" s="7"/>
-      <c r="BY2" s="7"/>
-      <c r="BZ2" s="7"/>
-      <c r="CA2" s="7"/>
-      <c r="CB2" s="7"/>
-      <c r="CC2" s="7"/>
-      <c r="CD2" s="7"/>
-      <c r="CE2" s="7"/>
-      <c r="CF2" s="7"/>
-      <c r="CG2" s="7"/>
-      <c r="CH2" s="7"/>
-      <c r="CI2" s="7"/>
-      <c r="CJ2" s="7"/>
-      <c r="CK2" s="7"/>
-      <c r="CL2" s="7"/>
-      <c r="CM2" s="7"/>
-      <c r="CN2" s="7"/>
-      <c r="CO2" s="7"/>
-      <c r="CP2" s="7"/>
-      <c r="CQ2" s="7"/>
-      <c r="CR2" s="7"/>
-      <c r="CS2" s="7"/>
-      <c r="CT2" s="7"/>
-      <c r="CU2" s="7"/>
-      <c r="CV2" s="7"/>
-      <c r="CW2" s="7" t="s">
+      <c r="BA2" s="8"/>
+      <c r="BB2" s="8"/>
+      <c r="BC2" s="8"/>
+      <c r="BD2" s="8"/>
+      <c r="BE2" s="8"/>
+      <c r="BF2" s="8"/>
+      <c r="BG2" s="8"/>
+      <c r="BH2" s="8"/>
+      <c r="BI2" s="8"/>
+      <c r="BJ2" s="9"/>
+      <c r="BK2" s="10"/>
+      <c r="BL2" s="11"/>
+      <c r="BM2" s="8"/>
+      <c r="BN2" s="8"/>
+      <c r="BO2" s="8"/>
+      <c r="BP2" s="8"/>
+      <c r="BQ2" s="8"/>
+      <c r="BR2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="CX2" s="7"/>
-      <c r="CY2" s="7"/>
-      <c r="CZ2" s="7"/>
-      <c r="DA2" s="7"/>
-      <c r="DB2" s="7"/>
-      <c r="DC2" s="7"/>
-      <c r="DD2" s="7"/>
-      <c r="DE2" s="7"/>
-      <c r="DF2" s="7"/>
-      <c r="DG2" s="7"/>
-      <c r="DH2" s="7"/>
-      <c r="DI2" s="7"/>
-      <c r="DJ2" s="7"/>
-      <c r="DK2" s="7"/>
-      <c r="DL2" s="7"/>
-      <c r="DM2" s="7"/>
-      <c r="DN2" s="7"/>
-      <c r="DO2" s="7"/>
-      <c r="DP2" s="7"/>
-      <c r="DQ2" s="7"/>
-      <c r="DR2" s="7"/>
-      <c r="DS2" s="7"/>
-      <c r="DT2" s="7"/>
-      <c r="DU2" s="7"/>
-      <c r="DV2" s="7"/>
-      <c r="DW2" s="7"/>
-      <c r="DX2" s="7"/>
-      <c r="DY2" s="7"/>
-      <c r="DZ2" s="7"/>
-      <c r="EA2" s="7" t="s">
+      <c r="BS2" s="8"/>
+      <c r="BT2" s="8"/>
+      <c r="BU2" s="8"/>
+      <c r="BV2" s="8"/>
+      <c r="BW2" s="8"/>
+      <c r="BX2" s="8"/>
+      <c r="BY2" s="8"/>
+      <c r="BZ2" s="8"/>
+      <c r="CA2" s="8"/>
+      <c r="CB2" s="8"/>
+      <c r="CC2" s="8"/>
+      <c r="CD2" s="8"/>
+      <c r="CE2" s="8"/>
+      <c r="CF2" s="8"/>
+      <c r="CG2" s="8"/>
+      <c r="CH2" s="8"/>
+      <c r="CI2" s="8"/>
+      <c r="CJ2" s="8"/>
+      <c r="CK2" s="8"/>
+      <c r="CL2" s="8"/>
+      <c r="CM2" s="8"/>
+      <c r="CN2" s="8"/>
+      <c r="CO2" s="8"/>
+      <c r="CP2" s="8"/>
+      <c r="CQ2" s="8"/>
+      <c r="CR2" s="8"/>
+      <c r="CS2" s="8"/>
+      <c r="CT2" s="8"/>
+      <c r="CU2" s="8"/>
+      <c r="CV2" s="8"/>
+      <c r="CW2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="EB2" s="7"/>
-      <c r="EC2" s="7"/>
-      <c r="ED2" s="7"/>
-      <c r="EE2" s="7"/>
-      <c r="EF2" s="7"/>
-      <c r="EG2" s="7"/>
-      <c r="EH2" s="7"/>
-      <c r="EI2" s="7"/>
-      <c r="EJ2" s="7"/>
-      <c r="EK2" s="7"/>
-      <c r="EL2" s="7"/>
-      <c r="EM2" s="7"/>
-      <c r="EN2" s="7"/>
-      <c r="EO2" s="7"/>
-      <c r="EP2" s="7"/>
-      <c r="EQ2" s="7"/>
-      <c r="ER2" s="7"/>
-      <c r="ES2" s="7"/>
-      <c r="ET2" s="7"/>
-      <c r="EU2" s="7"/>
-      <c r="EV2" s="7"/>
-      <c r="EW2" s="7"/>
-      <c r="EX2" s="7"/>
-      <c r="EY2" s="7"/>
-      <c r="EZ2" s="7"/>
-      <c r="FA2" s="7"/>
-      <c r="FB2" s="7"/>
-      <c r="FC2" s="7"/>
-      <c r="FD2" s="7"/>
-      <c r="FE2" s="7"/>
-      <c r="FF2" s="7" t="s">
+      <c r="CX2" s="8"/>
+      <c r="CY2" s="8"/>
+      <c r="CZ2" s="8"/>
+      <c r="DA2" s="8"/>
+      <c r="DB2" s="8"/>
+      <c r="DC2" s="8"/>
+      <c r="DD2" s="8"/>
+      <c r="DE2" s="8"/>
+      <c r="DF2" s="8"/>
+      <c r="DG2" s="8"/>
+      <c r="DH2" s="8"/>
+      <c r="DI2" s="8"/>
+      <c r="DJ2" s="8"/>
+      <c r="DK2" s="8"/>
+      <c r="DL2" s="8"/>
+      <c r="DM2" s="8"/>
+      <c r="DN2" s="8"/>
+      <c r="DO2" s="8"/>
+      <c r="DP2" s="8"/>
+      <c r="DQ2" s="8"/>
+      <c r="DR2" s="8"/>
+      <c r="DS2" s="8"/>
+      <c r="DT2" s="8"/>
+      <c r="DU2" s="8"/>
+      <c r="DV2" s="8"/>
+      <c r="DW2" s="8"/>
+      <c r="DX2" s="8"/>
+      <c r="DY2" s="8"/>
+      <c r="DZ2" s="8"/>
+      <c r="EA2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="FG2" s="7"/>
-      <c r="FH2" s="7"/>
-      <c r="FI2" s="7"/>
-      <c r="FJ2" s="7"/>
-      <c r="FK2" s="7"/>
-      <c r="FL2" s="7"/>
-      <c r="FM2" s="7"/>
-      <c r="FN2" s="7"/>
-      <c r="FO2" s="7"/>
-      <c r="FP2" s="7"/>
-      <c r="FQ2" s="7"/>
-      <c r="FR2" s="7"/>
-      <c r="FS2" s="7"/>
-      <c r="FT2" s="7"/>
-      <c r="FU2" s="7"/>
-      <c r="FV2" s="7"/>
-      <c r="FW2" s="7"/>
-      <c r="FX2" s="7"/>
-      <c r="FY2" s="7"/>
-      <c r="FZ2" s="7"/>
-      <c r="GA2" s="7"/>
-      <c r="GB2" s="7"/>
-      <c r="GC2" s="7"/>
-      <c r="GD2" s="7"/>
-      <c r="GE2" s="7"/>
-      <c r="GF2" s="7"/>
-      <c r="GG2" s="7"/>
-      <c r="GH2" s="7"/>
-      <c r="GI2" s="7"/>
-      <c r="GJ2" s="7"/>
-      <c r="GK2" s="7" t="s">
+      <c r="EB2" s="8"/>
+      <c r="EC2" s="8"/>
+      <c r="ED2" s="8"/>
+      <c r="EE2" s="8"/>
+      <c r="EF2" s="8"/>
+      <c r="EG2" s="8"/>
+      <c r="EH2" s="8"/>
+      <c r="EI2" s="8"/>
+      <c r="EJ2" s="8"/>
+      <c r="EK2" s="8"/>
+      <c r="EL2" s="8"/>
+      <c r="EM2" s="8"/>
+      <c r="EN2" s="8"/>
+      <c r="EO2" s="8"/>
+      <c r="EP2" s="8"/>
+      <c r="EQ2" s="8"/>
+      <c r="ER2" s="8"/>
+      <c r="ES2" s="8"/>
+      <c r="ET2" s="8"/>
+      <c r="EU2" s="8"/>
+      <c r="EV2" s="8"/>
+      <c r="EW2" s="8"/>
+      <c r="EX2" s="8"/>
+      <c r="EY2" s="8"/>
+      <c r="EZ2" s="8"/>
+      <c r="FA2" s="8"/>
+      <c r="FB2" s="8"/>
+      <c r="FC2" s="8"/>
+      <c r="FD2" s="8"/>
+      <c r="FE2" s="8"/>
+      <c r="FF2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="GL2" s="7"/>
-      <c r="GM2" s="7"/>
-      <c r="GN2" s="7"/>
-      <c r="GO2" s="7"/>
-      <c r="GP2" s="7"/>
-      <c r="GQ2" s="7"/>
-      <c r="GR2" s="7"/>
-      <c r="GS2" s="7"/>
-      <c r="GT2" s="7"/>
-      <c r="GU2" s="7"/>
-      <c r="GV2" s="7"/>
-      <c r="GW2" s="7"/>
-      <c r="GX2" s="7"/>
-      <c r="GY2" s="7"/>
-      <c r="GZ2" s="7"/>
-      <c r="HA2" s="7"/>
-      <c r="HB2" s="7"/>
-      <c r="HC2" s="7"/>
-      <c r="HD2" s="7"/>
-      <c r="HE2" s="7"/>
-      <c r="HF2" s="7"/>
-      <c r="HG2" s="7"/>
-      <c r="HH2" s="7"/>
-      <c r="HI2" s="7"/>
-      <c r="HJ2" s="7"/>
-      <c r="HK2" s="7"/>
-      <c r="HL2" s="7"/>
-      <c r="HM2" s="7"/>
-      <c r="HN2" s="7"/>
-      <c r="HO2" s="7" t="s">
+      <c r="FG2" s="8"/>
+      <c r="FH2" s="8"/>
+      <c r="FI2" s="8"/>
+      <c r="FJ2" s="8"/>
+      <c r="FK2" s="8"/>
+      <c r="FL2" s="8"/>
+      <c r="FM2" s="8"/>
+      <c r="FN2" s="8"/>
+      <c r="FO2" s="8"/>
+      <c r="FP2" s="8"/>
+      <c r="FQ2" s="8"/>
+      <c r="FR2" s="8"/>
+      <c r="FS2" s="8"/>
+      <c r="FT2" s="8"/>
+      <c r="FU2" s="8"/>
+      <c r="FV2" s="8"/>
+      <c r="FW2" s="8"/>
+      <c r="FX2" s="8"/>
+      <c r="FY2" s="8"/>
+      <c r="FZ2" s="8"/>
+      <c r="GA2" s="8"/>
+      <c r="GB2" s="8"/>
+      <c r="GC2" s="8"/>
+      <c r="GD2" s="8"/>
+      <c r="GE2" s="8"/>
+      <c r="GF2" s="8"/>
+      <c r="GG2" s="8"/>
+      <c r="GH2" s="8"/>
+      <c r="GI2" s="8"/>
+      <c r="GJ2" s="8"/>
+      <c r="GK2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="HP2" s="7"/>
-      <c r="HQ2" s="7"/>
-      <c r="HR2" s="7"/>
-      <c r="HS2" s="7"/>
-      <c r="HT2" s="7"/>
+      <c r="GL2" s="8"/>
+      <c r="GM2" s="8"/>
+      <c r="GN2" s="8"/>
+      <c r="GO2" s="8"/>
+      <c r="GP2" s="8"/>
+      <c r="GQ2" s="8"/>
+      <c r="GR2" s="8"/>
+      <c r="GS2" s="8"/>
+      <c r="GT2" s="8"/>
+      <c r="GU2" s="8"/>
+      <c r="GV2" s="8"/>
+      <c r="GW2" s="8"/>
+      <c r="GX2" s="8"/>
+      <c r="GY2" s="8"/>
+      <c r="GZ2" s="8"/>
+      <c r="HA2" s="8"/>
+      <c r="HB2" s="8"/>
+      <c r="HC2" s="8"/>
+      <c r="HD2" s="8"/>
+      <c r="HE2" s="8"/>
+      <c r="HF2" s="8"/>
+      <c r="HG2" s="8"/>
+      <c r="HH2" s="8"/>
+      <c r="HI2" s="8"/>
+      <c r="HJ2" s="8"/>
+      <c r="HK2" s="8"/>
+      <c r="HL2" s="8"/>
+      <c r="HM2" s="8"/>
+      <c r="HN2" s="8"/>
+      <c r="HO2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="HP2" s="8"/>
+      <c r="HQ2" s="8"/>
+      <c r="HR2" s="8"/>
+      <c r="HS2" s="8"/>
+      <c r="HT2" s="8"/>
+      <c r="HU2" s="8"/>
+      <c r="HV2" s="8"/>
+      <c r="HW2" s="8"/>
+      <c r="HX2" s="8"/>
+      <c r="HY2" s="8"/>
+      <c r="HZ2" s="8"/>
+      <c r="IA2" s="8"/>
+      <c r="IB2" s="8"/>
+      <c r="IC2" s="8"/>
+      <c r="ID2" s="8"/>
+      <c r="IE2" s="8"/>
+      <c r="IF2" s="8"/>
+      <c r="IG2" s="8"/>
+      <c r="IH2" s="8"/>
+      <c r="II2" s="8"/>
+      <c r="IJ2" s="8"/>
+      <c r="IK2" s="8"/>
+      <c r="IL2" s="8"/>
+      <c r="IM2" s="8"/>
+      <c r="IN2" s="8"/>
+      <c r="IO2" s="8"/>
+      <c r="IP2" s="8"/>
+      <c r="IQ2" s="8"/>
+      <c r="IR2" s="8"/>
+      <c r="IS2" s="8"/>
+      <c r="IT2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="IU2" s="8"/>
+      <c r="IV2" s="8"/>
+      <c r="IW2" s="8"/>
+      <c r="IX2" s="8"/>
+      <c r="IY2" s="8"/>
+      <c r="IZ2" s="8"/>
+      <c r="JA2" s="8"/>
+      <c r="JB2" s="8"/>
+      <c r="JC2" s="8"/>
+      <c r="JD2" s="8"/>
+      <c r="JE2" s="8"/>
+      <c r="JF2" s="8"/>
+      <c r="JG2" s="8"/>
+      <c r="JH2" s="8"/>
+      <c r="JI2" s="8"/>
+      <c r="JJ2" s="8"/>
+      <c r="JK2" s="8"/>
+      <c r="JL2" s="8"/>
+      <c r="JM2" s="8"/>
+      <c r="JN2" s="8"/>
+      <c r="JO2" s="8"/>
+      <c r="JP2" s="8"/>
+      <c r="JQ2" s="8"/>
+      <c r="JR2" s="8"/>
+      <c r="JS2" s="8"/>
+      <c r="JT2" s="8"/>
+      <c r="JU2" s="8"/>
+      <c r="JV2" s="8"/>
+      <c r="JW2" s="8"/>
+      <c r="JX2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="JY2" s="8"/>
+      <c r="JZ2" s="8"/>
+      <c r="KA2" s="8"/>
+      <c r="KB2" s="8"/>
+      <c r="KC2" s="8"/>
+      <c r="KD2" s="8"/>
+      <c r="KE2" s="8"/>
+      <c r="KF2" s="8"/>
+      <c r="KG2" s="8"/>
+      <c r="KH2" s="8"/>
+      <c r="KI2" s="8"/>
+      <c r="KJ2" s="8"/>
+      <c r="KK2" s="8"/>
+      <c r="KL2" s="8"/>
+      <c r="KM2" s="8"/>
+      <c r="KN2" s="8"/>
+      <c r="KO2" s="8"/>
+      <c r="KP2" s="8"/>
+      <c r="KQ2" s="8"/>
+      <c r="KR2" s="8"/>
+      <c r="KS2" s="8"/>
+      <c r="KT2" s="8"/>
+      <c r="KU2" s="8"/>
+      <c r="KV2" s="8"/>
+      <c r="KW2" s="8"/>
+      <c r="KX2" s="8"/>
+      <c r="KY2" s="8"/>
+      <c r="KZ2" s="8"/>
+      <c r="LA2" s="8"/>
+      <c r="LB2" s="8"/>
+      <c r="LC2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="LD2" s="8"/>
+      <c r="LE2" s="8"/>
+      <c r="LF2" s="8"/>
+      <c r="LG2" s="8"/>
+      <c r="LH2" s="8"/>
+      <c r="LI2" s="8"/>
+      <c r="LJ2" s="8"/>
+      <c r="LK2" s="8"/>
     </row>
-    <row r="3" spans="1:228" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:323" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
@@ -1511,1356 +1706,1926 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="11">
+      <c r="I3" s="12">
         <v>1</v>
       </c>
-      <c r="J3" s="12">
+      <c r="J3" s="13">
         <v>2</v>
       </c>
-      <c r="K3" s="13">
+      <c r="K3" s="14">
         <v>3</v>
       </c>
-      <c r="L3" s="13">
+      <c r="L3" s="14">
         <v>4</v>
       </c>
-      <c r="M3" s="13">
+      <c r="M3" s="14">
         <v>5</v>
       </c>
-      <c r="N3" s="13">
+      <c r="N3" s="14">
         <v>6</v>
       </c>
-      <c r="O3" s="13">
+      <c r="O3" s="14">
         <v>7</v>
       </c>
-      <c r="P3" s="11">
+      <c r="P3" s="12">
         <v>8</v>
       </c>
-      <c r="Q3" s="12">
+      <c r="Q3" s="13">
         <v>9</v>
       </c>
-      <c r="R3" s="13">
+      <c r="R3" s="14">
         <v>10</v>
       </c>
-      <c r="S3" s="13">
+      <c r="S3" s="14">
         <v>11</v>
       </c>
-      <c r="T3" s="13">
+      <c r="T3" s="14">
         <v>12</v>
       </c>
-      <c r="U3" s="13">
+      <c r="U3" s="14">
         <v>13</v>
       </c>
-      <c r="V3" s="13">
+      <c r="V3" s="14">
         <v>14</v>
       </c>
-      <c r="W3" s="11">
+      <c r="W3" s="12">
         <v>15</v>
       </c>
-      <c r="X3" s="12">
+      <c r="X3" s="13">
         <v>16</v>
       </c>
-      <c r="Y3" s="13">
+      <c r="Y3" s="14">
         <v>17</v>
       </c>
-      <c r="Z3" s="13">
+      <c r="Z3" s="14">
         <v>18</v>
       </c>
-      <c r="AA3" s="13">
+      <c r="AA3" s="14">
         <v>19</v>
       </c>
-      <c r="AB3" s="12">
+      <c r="AB3" s="13">
         <v>20</v>
       </c>
-      <c r="AC3" s="13">
+      <c r="AC3" s="14">
         <v>21</v>
       </c>
-      <c r="AD3" s="11">
+      <c r="AD3" s="12">
         <v>22</v>
       </c>
-      <c r="AE3" s="12">
+      <c r="AE3" s="13">
         <v>23</v>
       </c>
-      <c r="AF3" s="13">
+      <c r="AF3" s="14">
         <v>24</v>
       </c>
-      <c r="AG3" s="13">
+      <c r="AG3" s="14">
         <v>25</v>
       </c>
-      <c r="AH3" s="13">
+      <c r="AH3" s="14">
         <v>26</v>
       </c>
-      <c r="AI3" s="13">
+      <c r="AI3" s="14">
         <v>27</v>
       </c>
-      <c r="AJ3" s="13">
+      <c r="AJ3" s="14">
         <v>28</v>
       </c>
-      <c r="AK3" s="11">
+      <c r="AK3" s="12">
         <v>29</v>
       </c>
-      <c r="AL3" s="12">
+      <c r="AL3" s="13">
         <v>30</v>
       </c>
-      <c r="AM3" s="13">
+      <c r="AM3" s="14">
         <v>31</v>
       </c>
-      <c r="AN3" s="13">
+      <c r="AN3" s="14">
         <v>1</v>
       </c>
-      <c r="AO3" s="13">
+      <c r="AO3" s="14">
         <v>2</v>
       </c>
-      <c r="AP3" s="13">
+      <c r="AP3" s="14">
         <v>3</v>
       </c>
-      <c r="AQ3" s="13">
+      <c r="AQ3" s="14">
         <v>4</v>
       </c>
-      <c r="AR3" s="11">
+      <c r="AR3" s="12">
         <v>5</v>
       </c>
-      <c r="AS3" s="12">
+      <c r="AS3" s="13">
         <v>6</v>
       </c>
-      <c r="AT3" s="13">
+      <c r="AT3" s="14">
         <v>7</v>
       </c>
-      <c r="AU3" s="13">
+      <c r="AU3" s="14">
         <v>8</v>
       </c>
-      <c r="AV3" s="13">
+      <c r="AV3" s="14">
         <v>9</v>
       </c>
-      <c r="AW3" s="13">
+      <c r="AW3" s="14">
         <v>10</v>
       </c>
-      <c r="AX3" s="13">
+      <c r="AX3" s="14">
         <v>11</v>
       </c>
-      <c r="AY3" s="11">
+      <c r="AY3" s="12">
         <v>12</v>
       </c>
-      <c r="AZ3" s="14">
+      <c r="AZ3" s="13">
         <v>13</v>
       </c>
-      <c r="BA3" s="15">
+      <c r="BA3" s="14">
         <v>14</v>
       </c>
-      <c r="BB3" s="16">
+      <c r="BB3" s="14">
         <v>15</v>
       </c>
-      <c r="BC3" s="13">
+      <c r="BC3" s="14">
         <v>16</v>
       </c>
-      <c r="BD3" s="13">
+      <c r="BD3" s="14">
         <v>17</v>
       </c>
-      <c r="BE3" s="13">
+      <c r="BE3" s="14">
         <v>18</v>
       </c>
-      <c r="BF3" s="11">
+      <c r="BF3" s="12">
         <v>19</v>
       </c>
-      <c r="BG3" s="12">
+      <c r="BG3" s="13">
         <v>20</v>
       </c>
-      <c r="BH3" s="13">
+      <c r="BH3" s="14">
         <v>21</v>
       </c>
-      <c r="BI3" s="13">
+      <c r="BI3" s="14">
         <v>22</v>
       </c>
-      <c r="BJ3" s="13">
+      <c r="BJ3" s="15">
         <v>23</v>
       </c>
-      <c r="BK3" s="13">
+      <c r="BK3" s="16">
         <v>24</v>
       </c>
-      <c r="BL3" s="13">
+      <c r="BL3" s="17">
         <v>25</v>
       </c>
-      <c r="BM3" s="11">
+      <c r="BM3" s="12">
         <v>26</v>
       </c>
-      <c r="BN3" s="12">
+      <c r="BN3" s="13">
         <v>27</v>
       </c>
-      <c r="BO3" s="13">
+      <c r="BO3" s="14">
         <v>28</v>
       </c>
-      <c r="BP3" s="12">
+      <c r="BP3" s="13">
         <v>29</v>
       </c>
-      <c r="BQ3" s="13">
+      <c r="BQ3" s="14">
         <v>30</v>
       </c>
-      <c r="BR3" s="13">
+      <c r="BR3" s="14">
         <v>1</v>
       </c>
-      <c r="BS3" s="13">
+      <c r="BS3" s="14">
         <v>2</v>
       </c>
-      <c r="BT3" s="12">
+      <c r="BT3" s="13">
         <v>3</v>
       </c>
-      <c r="BU3" s="12">
+      <c r="BU3" s="13">
         <v>4</v>
       </c>
-      <c r="BV3" s="12">
+      <c r="BV3" s="13">
         <v>5</v>
       </c>
-      <c r="BW3" s="12">
+      <c r="BW3" s="13">
         <v>6</v>
       </c>
-      <c r="BX3" s="13">
+      <c r="BX3" s="14">
         <v>7</v>
       </c>
-      <c r="BY3" s="13">
+      <c r="BY3" s="14">
         <v>8</v>
       </c>
-      <c r="BZ3" s="13">
+      <c r="BZ3" s="14">
         <v>9</v>
       </c>
-      <c r="CA3" s="11">
+      <c r="CA3" s="12">
         <v>10</v>
       </c>
-      <c r="CB3" s="12">
+      <c r="CB3" s="13">
         <v>11</v>
       </c>
-      <c r="CC3" s="13">
+      <c r="CC3" s="14">
         <v>12</v>
       </c>
-      <c r="CD3" s="13">
+      <c r="CD3" s="14">
         <v>13</v>
       </c>
-      <c r="CE3" s="13">
+      <c r="CE3" s="14">
         <v>14</v>
       </c>
-      <c r="CF3" s="13">
+      <c r="CF3" s="14">
         <v>15</v>
       </c>
-      <c r="CG3" s="13">
+      <c r="CG3" s="14">
         <v>16</v>
       </c>
-      <c r="CH3" s="11">
+      <c r="CH3" s="12">
         <v>17</v>
       </c>
-      <c r="CI3" s="12">
+      <c r="CI3" s="13">
         <v>18</v>
       </c>
-      <c r="CJ3" s="13">
+      <c r="CJ3" s="14">
         <v>19</v>
       </c>
-      <c r="CK3" s="13">
+      <c r="CK3" s="14">
         <v>20</v>
       </c>
-      <c r="CL3" s="13">
+      <c r="CL3" s="14">
         <v>21</v>
       </c>
-      <c r="CM3" s="13">
+      <c r="CM3" s="14">
         <v>22</v>
       </c>
-      <c r="CN3" s="13">
+      <c r="CN3" s="14">
         <v>23</v>
       </c>
-      <c r="CO3" s="11">
+      <c r="CO3" s="12">
         <v>24</v>
       </c>
-      <c r="CP3" s="12">
+      <c r="CP3" s="13">
         <v>25</v>
       </c>
-      <c r="CQ3" s="13">
+      <c r="CQ3" s="14">
         <v>26</v>
       </c>
-      <c r="CR3" s="13">
+      <c r="CR3" s="14">
         <v>27</v>
       </c>
-      <c r="CS3" s="13">
+      <c r="CS3" s="14">
         <v>28</v>
       </c>
-      <c r="CT3" s="13">
+      <c r="CT3" s="14">
         <v>29</v>
       </c>
-      <c r="CU3" s="13">
+      <c r="CU3" s="14">
         <v>30</v>
       </c>
-      <c r="CV3" s="11">
+      <c r="CV3" s="12">
         <v>31</v>
       </c>
-      <c r="CW3" s="12">
+      <c r="CW3" s="13">
         <v>1</v>
       </c>
-      <c r="CX3" s="13">
+      <c r="CX3" s="14">
         <v>2</v>
       </c>
-      <c r="CY3" s="13">
+      <c r="CY3" s="14">
         <v>3</v>
       </c>
-      <c r="CZ3" s="13">
+      <c r="CZ3" s="14">
         <v>4</v>
       </c>
-      <c r="DA3" s="13">
+      <c r="DA3" s="14">
         <v>5</v>
       </c>
-      <c r="DB3" s="13">
+      <c r="DB3" s="14">
         <v>6</v>
       </c>
-      <c r="DC3" s="11">
+      <c r="DC3" s="12">
         <v>7</v>
       </c>
-      <c r="DD3" s="12">
+      <c r="DD3" s="13">
         <v>8</v>
       </c>
-      <c r="DE3" s="13">
+      <c r="DE3" s="14">
         <v>9</v>
       </c>
-      <c r="DF3" s="13">
+      <c r="DF3" s="14">
         <v>10</v>
       </c>
-      <c r="DG3" s="13">
+      <c r="DG3" s="14">
         <v>11</v>
       </c>
-      <c r="DH3" s="13">
+      <c r="DH3" s="14">
         <v>12</v>
       </c>
-      <c r="DI3" s="13">
+      <c r="DI3" s="14">
         <v>13</v>
       </c>
-      <c r="DJ3" s="11">
+      <c r="DJ3" s="12">
         <v>14</v>
       </c>
-      <c r="DK3" s="12">
+      <c r="DK3" s="13">
         <v>15</v>
       </c>
-      <c r="DL3" s="13">
+      <c r="DL3" s="14">
         <v>16</v>
       </c>
-      <c r="DM3" s="13">
+      <c r="DM3" s="14">
         <v>17</v>
       </c>
-      <c r="DN3" s="13">
+      <c r="DN3" s="14">
         <v>18</v>
       </c>
-      <c r="DO3" s="13">
+      <c r="DO3" s="14">
         <v>19</v>
       </c>
-      <c r="DP3" s="13">
+      <c r="DP3" s="14">
         <v>20</v>
       </c>
-      <c r="DQ3" s="11">
+      <c r="DQ3" s="12">
         <v>21</v>
       </c>
-      <c r="DR3" s="12">
+      <c r="DR3" s="13">
         <v>22</v>
       </c>
-      <c r="DS3" s="13">
+      <c r="DS3" s="14">
         <v>23</v>
       </c>
-      <c r="DT3" s="13">
+      <c r="DT3" s="14">
         <v>24</v>
       </c>
-      <c r="DU3" s="13">
+      <c r="DU3" s="14">
         <v>25</v>
       </c>
-      <c r="DV3" s="13">
+      <c r="DV3" s="14">
         <v>26</v>
       </c>
-      <c r="DW3" s="13">
+      <c r="DW3" s="14">
         <v>27</v>
       </c>
-      <c r="DX3" s="11">
+      <c r="DX3" s="12">
         <v>28</v>
       </c>
-      <c r="DY3" s="12">
+      <c r="DY3" s="13">
         <v>29</v>
       </c>
-      <c r="DZ3" s="13">
+      <c r="DZ3" s="14">
         <v>30</v>
       </c>
-      <c r="EA3" s="13">
+      <c r="EA3" s="14">
         <v>1</v>
       </c>
-      <c r="EB3" s="13">
+      <c r="EB3" s="14">
         <v>2</v>
       </c>
-      <c r="EC3" s="13">
+      <c r="EC3" s="14">
         <v>3</v>
       </c>
-      <c r="ED3" s="13">
+      <c r="ED3" s="14">
         <v>4</v>
       </c>
-      <c r="EE3" s="11">
+      <c r="EE3" s="12">
         <v>5</v>
       </c>
-      <c r="EF3" s="12">
+      <c r="EF3" s="13">
         <v>6</v>
       </c>
-      <c r="EG3" s="13">
+      <c r="EG3" s="14">
         <v>7</v>
       </c>
-      <c r="EH3" s="13">
+      <c r="EH3" s="14">
         <v>8</v>
       </c>
-      <c r="EI3" s="13">
+      <c r="EI3" s="14">
         <v>9</v>
       </c>
-      <c r="EJ3" s="13">
+      <c r="EJ3" s="14">
         <v>10</v>
       </c>
-      <c r="EK3" s="13">
+      <c r="EK3" s="14">
         <v>11</v>
       </c>
-      <c r="EL3" s="11">
+      <c r="EL3" s="12">
         <v>12</v>
       </c>
-      <c r="EM3" s="12">
+      <c r="EM3" s="13">
         <v>13</v>
       </c>
-      <c r="EN3" s="13">
+      <c r="EN3" s="14">
         <v>14</v>
       </c>
-      <c r="EO3" s="13">
+      <c r="EO3" s="14">
         <v>15</v>
       </c>
-      <c r="EP3" s="13">
+      <c r="EP3" s="14">
         <v>16</v>
       </c>
-      <c r="EQ3" s="13">
+      <c r="EQ3" s="14">
         <v>17</v>
       </c>
-      <c r="ER3" s="13">
+      <c r="ER3" s="14">
         <v>18</v>
       </c>
-      <c r="ES3" s="11">
+      <c r="ES3" s="12">
         <v>19</v>
       </c>
-      <c r="ET3" s="12">
+      <c r="ET3" s="13">
         <v>20</v>
       </c>
-      <c r="EU3" s="12">
+      <c r="EU3" s="13">
         <v>21</v>
       </c>
-      <c r="EV3" s="13">
+      <c r="EV3" s="14">
         <v>22</v>
       </c>
-      <c r="EW3" s="13">
+      <c r="EW3" s="14">
         <v>23</v>
       </c>
-      <c r="EX3" s="13">
+      <c r="EX3" s="14">
         <v>24</v>
       </c>
-      <c r="EY3" s="13">
+      <c r="EY3" s="14">
         <v>25</v>
       </c>
-      <c r="EZ3" s="11">
+      <c r="EZ3" s="12">
         <v>26</v>
       </c>
-      <c r="FA3" s="12">
+      <c r="FA3" s="13">
         <v>27</v>
       </c>
-      <c r="FB3" s="13">
+      <c r="FB3" s="14">
         <v>28</v>
       </c>
-      <c r="FC3" s="13">
+      <c r="FC3" s="14">
         <v>29</v>
       </c>
-      <c r="FD3" s="13">
+      <c r="FD3" s="14">
         <v>30</v>
       </c>
-      <c r="FE3" s="13">
+      <c r="FE3" s="14">
         <v>31</v>
       </c>
-      <c r="FF3" s="13">
+      <c r="FF3" s="14">
         <v>1</v>
       </c>
-      <c r="FG3" s="11">
+      <c r="FG3" s="12">
         <v>2</v>
       </c>
-      <c r="FH3" s="12">
+      <c r="FH3" s="13">
         <v>3</v>
       </c>
-      <c r="FI3" s="13">
+      <c r="FI3" s="14">
         <v>4</v>
       </c>
-      <c r="FJ3" s="13">
+      <c r="FJ3" s="14">
         <v>5</v>
       </c>
-      <c r="FK3" s="13">
+      <c r="FK3" s="14">
         <v>6</v>
       </c>
-      <c r="FL3" s="13">
+      <c r="FL3" s="14">
         <v>7</v>
       </c>
-      <c r="FM3" s="13">
+      <c r="FM3" s="14">
         <v>8</v>
       </c>
-      <c r="FN3" s="11">
+      <c r="FN3" s="12">
         <v>9</v>
       </c>
-      <c r="FO3" s="12">
+      <c r="FO3" s="13">
         <v>10</v>
       </c>
-      <c r="FP3" s="12">
+      <c r="FP3" s="13">
         <v>11</v>
       </c>
-      <c r="FQ3" s="13">
+      <c r="FQ3" s="14">
         <v>12</v>
       </c>
-      <c r="FR3" s="13">
+      <c r="FR3" s="14">
         <v>13</v>
       </c>
-      <c r="FS3" s="13">
+      <c r="FS3" s="14">
         <v>14</v>
       </c>
-      <c r="FT3" s="13">
+      <c r="FT3" s="14">
         <v>15</v>
       </c>
-      <c r="FU3" s="11">
+      <c r="FU3" s="12">
         <v>16</v>
       </c>
-      <c r="FV3" s="12">
+      <c r="FV3" s="13">
         <v>17</v>
       </c>
-      <c r="FW3" s="13">
+      <c r="FW3" s="14">
         <v>18</v>
       </c>
-      <c r="FX3" s="13">
+      <c r="FX3" s="14">
         <v>19</v>
       </c>
-      <c r="FY3" s="13">
+      <c r="FY3" s="14">
         <v>20</v>
       </c>
-      <c r="FZ3" s="13">
+      <c r="FZ3" s="14">
         <v>21</v>
       </c>
-      <c r="GA3" s="13">
+      <c r="GA3" s="14">
         <v>22</v>
       </c>
-      <c r="GB3" s="11">
+      <c r="GB3" s="12">
         <v>23</v>
       </c>
-      <c r="GC3" s="12">
+      <c r="GC3" s="13">
         <v>24</v>
       </c>
-      <c r="GD3" s="13">
+      <c r="GD3" s="14">
         <v>25</v>
       </c>
-      <c r="GE3" s="13">
+      <c r="GE3" s="14">
         <v>26</v>
       </c>
-      <c r="GF3" s="13">
+      <c r="GF3" s="14">
         <v>27</v>
       </c>
-      <c r="GG3" s="13">
+      <c r="GG3" s="14">
         <v>28</v>
       </c>
-      <c r="GH3" s="13">
+      <c r="GH3" s="14">
         <v>29</v>
       </c>
-      <c r="GI3" s="11">
+      <c r="GI3" s="12">
         <v>30</v>
       </c>
-      <c r="GJ3" s="12">
+      <c r="GJ3" s="13">
         <v>31</v>
       </c>
-      <c r="GK3" s="13">
+      <c r="GK3" s="14">
         <v>1</v>
       </c>
-      <c r="GL3" s="13">
+      <c r="GL3" s="14">
         <v>2</v>
       </c>
-      <c r="GM3" s="13">
+      <c r="GM3" s="14">
         <v>3</v>
       </c>
-      <c r="GN3" s="13">
+      <c r="GN3" s="14">
         <v>4</v>
       </c>
-      <c r="GO3" s="13">
+      <c r="GO3" s="14">
         <v>5</v>
       </c>
-      <c r="GP3" s="11">
+      <c r="GP3" s="12">
         <v>6</v>
       </c>
-      <c r="GQ3" s="12">
+      <c r="GQ3" s="13">
         <v>7</v>
       </c>
-      <c r="GR3" s="13">
+      <c r="GR3" s="14">
         <v>8</v>
       </c>
-      <c r="GS3" s="13">
+      <c r="GS3" s="14">
         <v>9</v>
       </c>
-      <c r="GT3" s="13">
+      <c r="GT3" s="14">
         <v>10</v>
       </c>
-      <c r="GU3" s="13">
+      <c r="GU3" s="14">
         <v>11</v>
       </c>
-      <c r="GV3" s="13">
+      <c r="GV3" s="14">
         <v>12</v>
       </c>
-      <c r="GW3" s="11">
+      <c r="GW3" s="12">
         <v>13</v>
       </c>
-      <c r="GX3" s="12">
+      <c r="GX3" s="13">
         <v>14</v>
       </c>
-      <c r="GY3" s="12">
+      <c r="GY3" s="13">
         <v>15</v>
       </c>
-      <c r="GZ3" s="13">
+      <c r="GZ3" s="14">
         <v>16</v>
       </c>
-      <c r="HA3" s="13">
+      <c r="HA3" s="14">
         <v>17</v>
       </c>
-      <c r="HB3" s="13">
+      <c r="HB3" s="14">
         <v>18</v>
       </c>
-      <c r="HC3" s="13">
+      <c r="HC3" s="14">
         <v>19</v>
       </c>
-      <c r="HD3" s="11">
+      <c r="HD3" s="12">
         <v>20</v>
       </c>
-      <c r="HE3" s="12">
+      <c r="HE3" s="13">
         <v>21</v>
       </c>
-      <c r="HF3" s="13">
+      <c r="HF3" s="14">
         <v>22</v>
       </c>
-      <c r="HG3" s="12">
+      <c r="HG3" s="13">
         <v>23</v>
       </c>
-      <c r="HH3" s="13">
+      <c r="HH3" s="14">
         <v>24</v>
       </c>
-      <c r="HI3" s="13">
+      <c r="HI3" s="14">
         <v>25</v>
       </c>
-      <c r="HJ3" s="13">
+      <c r="HJ3" s="14">
         <v>26</v>
       </c>
-      <c r="HK3" s="11">
+      <c r="HK3" s="12">
         <v>27</v>
       </c>
-      <c r="HL3" s="12">
+      <c r="HL3" s="13">
         <v>28</v>
       </c>
-      <c r="HM3" s="13">
+      <c r="HM3" s="14">
         <v>29</v>
       </c>
-      <c r="HN3" s="13">
+      <c r="HN3" s="14">
         <v>30</v>
       </c>
-      <c r="HO3" s="13">
+      <c r="HO3" s="14">
         <v>1</v>
       </c>
-      <c r="HP3" s="13">
+      <c r="HP3" s="14">
         <v>2</v>
       </c>
-      <c r="HQ3" s="13">
+      <c r="HQ3" s="14">
         <v>3</v>
       </c>
-      <c r="HR3" s="11">
+      <c r="HR3" s="12">
         <v>4</v>
       </c>
-      <c r="HS3" s="12">
+      <c r="HS3" s="13">
         <v>5</v>
       </c>
-      <c r="HT3" s="13">
+      <c r="HT3" s="14">
         <v>6</v>
       </c>
+      <c r="HU3" s="14">
+        <v>7</v>
+      </c>
+      <c r="HV3" s="14">
+        <v>8</v>
+      </c>
+      <c r="HW3" s="14">
+        <v>9</v>
+      </c>
+      <c r="HX3" s="14">
+        <v>10</v>
+      </c>
+      <c r="HY3" s="12">
+        <v>11</v>
+      </c>
+      <c r="HZ3" s="13">
+        <v>12</v>
+      </c>
+      <c r="IA3" s="13">
+        <v>13</v>
+      </c>
+      <c r="IB3" s="14">
+        <v>14</v>
+      </c>
+      <c r="IC3" s="14">
+        <v>15</v>
+      </c>
+      <c r="ID3" s="14">
+        <v>16</v>
+      </c>
+      <c r="IE3" s="14">
+        <v>17</v>
+      </c>
+      <c r="IF3" s="12">
+        <v>18</v>
+      </c>
+      <c r="IG3" s="13">
+        <v>19</v>
+      </c>
+      <c r="IH3" s="14">
+        <v>20</v>
+      </c>
+      <c r="II3" s="14">
+        <v>21</v>
+      </c>
+      <c r="IJ3" s="14">
+        <v>22</v>
+      </c>
+      <c r="IK3" s="14">
+        <v>23</v>
+      </c>
+      <c r="IL3" s="14">
+        <v>24</v>
+      </c>
+      <c r="IM3" s="12">
+        <v>25</v>
+      </c>
+      <c r="IN3" s="13">
+        <v>26</v>
+      </c>
+      <c r="IO3" s="14">
+        <v>27</v>
+      </c>
+      <c r="IP3" s="14">
+        <v>28</v>
+      </c>
+      <c r="IQ3" s="14">
+        <v>29</v>
+      </c>
+      <c r="IR3" s="14">
+        <v>30</v>
+      </c>
+      <c r="IS3" s="14">
+        <v>31</v>
+      </c>
+      <c r="IT3" s="12">
+        <v>1</v>
+      </c>
+      <c r="IU3" s="13">
+        <v>2</v>
+      </c>
+      <c r="IV3" s="13">
+        <v>3</v>
+      </c>
+      <c r="IW3" s="14">
+        <v>4</v>
+      </c>
+      <c r="IX3" s="14">
+        <v>5</v>
+      </c>
+      <c r="IY3" s="14">
+        <v>6</v>
+      </c>
+      <c r="IZ3" s="14">
+        <v>7</v>
+      </c>
+      <c r="JA3" s="12">
+        <v>8</v>
+      </c>
+      <c r="JB3" s="13">
+        <v>9</v>
+      </c>
+      <c r="JC3" s="14">
+        <v>10</v>
+      </c>
+      <c r="JD3" s="14">
+        <v>11</v>
+      </c>
+      <c r="JE3" s="14">
+        <v>12</v>
+      </c>
+      <c r="JF3" s="14">
+        <v>13</v>
+      </c>
+      <c r="JG3" s="14">
+        <v>14</v>
+      </c>
+      <c r="JH3" s="12">
+        <v>15</v>
+      </c>
+      <c r="JI3" s="13">
+        <v>16</v>
+      </c>
+      <c r="JJ3" s="14">
+        <v>17</v>
+      </c>
+      <c r="JK3" s="14">
+        <v>18</v>
+      </c>
+      <c r="JL3" s="14">
+        <v>19</v>
+      </c>
+      <c r="JM3" s="14">
+        <v>20</v>
+      </c>
+      <c r="JN3" s="14">
+        <v>21</v>
+      </c>
+      <c r="JO3" s="12">
+        <v>22</v>
+      </c>
+      <c r="JP3" s="13">
+        <v>23</v>
+      </c>
+      <c r="JQ3" s="13">
+        <v>24</v>
+      </c>
+      <c r="JR3" s="14">
+        <v>25</v>
+      </c>
+      <c r="JS3" s="14">
+        <v>26</v>
+      </c>
+      <c r="JT3" s="14">
+        <v>27</v>
+      </c>
+      <c r="JU3" s="14">
+        <v>28</v>
+      </c>
+      <c r="JV3" s="12">
+        <v>29</v>
+      </c>
+      <c r="JW3" s="13">
+        <v>30</v>
+      </c>
+      <c r="JX3" s="14">
+        <v>1</v>
+      </c>
+      <c r="JY3" s="14">
+        <v>2</v>
+      </c>
+      <c r="JZ3" s="14">
+        <v>3</v>
+      </c>
+      <c r="KA3" s="14">
+        <v>4</v>
+      </c>
+      <c r="KB3" s="14">
+        <v>5</v>
+      </c>
+      <c r="KC3" s="12">
+        <v>6</v>
+      </c>
+      <c r="KD3" s="13">
+        <v>7</v>
+      </c>
+      <c r="KE3" s="14">
+        <v>8</v>
+      </c>
+      <c r="KF3" s="14">
+        <v>9</v>
+      </c>
+      <c r="KG3" s="14">
+        <v>10</v>
+      </c>
+      <c r="KH3" s="14">
+        <v>11</v>
+      </c>
+      <c r="KI3" s="14">
+        <v>12</v>
+      </c>
+      <c r="KJ3" s="12">
+        <v>13</v>
+      </c>
+      <c r="KK3" s="13">
+        <v>14</v>
+      </c>
+      <c r="KL3" s="14">
+        <v>15</v>
+      </c>
+      <c r="KM3" s="14">
+        <v>16</v>
+      </c>
+      <c r="KN3" s="14">
+        <v>17</v>
+      </c>
+      <c r="KO3" s="14">
+        <v>18</v>
+      </c>
+      <c r="KP3" s="14">
+        <v>19</v>
+      </c>
+      <c r="KQ3" s="12">
+        <v>20</v>
+      </c>
+      <c r="KR3" s="13">
+        <v>21</v>
+      </c>
+      <c r="KS3" s="14">
+        <v>22</v>
+      </c>
+      <c r="KT3" s="14">
+        <v>23</v>
+      </c>
+      <c r="KU3" s="14">
+        <v>24</v>
+      </c>
+      <c r="KV3" s="14">
+        <v>25</v>
+      </c>
+      <c r="KW3" s="14">
+        <v>26</v>
+      </c>
+      <c r="KX3" s="12">
+        <v>27</v>
+      </c>
+      <c r="KY3" s="13">
+        <v>28</v>
+      </c>
+      <c r="KZ3" s="14">
+        <v>29</v>
+      </c>
+      <c r="LA3" s="14">
+        <v>30</v>
+      </c>
+      <c r="LB3" s="14">
+        <v>31</v>
+      </c>
+      <c r="LC3" s="13">
+        <v>1</v>
+      </c>
+      <c r="LD3" s="14">
+        <v>2</v>
+      </c>
+      <c r="LE3" s="12">
+        <v>3</v>
+      </c>
+      <c r="LF3" s="13">
+        <v>4</v>
+      </c>
+      <c r="LG3" s="14">
+        <v>5</v>
+      </c>
+      <c r="LH3" s="14">
+        <v>6</v>
+      </c>
+      <c r="LI3" s="14">
+        <v>7</v>
+      </c>
+      <c r="LJ3" s="14">
+        <v>8</v>
+      </c>
+      <c r="LK3" s="14">
+        <v>9</v>
+      </c>
     </row>
-    <row r="4" spans="1:228" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:323" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="13" t="s">
+      <c r="I4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="13" t="s">
+      <c r="J4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="13" t="s">
+      <c r="K4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="P4" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q4" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="R4" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="S4" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="T4" s="13" t="s">
+      <c r="L4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="U4" s="13" t="s">
+      <c r="Q4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="V4" s="13" t="s">
+      <c r="R4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="W4" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="X4" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y4" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z4" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA4" s="13" t="s">
+      <c r="S4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="T4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="V4" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="W4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="AB4" s="18" t="s">
+      <c r="X4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="AC4" s="13" t="s">
+      <c r="Y4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="AD4" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="AE4" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="AF4" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG4" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="AH4" s="13" t="s">
+      <c r="Z4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB4" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC4" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="AI4" s="13" t="s">
+      <c r="AE4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="AJ4" s="13" t="s">
+      <c r="AF4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="AK4" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="AL4" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="AM4" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="AN4" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="AO4" s="13" t="s">
+      <c r="AG4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ4" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="AP4" s="13" t="s">
+      <c r="AL4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="AQ4" s="13" t="s">
+      <c r="AM4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="AR4" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="AS4" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="AT4" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="AU4" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="AV4" s="13" t="s">
+      <c r="AN4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="AQ4" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AR4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="AW4" s="13" t="s">
+      <c r="AS4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="AX4" s="13" t="s">
+      <c r="AT4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="AY4" s="17" t="s">
-        <v>17</v>
+      <c r="AU4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="AV4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="AW4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="AX4" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AY4" s="18" t="s">
+        <v>21</v>
       </c>
       <c r="AZ4" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="BA4" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="BB4" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="BC4" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="BA4" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="BB4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="BC4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="BD4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="BE4" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="BF4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="BD4" s="13" t="s">
+      <c r="BG4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="BE4" s="13" t="s">
+      <c r="BH4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="BF4" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="BG4" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="BH4" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="BI4" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="BJ4" s="13" t="s">
+      <c r="BI4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="BJ4" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="BK4" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="BL4" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="BM4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="BK4" s="13" t="s">
+      <c r="BN4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="BL4" s="13" t="s">
+      <c r="BO4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="BM4" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="BN4" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="BO4" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="BP4" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="BQ4" s="13" t="s">
+      <c r="BP4" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="BQ4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="BR4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="BS4" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="BT4" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="BR4" s="13" t="s">
+      <c r="BU4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="BS4" s="13" t="s">
+      <c r="BV4" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="BT4" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="BU4" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="BV4" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="BW4" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="BX4" s="13" t="s">
+      <c r="BW4" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="BX4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="BY4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="BZ4" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="CA4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="BY4" s="13" t="s">
+      <c r="CB4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="BZ4" s="13" t="s">
+      <c r="CC4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="CA4" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="CB4" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="CC4" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="CD4" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="CE4" s="13" t="s">
+      <c r="CD4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="CE4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="CF4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="CG4" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="CH4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="CF4" s="13" t="s">
+      <c r="CI4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="CG4" s="13" t="s">
+      <c r="CJ4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="CH4" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="CI4" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="CJ4" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="CK4" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="CL4" s="13" t="s">
+      <c r="CK4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="CL4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="CM4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="CN4" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="CO4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="CM4" s="13" t="s">
+      <c r="CP4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="CN4" s="13" t="s">
+      <c r="CQ4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="CO4" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="CP4" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="CQ4" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="CR4" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="CS4" s="13" t="s">
+      <c r="CR4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="CS4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="CT4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="CU4" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="CV4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="CT4" s="13" t="s">
+      <c r="CW4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="CU4" s="13" t="s">
+      <c r="CX4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="CV4" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="CW4" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="CX4" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="CY4" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="CZ4" s="13" t="s">
+      <c r="CY4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="CZ4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="DA4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="DB4" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="DC4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="DA4" s="13" t="s">
+      <c r="DD4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="DB4" s="13" t="s">
+      <c r="DE4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="DC4" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="DD4" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="DE4" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="DF4" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="DG4" s="13" t="s">
+      <c r="DF4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="DG4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="DH4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="DI4" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="DJ4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="DH4" s="13" t="s">
+      <c r="DK4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="DI4" s="13" t="s">
+      <c r="DL4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="DJ4" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="DK4" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="DL4" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="DM4" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="DN4" s="13" t="s">
+      <c r="DM4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="DN4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="DO4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="DP4" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="DQ4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="DO4" s="13" t="s">
+      <c r="DR4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="DP4" s="13" t="s">
+      <c r="DS4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="DQ4" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="DR4" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="DS4" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="DT4" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="DU4" s="13" t="s">
+      <c r="DT4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="DU4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="DV4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="DW4" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="DX4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="DV4" s="13" t="s">
+      <c r="DY4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="DW4" s="13" t="s">
+      <c r="DZ4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="DX4" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="DY4" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="DZ4" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="EA4" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="EB4" s="13" t="s">
+      <c r="EA4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="EB4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="EC4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="ED4" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="EE4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="EC4" s="13" t="s">
+      <c r="EF4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="ED4" s="13" t="s">
+      <c r="EG4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="EE4" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="EF4" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="EG4" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="EH4" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="EI4" s="13" t="s">
+      <c r="EH4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="EI4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="EJ4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="EK4" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="EL4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="EJ4" s="13" t="s">
+      <c r="EM4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="EK4" s="13" t="s">
+      <c r="EN4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="EL4" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="EM4" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="EN4" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="EO4" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="EP4" s="13" t="s">
+      <c r="EO4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="EP4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="EQ4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="ER4" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="ES4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="EQ4" s="13" t="s">
+      <c r="ET4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="ER4" s="13" t="s">
+      <c r="EU4" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="ES4" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="ET4" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="EU4" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="EV4" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="EW4" s="13" t="s">
+      <c r="EV4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="EW4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="EX4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="EY4" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="EZ4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="EX4" s="13" t="s">
+      <c r="FA4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="EY4" s="13" t="s">
+      <c r="FB4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="EZ4" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="FA4" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="FB4" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="FC4" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="FD4" s="13" t="s">
+      <c r="FC4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="FD4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="FE4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="FF4" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="FG4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="FE4" s="13" t="s">
+      <c r="FH4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="FF4" s="13" t="s">
+      <c r="FI4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="FG4" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="FH4" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="FI4" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="FJ4" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="FK4" s="13" t="s">
+      <c r="FJ4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="FK4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="FL4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="FM4" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="FN4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="FL4" s="13" t="s">
+      <c r="FO4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="FM4" s="13" t="s">
+      <c r="FP4" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="FN4" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="FO4" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="FP4" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="FQ4" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="FR4" s="13" t="s">
+      <c r="FQ4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="FR4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="FS4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="FT4" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="FU4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="FS4" s="13" t="s">
+      <c r="FV4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="FT4" s="13" t="s">
+      <c r="FW4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="FU4" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="FV4" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="FW4" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="FX4" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="FY4" s="13" t="s">
+      <c r="FX4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="FY4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="FZ4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="GA4" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="GB4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="FZ4" s="13" t="s">
+      <c r="GC4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="GA4" s="13" t="s">
+      <c r="GD4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="GB4" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="GC4" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="GD4" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="GE4" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="GF4" s="13" t="s">
+      <c r="GE4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="GF4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="GG4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="GH4" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="GI4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="GG4" s="13" t="s">
+      <c r="GJ4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="GH4" s="13" t="s">
+      <c r="GK4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="GI4" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="GJ4" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="GK4" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="GL4" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="GM4" s="13" t="s">
+      <c r="GL4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="GM4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="GN4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="GO4" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="GP4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="GN4" s="13" t="s">
+      <c r="GQ4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="GO4" s="13" t="s">
+      <c r="GR4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="GP4" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="GQ4" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="GR4" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="GS4" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="GT4" s="13" t="s">
+      <c r="GS4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="GT4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="GU4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="GV4" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="GW4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="GU4" s="13" t="s">
+      <c r="GX4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="GV4" s="13" t="s">
+      <c r="GY4" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="GW4" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="GX4" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="GY4" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="GZ4" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="HA4" s="13" t="s">
+      <c r="GZ4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="HA4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="HB4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="HC4" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="HD4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="HB4" s="13" t="s">
+      <c r="HE4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="HC4" s="13" t="s">
+      <c r="HF4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="HD4" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="HE4" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="HF4" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="HG4" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="HH4" s="13" t="s">
+      <c r="HG4" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="HH4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="HI4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="HJ4" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="HK4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="HI4" s="13" t="s">
+      <c r="HL4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="HJ4" s="13" t="s">
+      <c r="HM4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="HK4" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="HL4" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="HM4" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="HN4" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="HO4" s="13" t="s">
+      <c r="HN4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="HO4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="HP4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="HQ4" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="HR4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="HP4" s="13" t="s">
+      <c r="HS4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="HQ4" s="13" t="s">
+      <c r="HT4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="HR4" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="HS4" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="HT4" s="13" t="s">
-        <v>19</v>
+      <c r="HU4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="HV4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="HW4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="HX4" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="HY4" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="HZ4" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="IA4" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="IB4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="IC4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="ID4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="IE4" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="IF4" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="IG4" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="IH4" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="II4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="IJ4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="IK4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="IL4" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="IM4" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="IN4" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="IO4" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="IP4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="IQ4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="IR4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="IS4" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="IT4" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="IU4" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="IV4" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="IW4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="IX4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="IY4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="IZ4" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="JA4" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="JB4" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="JC4" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="JD4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="JE4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="JF4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="JG4" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="JH4" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="JI4" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="JJ4" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="JK4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="JL4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="JM4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="JN4" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="JO4" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="JP4" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="JQ4" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="JR4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="JS4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="JT4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="JU4" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="JV4" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="JW4" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="JX4" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="JY4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="JZ4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="KA4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="KB4" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="KC4" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="KD4" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="KE4" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="KF4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="KG4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="KH4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="KI4" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="KJ4" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="KK4" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="KL4" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="KM4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="KN4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="KO4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="KP4" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="KQ4" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="KR4" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="KS4" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="KT4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="KU4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="KV4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="KW4" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="KX4" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="KY4" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="KZ4" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="LA4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="LB4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="LC4" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="LD4" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="LE4" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="LF4" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="LG4" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="LH4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="LI4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="LJ4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="LK4" s="14" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:228" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:323" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B5" s="1">
         <v>5</v>
@@ -2875,16 +3640,16 @@
         <v>7</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H5" s="1">
         <v>80</v>
       </c>
       <c r="I5" s="21" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J5" s="22"/>
       <c r="K5" s="22"/>
@@ -2928,19 +3693,19 @@
       <c r="AW5" s="25"/>
       <c r="AX5" s="25"/>
       <c r="AY5" s="23"/>
-      <c r="AZ5" s="26"/>
-      <c r="BA5" s="27"/>
-      <c r="BB5" s="28"/>
-      <c r="BC5" s="1"/>
-      <c r="BD5" s="1"/>
-      <c r="BE5" s="1"/>
+      <c r="AZ5" s="24"/>
+      <c r="BA5" s="25"/>
+      <c r="BB5" s="25"/>
+      <c r="BC5" s="25"/>
+      <c r="BD5" s="25"/>
+      <c r="BE5" s="25"/>
       <c r="BF5" s="23"/>
       <c r="BG5" s="24"/>
-      <c r="BH5" s="1"/>
-      <c r="BI5" s="1"/>
-      <c r="BJ5" s="1"/>
-      <c r="BK5" s="1"/>
-      <c r="BL5" s="1"/>
+      <c r="BH5" s="25"/>
+      <c r="BI5" s="25"/>
+      <c r="BJ5" s="26"/>
+      <c r="BK5" s="27"/>
+      <c r="BL5" s="28"/>
       <c r="BM5" s="23"/>
       <c r="BN5" s="24"/>
       <c r="BO5" s="1"/>
@@ -3105,10 +3870,105 @@
       <c r="HR5" s="23"/>
       <c r="HS5" s="24"/>
       <c r="HT5" s="1"/>
+      <c r="HU5" s="1"/>
+      <c r="HV5" s="1"/>
+      <c r="HW5" s="1"/>
+      <c r="HX5" s="1"/>
+      <c r="HY5" s="23"/>
+      <c r="HZ5" s="24"/>
+      <c r="IA5" s="24"/>
+      <c r="IB5" s="1"/>
+      <c r="IC5" s="1"/>
+      <c r="ID5" s="1"/>
+      <c r="IE5" s="1"/>
+      <c r="IF5" s="23"/>
+      <c r="IG5" s="24"/>
+      <c r="IH5" s="1"/>
+      <c r="II5" s="1"/>
+      <c r="IJ5" s="1"/>
+      <c r="IK5" s="1"/>
+      <c r="IL5" s="1"/>
+      <c r="IM5" s="23"/>
+      <c r="IN5" s="24"/>
+      <c r="IO5" s="1"/>
+      <c r="IP5" s="1"/>
+      <c r="IQ5" s="1"/>
+      <c r="IR5" s="1"/>
+      <c r="IS5" s="1"/>
+      <c r="IT5" s="23"/>
+      <c r="IU5" s="24"/>
+      <c r="IV5" s="24"/>
+      <c r="IW5" s="1"/>
+      <c r="IX5" s="1"/>
+      <c r="IY5" s="1"/>
+      <c r="IZ5" s="1"/>
+      <c r="JA5" s="23"/>
+      <c r="JB5" s="24"/>
+      <c r="JC5" s="1"/>
+      <c r="JD5" s="1"/>
+      <c r="JE5" s="1"/>
+      <c r="JF5" s="1"/>
+      <c r="JG5" s="1"/>
+      <c r="JH5" s="23"/>
+      <c r="JI5" s="24"/>
+      <c r="JJ5" s="1"/>
+      <c r="JK5" s="1"/>
+      <c r="JL5" s="1"/>
+      <c r="JM5" s="1"/>
+      <c r="JN5" s="1"/>
+      <c r="JO5" s="23"/>
+      <c r="JP5" s="24"/>
+      <c r="JQ5" s="24"/>
+      <c r="JR5" s="1"/>
+      <c r="JS5" s="1"/>
+      <c r="JT5" s="1"/>
+      <c r="JU5" s="1"/>
+      <c r="JV5" s="23"/>
+      <c r="JW5" s="24"/>
+      <c r="JX5" s="1"/>
+      <c r="JY5" s="1"/>
+      <c r="JZ5" s="1"/>
+      <c r="KA5" s="1"/>
+      <c r="KB5" s="1"/>
+      <c r="KC5" s="23"/>
+      <c r="KD5" s="24"/>
+      <c r="KE5" s="1"/>
+      <c r="KF5" s="1"/>
+      <c r="KG5" s="1"/>
+      <c r="KH5" s="1"/>
+      <c r="KI5" s="1"/>
+      <c r="KJ5" s="23"/>
+      <c r="KK5" s="24"/>
+      <c r="KL5" s="1"/>
+      <c r="KM5" s="1"/>
+      <c r="KN5" s="1"/>
+      <c r="KO5" s="1"/>
+      <c r="KP5" s="1"/>
+      <c r="KQ5" s="23"/>
+      <c r="KR5" s="24"/>
+      <c r="KS5" s="1"/>
+      <c r="KT5" s="1"/>
+      <c r="KU5" s="1"/>
+      <c r="KV5" s="1"/>
+      <c r="KW5" s="1"/>
+      <c r="KX5" s="23"/>
+      <c r="KY5" s="24"/>
+      <c r="KZ5" s="1"/>
+      <c r="LA5" s="1"/>
+      <c r="LB5" s="1"/>
+      <c r="LC5" s="24"/>
+      <c r="LD5" s="1"/>
+      <c r="LE5" s="23"/>
+      <c r="LF5" s="24"/>
+      <c r="LG5" s="1"/>
+      <c r="LH5" s="1"/>
+      <c r="LI5" s="1"/>
+      <c r="LJ5" s="1"/>
+      <c r="LK5" s="1"/>
     </row>
-    <row r="6" spans="1:228" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:323" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B6" s="1">
         <v>10</v>
@@ -3123,10 +3983,10 @@
         <v>15</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H6" s="1">
         <v>40</v>
@@ -3141,7 +4001,7 @@
       <c r="P6" s="23"/>
       <c r="Q6" s="24"/>
       <c r="R6" s="21" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="S6" s="22"/>
       <c r="T6" s="22"/>
@@ -3176,19 +4036,19 @@
       <c r="AW6" s="25"/>
       <c r="AX6" s="25"/>
       <c r="AY6" s="23"/>
-      <c r="AZ6" s="26"/>
-      <c r="BA6" s="27"/>
-      <c r="BB6" s="28"/>
-      <c r="BC6" s="1"/>
-      <c r="BD6" s="1"/>
-      <c r="BE6" s="1"/>
+      <c r="AZ6" s="24"/>
+      <c r="BA6" s="25"/>
+      <c r="BB6" s="25"/>
+      <c r="BC6" s="25"/>
+      <c r="BD6" s="25"/>
+      <c r="BE6" s="25"/>
       <c r="BF6" s="23"/>
       <c r="BG6" s="24"/>
-      <c r="BH6" s="1"/>
-      <c r="BI6" s="1"/>
-      <c r="BJ6" s="1"/>
-      <c r="BK6" s="1"/>
-      <c r="BL6" s="1"/>
+      <c r="BH6" s="25"/>
+      <c r="BI6" s="25"/>
+      <c r="BJ6" s="26"/>
+      <c r="BK6" s="27"/>
+      <c r="BL6" s="28"/>
       <c r="BM6" s="23"/>
       <c r="BN6" s="24"/>
       <c r="BO6" s="1"/>
@@ -3353,10 +4213,105 @@
       <c r="HR6" s="23"/>
       <c r="HS6" s="24"/>
       <c r="HT6" s="1"/>
+      <c r="HU6" s="1"/>
+      <c r="HV6" s="1"/>
+      <c r="HW6" s="1"/>
+      <c r="HX6" s="1"/>
+      <c r="HY6" s="23"/>
+      <c r="HZ6" s="24"/>
+      <c r="IA6" s="24"/>
+      <c r="IB6" s="1"/>
+      <c r="IC6" s="1"/>
+      <c r="ID6" s="1"/>
+      <c r="IE6" s="1"/>
+      <c r="IF6" s="23"/>
+      <c r="IG6" s="24"/>
+      <c r="IH6" s="1"/>
+      <c r="II6" s="1"/>
+      <c r="IJ6" s="1"/>
+      <c r="IK6" s="1"/>
+      <c r="IL6" s="1"/>
+      <c r="IM6" s="23"/>
+      <c r="IN6" s="24"/>
+      <c r="IO6" s="1"/>
+      <c r="IP6" s="1"/>
+      <c r="IQ6" s="1"/>
+      <c r="IR6" s="1"/>
+      <c r="IS6" s="1"/>
+      <c r="IT6" s="23"/>
+      <c r="IU6" s="24"/>
+      <c r="IV6" s="24"/>
+      <c r="IW6" s="1"/>
+      <c r="IX6" s="1"/>
+      <c r="IY6" s="1"/>
+      <c r="IZ6" s="1"/>
+      <c r="JA6" s="23"/>
+      <c r="JB6" s="24"/>
+      <c r="JC6" s="1"/>
+      <c r="JD6" s="1"/>
+      <c r="JE6" s="1"/>
+      <c r="JF6" s="1"/>
+      <c r="JG6" s="1"/>
+      <c r="JH6" s="23"/>
+      <c r="JI6" s="24"/>
+      <c r="JJ6" s="1"/>
+      <c r="JK6" s="1"/>
+      <c r="JL6" s="1"/>
+      <c r="JM6" s="1"/>
+      <c r="JN6" s="1"/>
+      <c r="JO6" s="23"/>
+      <c r="JP6" s="24"/>
+      <c r="JQ6" s="24"/>
+      <c r="JR6" s="1"/>
+      <c r="JS6" s="1"/>
+      <c r="JT6" s="1"/>
+      <c r="JU6" s="1"/>
+      <c r="JV6" s="23"/>
+      <c r="JW6" s="24"/>
+      <c r="JX6" s="1"/>
+      <c r="JY6" s="1"/>
+      <c r="JZ6" s="1"/>
+      <c r="KA6" s="1"/>
+      <c r="KB6" s="1"/>
+      <c r="KC6" s="23"/>
+      <c r="KD6" s="24"/>
+      <c r="KE6" s="1"/>
+      <c r="KF6" s="1"/>
+      <c r="KG6" s="1"/>
+      <c r="KH6" s="1"/>
+      <c r="KI6" s="1"/>
+      <c r="KJ6" s="23"/>
+      <c r="KK6" s="24"/>
+      <c r="KL6" s="1"/>
+      <c r="KM6" s="1"/>
+      <c r="KN6" s="1"/>
+      <c r="KO6" s="1"/>
+      <c r="KP6" s="1"/>
+      <c r="KQ6" s="23"/>
+      <c r="KR6" s="24"/>
+      <c r="KS6" s="1"/>
+      <c r="KT6" s="1"/>
+      <c r="KU6" s="1"/>
+      <c r="KV6" s="1"/>
+      <c r="KW6" s="1"/>
+      <c r="KX6" s="23"/>
+      <c r="KY6" s="24"/>
+      <c r="KZ6" s="1"/>
+      <c r="LA6" s="1"/>
+      <c r="LB6" s="1"/>
+      <c r="LC6" s="24"/>
+      <c r="LD6" s="1"/>
+      <c r="LE6" s="23"/>
+      <c r="LF6" s="24"/>
+      <c r="LG6" s="1"/>
+      <c r="LH6" s="1"/>
+      <c r="LI6" s="1"/>
+      <c r="LJ6" s="1"/>
+      <c r="LK6" s="1"/>
     </row>
-    <row r="7" spans="1:228" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:323" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B7" s="1">
         <v>10</v>
@@ -3371,10 +4326,10 @@
         <v>14</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H7" s="1">
         <v>60</v>
@@ -3404,7 +4359,7 @@
       <c r="AE7" s="24"/>
       <c r="AF7" s="25"/>
       <c r="AG7" s="21" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="AH7" s="22"/>
       <c r="AI7" s="22"/>
@@ -3424,19 +4379,19 @@
       <c r="AW7" s="25"/>
       <c r="AX7" s="25"/>
       <c r="AY7" s="23"/>
-      <c r="AZ7" s="26"/>
-      <c r="BA7" s="27"/>
-      <c r="BB7" s="28"/>
-      <c r="BC7" s="1"/>
-      <c r="BD7" s="1"/>
-      <c r="BE7" s="1"/>
+      <c r="AZ7" s="24"/>
+      <c r="BA7" s="25"/>
+      <c r="BB7" s="25"/>
+      <c r="BC7" s="25"/>
+      <c r="BD7" s="25"/>
+      <c r="BE7" s="25"/>
       <c r="BF7" s="23"/>
       <c r="BG7" s="24"/>
-      <c r="BH7" s="1"/>
-      <c r="BI7" s="1"/>
-      <c r="BJ7" s="1"/>
-      <c r="BK7" s="1"/>
-      <c r="BL7" s="1"/>
+      <c r="BH7" s="25"/>
+      <c r="BI7" s="25"/>
+      <c r="BJ7" s="26"/>
+      <c r="BK7" s="27"/>
+      <c r="BL7" s="28"/>
       <c r="BM7" s="23"/>
       <c r="BN7" s="24"/>
       <c r="BO7" s="1"/>
@@ -3601,10 +4556,105 @@
       <c r="HR7" s="23"/>
       <c r="HS7" s="24"/>
       <c r="HT7" s="1"/>
+      <c r="HU7" s="1"/>
+      <c r="HV7" s="1"/>
+      <c r="HW7" s="1"/>
+      <c r="HX7" s="1"/>
+      <c r="HY7" s="23"/>
+      <c r="HZ7" s="24"/>
+      <c r="IA7" s="24"/>
+      <c r="IB7" s="1"/>
+      <c r="IC7" s="1"/>
+      <c r="ID7" s="1"/>
+      <c r="IE7" s="1"/>
+      <c r="IF7" s="23"/>
+      <c r="IG7" s="24"/>
+      <c r="IH7" s="1"/>
+      <c r="II7" s="1"/>
+      <c r="IJ7" s="1"/>
+      <c r="IK7" s="1"/>
+      <c r="IL7" s="1"/>
+      <c r="IM7" s="23"/>
+      <c r="IN7" s="24"/>
+      <c r="IO7" s="1"/>
+      <c r="IP7" s="1"/>
+      <c r="IQ7" s="1"/>
+      <c r="IR7" s="1"/>
+      <c r="IS7" s="1"/>
+      <c r="IT7" s="23"/>
+      <c r="IU7" s="24"/>
+      <c r="IV7" s="24"/>
+      <c r="IW7" s="1"/>
+      <c r="IX7" s="1"/>
+      <c r="IY7" s="1"/>
+      <c r="IZ7" s="1"/>
+      <c r="JA7" s="23"/>
+      <c r="JB7" s="24"/>
+      <c r="JC7" s="1"/>
+      <c r="JD7" s="1"/>
+      <c r="JE7" s="1"/>
+      <c r="JF7" s="1"/>
+      <c r="JG7" s="1"/>
+      <c r="JH7" s="23"/>
+      <c r="JI7" s="24"/>
+      <c r="JJ7" s="1"/>
+      <c r="JK7" s="1"/>
+      <c r="JL7" s="1"/>
+      <c r="JM7" s="1"/>
+      <c r="JN7" s="1"/>
+      <c r="JO7" s="23"/>
+      <c r="JP7" s="24"/>
+      <c r="JQ7" s="24"/>
+      <c r="JR7" s="1"/>
+      <c r="JS7" s="1"/>
+      <c r="JT7" s="1"/>
+      <c r="JU7" s="1"/>
+      <c r="JV7" s="23"/>
+      <c r="JW7" s="24"/>
+      <c r="JX7" s="1"/>
+      <c r="JY7" s="1"/>
+      <c r="JZ7" s="1"/>
+      <c r="KA7" s="1"/>
+      <c r="KB7" s="1"/>
+      <c r="KC7" s="23"/>
+      <c r="KD7" s="24"/>
+      <c r="KE7" s="1"/>
+      <c r="KF7" s="1"/>
+      <c r="KG7" s="1"/>
+      <c r="KH7" s="1"/>
+      <c r="KI7" s="1"/>
+      <c r="KJ7" s="23"/>
+      <c r="KK7" s="24"/>
+      <c r="KL7" s="1"/>
+      <c r="KM7" s="1"/>
+      <c r="KN7" s="1"/>
+      <c r="KO7" s="1"/>
+      <c r="KP7" s="1"/>
+      <c r="KQ7" s="23"/>
+      <c r="KR7" s="24"/>
+      <c r="KS7" s="1"/>
+      <c r="KT7" s="1"/>
+      <c r="KU7" s="1"/>
+      <c r="KV7" s="1"/>
+      <c r="KW7" s="1"/>
+      <c r="KX7" s="23"/>
+      <c r="KY7" s="24"/>
+      <c r="KZ7" s="1"/>
+      <c r="LA7" s="1"/>
+      <c r="LB7" s="1"/>
+      <c r="LC7" s="24"/>
+      <c r="LD7" s="1"/>
+      <c r="LE7" s="23"/>
+      <c r="LF7" s="24"/>
+      <c r="LG7" s="1"/>
+      <c r="LH7" s="1"/>
+      <c r="LI7" s="1"/>
+      <c r="LJ7" s="1"/>
+      <c r="LK7" s="1"/>
     </row>
-    <row r="8" spans="1:228" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:323" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B8" s="1">
         <v>10</v>
@@ -3619,10 +4669,10 @@
         <v>14</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H8" s="1">
         <v>30</v>
@@ -3666,25 +4716,25 @@
       <c r="AS8" s="24"/>
       <c r="AT8" s="25"/>
       <c r="AU8" s="21" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="AV8" s="22"/>
       <c r="AW8" s="22"/>
       <c r="AX8" s="22"/>
       <c r="AY8" s="22"/>
-      <c r="AZ8" s="29"/>
-      <c r="BA8" s="30"/>
-      <c r="BB8" s="31"/>
+      <c r="AZ8" s="22"/>
+      <c r="BA8" s="22"/>
+      <c r="BB8" s="22"/>
       <c r="BC8" s="22"/>
       <c r="BD8" s="22"/>
       <c r="BE8" s="22"/>
       <c r="BF8" s="22"/>
       <c r="BG8" s="22"/>
       <c r="BH8" s="22"/>
-      <c r="BI8" s="1"/>
-      <c r="BJ8" s="1"/>
-      <c r="BK8" s="1"/>
-      <c r="BL8" s="1"/>
+      <c r="BI8" s="25"/>
+      <c r="BJ8" s="26"/>
+      <c r="BK8" s="27"/>
+      <c r="BL8" s="28"/>
       <c r="BM8" s="23"/>
       <c r="BN8" s="24"/>
       <c r="BO8" s="1"/>
@@ -3849,10 +4899,105 @@
       <c r="HR8" s="23"/>
       <c r="HS8" s="24"/>
       <c r="HT8" s="1"/>
+      <c r="HU8" s="1"/>
+      <c r="HV8" s="1"/>
+      <c r="HW8" s="1"/>
+      <c r="HX8" s="1"/>
+      <c r="HY8" s="23"/>
+      <c r="HZ8" s="24"/>
+      <c r="IA8" s="24"/>
+      <c r="IB8" s="1"/>
+      <c r="IC8" s="1"/>
+      <c r="ID8" s="1"/>
+      <c r="IE8" s="1"/>
+      <c r="IF8" s="23"/>
+      <c r="IG8" s="24"/>
+      <c r="IH8" s="1"/>
+      <c r="II8" s="1"/>
+      <c r="IJ8" s="1"/>
+      <c r="IK8" s="1"/>
+      <c r="IL8" s="1"/>
+      <c r="IM8" s="23"/>
+      <c r="IN8" s="24"/>
+      <c r="IO8" s="1"/>
+      <c r="IP8" s="1"/>
+      <c r="IQ8" s="1"/>
+      <c r="IR8" s="1"/>
+      <c r="IS8" s="1"/>
+      <c r="IT8" s="23"/>
+      <c r="IU8" s="24"/>
+      <c r="IV8" s="24"/>
+      <c r="IW8" s="1"/>
+      <c r="IX8" s="1"/>
+      <c r="IY8" s="1"/>
+      <c r="IZ8" s="1"/>
+      <c r="JA8" s="23"/>
+      <c r="JB8" s="24"/>
+      <c r="JC8" s="1"/>
+      <c r="JD8" s="1"/>
+      <c r="JE8" s="1"/>
+      <c r="JF8" s="1"/>
+      <c r="JG8" s="1"/>
+      <c r="JH8" s="23"/>
+      <c r="JI8" s="24"/>
+      <c r="JJ8" s="1"/>
+      <c r="JK8" s="1"/>
+      <c r="JL8" s="1"/>
+      <c r="JM8" s="1"/>
+      <c r="JN8" s="1"/>
+      <c r="JO8" s="23"/>
+      <c r="JP8" s="24"/>
+      <c r="JQ8" s="24"/>
+      <c r="JR8" s="1"/>
+      <c r="JS8" s="1"/>
+      <c r="JT8" s="1"/>
+      <c r="JU8" s="1"/>
+      <c r="JV8" s="23"/>
+      <c r="JW8" s="24"/>
+      <c r="JX8" s="1"/>
+      <c r="JY8" s="1"/>
+      <c r="JZ8" s="1"/>
+      <c r="KA8" s="1"/>
+      <c r="KB8" s="1"/>
+      <c r="KC8" s="23"/>
+      <c r="KD8" s="24"/>
+      <c r="KE8" s="1"/>
+      <c r="KF8" s="1"/>
+      <c r="KG8" s="1"/>
+      <c r="KH8" s="1"/>
+      <c r="KI8" s="1"/>
+      <c r="KJ8" s="23"/>
+      <c r="KK8" s="24"/>
+      <c r="KL8" s="1"/>
+      <c r="KM8" s="1"/>
+      <c r="KN8" s="1"/>
+      <c r="KO8" s="1"/>
+      <c r="KP8" s="1"/>
+      <c r="KQ8" s="23"/>
+      <c r="KR8" s="24"/>
+      <c r="KS8" s="1"/>
+      <c r="KT8" s="1"/>
+      <c r="KU8" s="1"/>
+      <c r="KV8" s="1"/>
+      <c r="KW8" s="1"/>
+      <c r="KX8" s="23"/>
+      <c r="KY8" s="24"/>
+      <c r="KZ8" s="1"/>
+      <c r="LA8" s="1"/>
+      <c r="LB8" s="1"/>
+      <c r="LC8" s="24"/>
+      <c r="LD8" s="1"/>
+      <c r="LE8" s="23"/>
+      <c r="LF8" s="24"/>
+      <c r="LG8" s="1"/>
+      <c r="LH8" s="1"/>
+      <c r="LI8" s="1"/>
+      <c r="LJ8" s="1"/>
+      <c r="LK8" s="1"/>
     </row>
-    <row r="9" spans="1:228" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:323" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B9" s="1">
         <v>10</v>
@@ -3867,10 +5012,10 @@
         <v>17</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H9" s="1">
         <v>24</v>
@@ -3918,21 +5063,21 @@
       <c r="AW9" s="25"/>
       <c r="AX9" s="25"/>
       <c r="AY9" s="23"/>
-      <c r="AZ9" s="26"/>
-      <c r="BA9" s="27"/>
-      <c r="BB9" s="28"/>
-      <c r="BC9" s="1"/>
-      <c r="BD9" s="1"/>
-      <c r="BE9" s="1"/>
+      <c r="AZ9" s="24"/>
+      <c r="BA9" s="25"/>
+      <c r="BB9" s="25"/>
+      <c r="BC9" s="25"/>
+      <c r="BD9" s="25"/>
+      <c r="BE9" s="25"/>
       <c r="BF9" s="23"/>
       <c r="BG9" s="24"/>
-      <c r="BH9" s="1"/>
-      <c r="BI9" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="BJ9" s="33"/>
-      <c r="BK9" s="33"/>
-      <c r="BL9" s="33"/>
+      <c r="BH9" s="25"/>
+      <c r="BI9" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="BJ9" s="30"/>
+      <c r="BK9" s="31"/>
+      <c r="BL9" s="32"/>
       <c r="BM9" s="33"/>
       <c r="BN9" s="33"/>
       <c r="BO9" s="33"/>
@@ -4097,10 +5242,105 @@
       <c r="HR9" s="23"/>
       <c r="HS9" s="24"/>
       <c r="HT9" s="1"/>
+      <c r="HU9" s="1"/>
+      <c r="HV9" s="1"/>
+      <c r="HW9" s="1"/>
+      <c r="HX9" s="1"/>
+      <c r="HY9" s="23"/>
+      <c r="HZ9" s="24"/>
+      <c r="IA9" s="24"/>
+      <c r="IB9" s="1"/>
+      <c r="IC9" s="1"/>
+      <c r="ID9" s="1"/>
+      <c r="IE9" s="1"/>
+      <c r="IF9" s="23"/>
+      <c r="IG9" s="24"/>
+      <c r="IH9" s="1"/>
+      <c r="II9" s="1"/>
+      <c r="IJ9" s="1"/>
+      <c r="IK9" s="1"/>
+      <c r="IL9" s="1"/>
+      <c r="IM9" s="23"/>
+      <c r="IN9" s="24"/>
+      <c r="IO9" s="1"/>
+      <c r="IP9" s="1"/>
+      <c r="IQ9" s="1"/>
+      <c r="IR9" s="1"/>
+      <c r="IS9" s="1"/>
+      <c r="IT9" s="23"/>
+      <c r="IU9" s="24"/>
+      <c r="IV9" s="24"/>
+      <c r="IW9" s="1"/>
+      <c r="IX9" s="1"/>
+      <c r="IY9" s="1"/>
+      <c r="IZ9" s="1"/>
+      <c r="JA9" s="23"/>
+      <c r="JB9" s="24"/>
+      <c r="JC9" s="1"/>
+      <c r="JD9" s="1"/>
+      <c r="JE9" s="1"/>
+      <c r="JF9" s="1"/>
+      <c r="JG9" s="1"/>
+      <c r="JH9" s="23"/>
+      <c r="JI9" s="24"/>
+      <c r="JJ9" s="1"/>
+      <c r="JK9" s="1"/>
+      <c r="JL9" s="1"/>
+      <c r="JM9" s="1"/>
+      <c r="JN9" s="1"/>
+      <c r="JO9" s="23"/>
+      <c r="JP9" s="24"/>
+      <c r="JQ9" s="24"/>
+      <c r="JR9" s="1"/>
+      <c r="JS9" s="1"/>
+      <c r="JT9" s="1"/>
+      <c r="JU9" s="1"/>
+      <c r="JV9" s="23"/>
+      <c r="JW9" s="24"/>
+      <c r="JX9" s="1"/>
+      <c r="JY9" s="1"/>
+      <c r="JZ9" s="1"/>
+      <c r="KA9" s="1"/>
+      <c r="KB9" s="1"/>
+      <c r="KC9" s="23"/>
+      <c r="KD9" s="24"/>
+      <c r="KE9" s="1"/>
+      <c r="KF9" s="1"/>
+      <c r="KG9" s="1"/>
+      <c r="KH9" s="1"/>
+      <c r="KI9" s="1"/>
+      <c r="KJ9" s="23"/>
+      <c r="KK9" s="24"/>
+      <c r="KL9" s="1"/>
+      <c r="KM9" s="1"/>
+      <c r="KN9" s="1"/>
+      <c r="KO9" s="1"/>
+      <c r="KP9" s="1"/>
+      <c r="KQ9" s="23"/>
+      <c r="KR9" s="24"/>
+      <c r="KS9" s="1"/>
+      <c r="KT9" s="1"/>
+      <c r="KU9" s="1"/>
+      <c r="KV9" s="1"/>
+      <c r="KW9" s="1"/>
+      <c r="KX9" s="23"/>
+      <c r="KY9" s="24"/>
+      <c r="KZ9" s="1"/>
+      <c r="LA9" s="1"/>
+      <c r="LB9" s="1"/>
+      <c r="LC9" s="24"/>
+      <c r="LD9" s="1"/>
+      <c r="LE9" s="23"/>
+      <c r="LF9" s="24"/>
+      <c r="LG9" s="1"/>
+      <c r="LH9" s="1"/>
+      <c r="LI9" s="1"/>
+      <c r="LJ9" s="1"/>
+      <c r="LK9" s="1"/>
     </row>
-    <row r="10" spans="1:228" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:323" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B10" s="1">
         <v>10</v>
@@ -4115,10 +5355,10 @@
         <v>14</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H10" s="1">
         <v>120</v>
@@ -4166,19 +5406,19 @@
       <c r="AW10" s="25"/>
       <c r="AX10" s="25"/>
       <c r="AY10" s="23"/>
-      <c r="AZ10" s="26"/>
-      <c r="BA10" s="27"/>
-      <c r="BB10" s="28"/>
-      <c r="BC10" s="1"/>
-      <c r="BD10" s="1"/>
-      <c r="BE10" s="1"/>
+      <c r="AZ10" s="24"/>
+      <c r="BA10" s="25"/>
+      <c r="BB10" s="25"/>
+      <c r="BC10" s="25"/>
+      <c r="BD10" s="25"/>
+      <c r="BE10" s="25"/>
       <c r="BF10" s="23"/>
       <c r="BG10" s="24"/>
-      <c r="BH10" s="1"/>
-      <c r="BI10" s="1"/>
-      <c r="BJ10" s="1"/>
-      <c r="BK10" s="1"/>
-      <c r="BL10" s="1"/>
+      <c r="BH10" s="25"/>
+      <c r="BI10" s="25"/>
+      <c r="BJ10" s="26"/>
+      <c r="BK10" s="27"/>
+      <c r="BL10" s="28"/>
       <c r="BM10" s="23"/>
       <c r="BN10" s="24"/>
       <c r="BO10" s="1"/>
@@ -4192,8 +5432,8 @@
       <c r="BW10" s="24"/>
       <c r="BX10" s="1"/>
       <c r="BY10" s="1"/>
-      <c r="BZ10" s="32" t="s">
-        <v>40</v>
+      <c r="BZ10" s="29" t="s">
+        <v>44</v>
       </c>
       <c r="CA10" s="33"/>
       <c r="CB10" s="33"/>
@@ -4345,28 +5585,123 @@
       <c r="HR10" s="23"/>
       <c r="HS10" s="24"/>
       <c r="HT10" s="1"/>
+      <c r="HU10" s="1"/>
+      <c r="HV10" s="1"/>
+      <c r="HW10" s="1"/>
+      <c r="HX10" s="1"/>
+      <c r="HY10" s="23"/>
+      <c r="HZ10" s="24"/>
+      <c r="IA10" s="24"/>
+      <c r="IB10" s="1"/>
+      <c r="IC10" s="1"/>
+      <c r="ID10" s="1"/>
+      <c r="IE10" s="1"/>
+      <c r="IF10" s="23"/>
+      <c r="IG10" s="24"/>
+      <c r="IH10" s="1"/>
+      <c r="II10" s="1"/>
+      <c r="IJ10" s="1"/>
+      <c r="IK10" s="1"/>
+      <c r="IL10" s="1"/>
+      <c r="IM10" s="23"/>
+      <c r="IN10" s="24"/>
+      <c r="IO10" s="1"/>
+      <c r="IP10" s="1"/>
+      <c r="IQ10" s="1"/>
+      <c r="IR10" s="1"/>
+      <c r="IS10" s="1"/>
+      <c r="IT10" s="23"/>
+      <c r="IU10" s="24"/>
+      <c r="IV10" s="24"/>
+      <c r="IW10" s="1"/>
+      <c r="IX10" s="1"/>
+      <c r="IY10" s="1"/>
+      <c r="IZ10" s="1"/>
+      <c r="JA10" s="23"/>
+      <c r="JB10" s="24"/>
+      <c r="JC10" s="1"/>
+      <c r="JD10" s="1"/>
+      <c r="JE10" s="1"/>
+      <c r="JF10" s="1"/>
+      <c r="JG10" s="1"/>
+      <c r="JH10" s="23"/>
+      <c r="JI10" s="24"/>
+      <c r="JJ10" s="1"/>
+      <c r="JK10" s="1"/>
+      <c r="JL10" s="1"/>
+      <c r="JM10" s="1"/>
+      <c r="JN10" s="1"/>
+      <c r="JO10" s="23"/>
+      <c r="JP10" s="24"/>
+      <c r="JQ10" s="24"/>
+      <c r="JR10" s="1"/>
+      <c r="JS10" s="1"/>
+      <c r="JT10" s="1"/>
+      <c r="JU10" s="1"/>
+      <c r="JV10" s="23"/>
+      <c r="JW10" s="24"/>
+      <c r="JX10" s="1"/>
+      <c r="JY10" s="1"/>
+      <c r="JZ10" s="1"/>
+      <c r="KA10" s="1"/>
+      <c r="KB10" s="1"/>
+      <c r="KC10" s="23"/>
+      <c r="KD10" s="24"/>
+      <c r="KE10" s="1"/>
+      <c r="KF10" s="1"/>
+      <c r="KG10" s="1"/>
+      <c r="KH10" s="1"/>
+      <c r="KI10" s="1"/>
+      <c r="KJ10" s="23"/>
+      <c r="KK10" s="24"/>
+      <c r="KL10" s="1"/>
+      <c r="KM10" s="1"/>
+      <c r="KN10" s="1"/>
+      <c r="KO10" s="1"/>
+      <c r="KP10" s="1"/>
+      <c r="KQ10" s="23"/>
+      <c r="KR10" s="24"/>
+      <c r="KS10" s="1"/>
+      <c r="KT10" s="1"/>
+      <c r="KU10" s="1"/>
+      <c r="KV10" s="1"/>
+      <c r="KW10" s="1"/>
+      <c r="KX10" s="23"/>
+      <c r="KY10" s="24"/>
+      <c r="KZ10" s="1"/>
+      <c r="LA10" s="1"/>
+      <c r="LB10" s="1"/>
+      <c r="LC10" s="24"/>
+      <c r="LD10" s="1"/>
+      <c r="LE10" s="23"/>
+      <c r="LF10" s="24"/>
+      <c r="LG10" s="1"/>
+      <c r="LH10" s="1"/>
+      <c r="LI10" s="1"/>
+      <c r="LJ10" s="1"/>
+      <c r="LK10" s="1"/>
     </row>
-    <row r="11" spans="1:228" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:323" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B11" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11" s="2">
-        <v>45748</v>
+        <v>45800</v>
       </c>
       <c r="D11" s="2">
-        <v>45762</v>
+        <v>45814</v>
       </c>
       <c r="E11" s="1">
         <v>15</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H11" s="1">
         <v>160</v>
@@ -4402,33 +5737,31 @@
       <c r="AK11" s="23"/>
       <c r="AL11" s="24"/>
       <c r="AM11" s="25"/>
-      <c r="AN11" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="AO11" s="33"/>
-      <c r="AP11" s="33"/>
-      <c r="AQ11" s="33"/>
-      <c r="AR11" s="33"/>
-      <c r="AS11" s="33"/>
-      <c r="AT11" s="33"/>
-      <c r="AU11" s="33"/>
-      <c r="AV11" s="33"/>
-      <c r="AW11" s="33"/>
-      <c r="AX11" s="33"/>
-      <c r="AY11" s="33"/>
-      <c r="AZ11" s="34"/>
-      <c r="BA11" s="35"/>
-      <c r="BB11" s="36"/>
-      <c r="BC11" s="1"/>
-      <c r="BD11" s="1"/>
-      <c r="BE11" s="1"/>
+      <c r="AN11" s="25"/>
+      <c r="AO11" s="25"/>
+      <c r="AP11" s="25"/>
+      <c r="AQ11" s="25"/>
+      <c r="AR11" s="23"/>
+      <c r="AS11" s="24"/>
+      <c r="AT11" s="25"/>
+      <c r="AU11" s="25"/>
+      <c r="AV11" s="25"/>
+      <c r="AW11" s="25"/>
+      <c r="AX11" s="25"/>
+      <c r="AY11" s="23"/>
+      <c r="AZ11" s="24"/>
+      <c r="BA11" s="25"/>
+      <c r="BB11" s="25"/>
+      <c r="BC11" s="25"/>
+      <c r="BD11" s="25"/>
+      <c r="BE11" s="25"/>
       <c r="BF11" s="23"/>
       <c r="BG11" s="24"/>
-      <c r="BH11" s="1"/>
-      <c r="BI11" s="1"/>
-      <c r="BJ11" s="1"/>
-      <c r="BK11" s="1"/>
-      <c r="BL11" s="1"/>
+      <c r="BH11" s="25"/>
+      <c r="BI11" s="25"/>
+      <c r="BJ11" s="26"/>
+      <c r="BK11" s="27"/>
+      <c r="BL11" s="28"/>
       <c r="BM11" s="23"/>
       <c r="BN11" s="24"/>
       <c r="BO11" s="1"/>
@@ -4456,21 +5789,23 @@
       <c r="CK11" s="1"/>
       <c r="CL11" s="1"/>
       <c r="CM11" s="1"/>
-      <c r="CN11" s="1"/>
-      <c r="CO11" s="23"/>
-      <c r="CP11" s="24"/>
-      <c r="CQ11" s="1"/>
-      <c r="CR11" s="1"/>
-      <c r="CS11" s="1"/>
-      <c r="CT11" s="1"/>
-      <c r="CU11" s="1"/>
-      <c r="CV11" s="23"/>
-      <c r="CW11" s="24"/>
-      <c r="CX11" s="1"/>
-      <c r="CY11" s="1"/>
-      <c r="CZ11" s="1"/>
-      <c r="DA11" s="1"/>
-      <c r="DB11" s="1"/>
+      <c r="CN11" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="CO11" s="33"/>
+      <c r="CP11" s="33"/>
+      <c r="CQ11" s="33"/>
+      <c r="CR11" s="33"/>
+      <c r="CS11" s="33"/>
+      <c r="CT11" s="33"/>
+      <c r="CU11" s="33"/>
+      <c r="CV11" s="33"/>
+      <c r="CW11" s="33"/>
+      <c r="CX11" s="33"/>
+      <c r="CY11" s="33"/>
+      <c r="CZ11" s="33"/>
+      <c r="DA11" s="33"/>
+      <c r="DB11" s="33"/>
       <c r="DC11" s="23"/>
       <c r="DD11" s="24"/>
       <c r="DE11" s="1"/>
@@ -4593,28 +5928,123 @@
       <c r="HR11" s="23"/>
       <c r="HS11" s="24"/>
       <c r="HT11" s="1"/>
+      <c r="HU11" s="1"/>
+      <c r="HV11" s="1"/>
+      <c r="HW11" s="1"/>
+      <c r="HX11" s="1"/>
+      <c r="HY11" s="23"/>
+      <c r="HZ11" s="24"/>
+      <c r="IA11" s="24"/>
+      <c r="IB11" s="1"/>
+      <c r="IC11" s="1"/>
+      <c r="ID11" s="1"/>
+      <c r="IE11" s="1"/>
+      <c r="IF11" s="23"/>
+      <c r="IG11" s="24"/>
+      <c r="IH11" s="1"/>
+      <c r="II11" s="1"/>
+      <c r="IJ11" s="1"/>
+      <c r="IK11" s="1"/>
+      <c r="IL11" s="1"/>
+      <c r="IM11" s="23"/>
+      <c r="IN11" s="24"/>
+      <c r="IO11" s="1"/>
+      <c r="IP11" s="1"/>
+      <c r="IQ11" s="1"/>
+      <c r="IR11" s="1"/>
+      <c r="IS11" s="1"/>
+      <c r="IT11" s="23"/>
+      <c r="IU11" s="24"/>
+      <c r="IV11" s="24"/>
+      <c r="IW11" s="1"/>
+      <c r="IX11" s="1"/>
+      <c r="IY11" s="1"/>
+      <c r="IZ11" s="1"/>
+      <c r="JA11" s="23"/>
+      <c r="JB11" s="24"/>
+      <c r="JC11" s="1"/>
+      <c r="JD11" s="1"/>
+      <c r="JE11" s="1"/>
+      <c r="JF11" s="1"/>
+      <c r="JG11" s="1"/>
+      <c r="JH11" s="23"/>
+      <c r="JI11" s="24"/>
+      <c r="JJ11" s="1"/>
+      <c r="JK11" s="1"/>
+      <c r="JL11" s="1"/>
+      <c r="JM11" s="1"/>
+      <c r="JN11" s="1"/>
+      <c r="JO11" s="23"/>
+      <c r="JP11" s="24"/>
+      <c r="JQ11" s="24"/>
+      <c r="JR11" s="1"/>
+      <c r="JS11" s="1"/>
+      <c r="JT11" s="1"/>
+      <c r="JU11" s="1"/>
+      <c r="JV11" s="23"/>
+      <c r="JW11" s="24"/>
+      <c r="JX11" s="1"/>
+      <c r="JY11" s="1"/>
+      <c r="JZ11" s="1"/>
+      <c r="KA11" s="1"/>
+      <c r="KB11" s="1"/>
+      <c r="KC11" s="23"/>
+      <c r="KD11" s="24"/>
+      <c r="KE11" s="1"/>
+      <c r="KF11" s="1"/>
+      <c r="KG11" s="1"/>
+      <c r="KH11" s="1"/>
+      <c r="KI11" s="1"/>
+      <c r="KJ11" s="23"/>
+      <c r="KK11" s="24"/>
+      <c r="KL11" s="1"/>
+      <c r="KM11" s="1"/>
+      <c r="KN11" s="1"/>
+      <c r="KO11" s="1"/>
+      <c r="KP11" s="1"/>
+      <c r="KQ11" s="23"/>
+      <c r="KR11" s="24"/>
+      <c r="KS11" s="1"/>
+      <c r="KT11" s="1"/>
+      <c r="KU11" s="1"/>
+      <c r="KV11" s="1"/>
+      <c r="KW11" s="1"/>
+      <c r="KX11" s="23"/>
+      <c r="KY11" s="24"/>
+      <c r="KZ11" s="1"/>
+      <c r="LA11" s="1"/>
+      <c r="LB11" s="1"/>
+      <c r="LC11" s="24"/>
+      <c r="LD11" s="1"/>
+      <c r="LE11" s="23"/>
+      <c r="LF11" s="24"/>
+      <c r="LG11" s="1"/>
+      <c r="LH11" s="1"/>
+      <c r="LI11" s="1"/>
+      <c r="LJ11" s="1"/>
+      <c r="LK11" s="1"/>
     </row>
-    <row r="12" spans="1:228" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:323" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B12" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C12" s="2">
-        <v>45748</v>
+        <v>45817</v>
       </c>
       <c r="D12" s="2">
-        <v>45757</v>
+        <v>45826</v>
       </c>
       <c r="E12" s="1">
         <v>10</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H12" s="1">
         <v>200</v>
@@ -4650,33 +6080,31 @@
       <c r="AK12" s="23"/>
       <c r="AL12" s="24"/>
       <c r="AM12" s="25"/>
-      <c r="AN12" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="AO12" s="38"/>
-      <c r="AP12" s="38"/>
-      <c r="AQ12" s="38"/>
-      <c r="AR12" s="38"/>
-      <c r="AS12" s="38"/>
-      <c r="AT12" s="38"/>
-      <c r="AU12" s="38"/>
-      <c r="AV12" s="38"/>
-      <c r="AW12" s="38"/>
+      <c r="AN12" s="25"/>
+      <c r="AO12" s="25"/>
+      <c r="AP12" s="25"/>
+      <c r="AQ12" s="25"/>
+      <c r="AR12" s="23"/>
+      <c r="AS12" s="24"/>
+      <c r="AT12" s="25"/>
+      <c r="AU12" s="25"/>
+      <c r="AV12" s="25"/>
+      <c r="AW12" s="25"/>
       <c r="AX12" s="25"/>
       <c r="AY12" s="23"/>
-      <c r="AZ12" s="26"/>
-      <c r="BA12" s="27"/>
-      <c r="BB12" s="28"/>
-      <c r="BC12" s="1"/>
-      <c r="BD12" s="1"/>
-      <c r="BE12" s="1"/>
+      <c r="AZ12" s="24"/>
+      <c r="BA12" s="25"/>
+      <c r="BB12" s="25"/>
+      <c r="BC12" s="25"/>
+      <c r="BD12" s="25"/>
+      <c r="BE12" s="25"/>
       <c r="BF12" s="23"/>
       <c r="BG12" s="24"/>
-      <c r="BH12" s="1"/>
-      <c r="BI12" s="1"/>
-      <c r="BJ12" s="1"/>
-      <c r="BK12" s="1"/>
-      <c r="BL12" s="1"/>
+      <c r="BH12" s="25"/>
+      <c r="BI12" s="25"/>
+      <c r="BJ12" s="26"/>
+      <c r="BK12" s="27"/>
+      <c r="BL12" s="28"/>
       <c r="BM12" s="23"/>
       <c r="BN12" s="24"/>
       <c r="BO12" s="1"/>
@@ -4721,16 +6149,18 @@
       <c r="DB12" s="1"/>
       <c r="DC12" s="23"/>
       <c r="DD12" s="24"/>
-      <c r="DE12" s="1"/>
-      <c r="DF12" s="1"/>
-      <c r="DG12" s="1"/>
-      <c r="DH12" s="1"/>
-      <c r="DI12" s="1"/>
-      <c r="DJ12" s="23"/>
-      <c r="DK12" s="24"/>
-      <c r="DL12" s="1"/>
-      <c r="DM12" s="1"/>
-      <c r="DN12" s="1"/>
+      <c r="DE12" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="DF12" s="33"/>
+      <c r="DG12" s="33"/>
+      <c r="DH12" s="33"/>
+      <c r="DI12" s="33"/>
+      <c r="DJ12" s="33"/>
+      <c r="DK12" s="33"/>
+      <c r="DL12" s="33"/>
+      <c r="DM12" s="33"/>
+      <c r="DN12" s="33"/>
       <c r="DO12" s="1"/>
       <c r="DP12" s="1"/>
       <c r="DQ12" s="23"/>
@@ -4841,28 +6271,123 @@
       <c r="HR12" s="23"/>
       <c r="HS12" s="24"/>
       <c r="HT12" s="1"/>
+      <c r="HU12" s="1"/>
+      <c r="HV12" s="1"/>
+      <c r="HW12" s="1"/>
+      <c r="HX12" s="1"/>
+      <c r="HY12" s="23"/>
+      <c r="HZ12" s="24"/>
+      <c r="IA12" s="24"/>
+      <c r="IB12" s="1"/>
+      <c r="IC12" s="1"/>
+      <c r="ID12" s="1"/>
+      <c r="IE12" s="1"/>
+      <c r="IF12" s="23"/>
+      <c r="IG12" s="24"/>
+      <c r="IH12" s="1"/>
+      <c r="II12" s="1"/>
+      <c r="IJ12" s="1"/>
+      <c r="IK12" s="1"/>
+      <c r="IL12" s="1"/>
+      <c r="IM12" s="23"/>
+      <c r="IN12" s="24"/>
+      <c r="IO12" s="1"/>
+      <c r="IP12" s="1"/>
+      <c r="IQ12" s="1"/>
+      <c r="IR12" s="1"/>
+      <c r="IS12" s="1"/>
+      <c r="IT12" s="23"/>
+      <c r="IU12" s="24"/>
+      <c r="IV12" s="24"/>
+      <c r="IW12" s="1"/>
+      <c r="IX12" s="1"/>
+      <c r="IY12" s="1"/>
+      <c r="IZ12" s="1"/>
+      <c r="JA12" s="23"/>
+      <c r="JB12" s="24"/>
+      <c r="JC12" s="1"/>
+      <c r="JD12" s="1"/>
+      <c r="JE12" s="1"/>
+      <c r="JF12" s="1"/>
+      <c r="JG12" s="1"/>
+      <c r="JH12" s="23"/>
+      <c r="JI12" s="24"/>
+      <c r="JJ12" s="1"/>
+      <c r="JK12" s="1"/>
+      <c r="JL12" s="1"/>
+      <c r="JM12" s="1"/>
+      <c r="JN12" s="1"/>
+      <c r="JO12" s="23"/>
+      <c r="JP12" s="24"/>
+      <c r="JQ12" s="24"/>
+      <c r="JR12" s="1"/>
+      <c r="JS12" s="1"/>
+      <c r="JT12" s="1"/>
+      <c r="JU12" s="1"/>
+      <c r="JV12" s="23"/>
+      <c r="JW12" s="24"/>
+      <c r="JX12" s="1"/>
+      <c r="JY12" s="1"/>
+      <c r="JZ12" s="1"/>
+      <c r="KA12" s="1"/>
+      <c r="KB12" s="1"/>
+      <c r="KC12" s="23"/>
+      <c r="KD12" s="24"/>
+      <c r="KE12" s="1"/>
+      <c r="KF12" s="1"/>
+      <c r="KG12" s="1"/>
+      <c r="KH12" s="1"/>
+      <c r="KI12" s="1"/>
+      <c r="KJ12" s="23"/>
+      <c r="KK12" s="24"/>
+      <c r="KL12" s="1"/>
+      <c r="KM12" s="1"/>
+      <c r="KN12" s="1"/>
+      <c r="KO12" s="1"/>
+      <c r="KP12" s="1"/>
+      <c r="KQ12" s="23"/>
+      <c r="KR12" s="24"/>
+      <c r="KS12" s="1"/>
+      <c r="KT12" s="1"/>
+      <c r="KU12" s="1"/>
+      <c r="KV12" s="1"/>
+      <c r="KW12" s="1"/>
+      <c r="KX12" s="23"/>
+      <c r="KY12" s="24"/>
+      <c r="KZ12" s="1"/>
+      <c r="LA12" s="1"/>
+      <c r="LB12" s="1"/>
+      <c r="LC12" s="24"/>
+      <c r="LD12" s="1"/>
+      <c r="LE12" s="23"/>
+      <c r="LF12" s="24"/>
+      <c r="LG12" s="1"/>
+      <c r="LH12" s="1"/>
+      <c r="LI12" s="1"/>
+      <c r="LJ12" s="1"/>
+      <c r="LK12" s="1"/>
     </row>
-    <row r="13" spans="1:228" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:323" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B13" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C13" s="2">
-        <v>45748</v>
+        <v>45827</v>
       </c>
       <c r="D13" s="2">
-        <v>45762</v>
+        <v>45841</v>
       </c>
       <c r="E13" s="1">
         <v>15</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H13" s="1">
         <v>80</v>
@@ -4898,33 +6423,31 @@
       <c r="AK13" s="23"/>
       <c r="AL13" s="24"/>
       <c r="AM13" s="25"/>
-      <c r="AN13" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="AO13" s="33"/>
-      <c r="AP13" s="33"/>
-      <c r="AQ13" s="33"/>
-      <c r="AR13" s="33"/>
-      <c r="AS13" s="33"/>
-      <c r="AT13" s="33"/>
-      <c r="AU13" s="33"/>
-      <c r="AV13" s="33"/>
-      <c r="AW13" s="33"/>
-      <c r="AX13" s="33"/>
-      <c r="AY13" s="33"/>
-      <c r="AZ13" s="34"/>
-      <c r="BA13" s="35"/>
-      <c r="BB13" s="36"/>
-      <c r="BC13" s="1"/>
-      <c r="BD13" s="1"/>
-      <c r="BE13" s="1"/>
+      <c r="AN13" s="25"/>
+      <c r="AO13" s="25"/>
+      <c r="AP13" s="25"/>
+      <c r="AQ13" s="25"/>
+      <c r="AR13" s="23"/>
+      <c r="AS13" s="24"/>
+      <c r="AT13" s="25"/>
+      <c r="AU13" s="25"/>
+      <c r="AV13" s="25"/>
+      <c r="AW13" s="25"/>
+      <c r="AX13" s="25"/>
+      <c r="AY13" s="23"/>
+      <c r="AZ13" s="24"/>
+      <c r="BA13" s="25"/>
+      <c r="BB13" s="25"/>
+      <c r="BC13" s="25"/>
+      <c r="BD13" s="25"/>
+      <c r="BE13" s="25"/>
       <c r="BF13" s="23"/>
       <c r="BG13" s="24"/>
-      <c r="BH13" s="1"/>
-      <c r="BI13" s="1"/>
-      <c r="BJ13" s="1"/>
-      <c r="BK13" s="1"/>
-      <c r="BL13" s="1"/>
+      <c r="BH13" s="25"/>
+      <c r="BI13" s="25"/>
+      <c r="BJ13" s="26"/>
+      <c r="BK13" s="27"/>
+      <c r="BL13" s="28"/>
       <c r="BM13" s="23"/>
       <c r="BN13" s="24"/>
       <c r="BO13" s="1"/>
@@ -4979,21 +6502,23 @@
       <c r="DL13" s="1"/>
       <c r="DM13" s="1"/>
       <c r="DN13" s="1"/>
-      <c r="DO13" s="1"/>
-      <c r="DP13" s="1"/>
-      <c r="DQ13" s="23"/>
-      <c r="DR13" s="24"/>
-      <c r="DS13" s="1"/>
-      <c r="DT13" s="1"/>
-      <c r="DU13" s="1"/>
-      <c r="DV13" s="1"/>
-      <c r="DW13" s="1"/>
-      <c r="DX13" s="23"/>
-      <c r="DY13" s="24"/>
-      <c r="DZ13" s="1"/>
-      <c r="EA13" s="1"/>
-      <c r="EB13" s="1"/>
-      <c r="EC13" s="1"/>
+      <c r="DO13" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="DP13" s="33"/>
+      <c r="DQ13" s="33"/>
+      <c r="DR13" s="33"/>
+      <c r="DS13" s="33"/>
+      <c r="DT13" s="33"/>
+      <c r="DU13" s="33"/>
+      <c r="DV13" s="33"/>
+      <c r="DW13" s="33"/>
+      <c r="DX13" s="33"/>
+      <c r="DY13" s="33"/>
+      <c r="DZ13" s="33"/>
+      <c r="EA13" s="33"/>
+      <c r="EB13" s="33"/>
+      <c r="EC13" s="33"/>
       <c r="ED13" s="1"/>
       <c r="EE13" s="23"/>
       <c r="EF13" s="24"/>
@@ -5089,28 +6614,123 @@
       <c r="HR13" s="23"/>
       <c r="HS13" s="24"/>
       <c r="HT13" s="1"/>
+      <c r="HU13" s="1"/>
+      <c r="HV13" s="1"/>
+      <c r="HW13" s="1"/>
+      <c r="HX13" s="1"/>
+      <c r="HY13" s="23"/>
+      <c r="HZ13" s="24"/>
+      <c r="IA13" s="24"/>
+      <c r="IB13" s="1"/>
+      <c r="IC13" s="1"/>
+      <c r="ID13" s="1"/>
+      <c r="IE13" s="1"/>
+      <c r="IF13" s="23"/>
+      <c r="IG13" s="24"/>
+      <c r="IH13" s="1"/>
+      <c r="II13" s="1"/>
+      <c r="IJ13" s="1"/>
+      <c r="IK13" s="1"/>
+      <c r="IL13" s="1"/>
+      <c r="IM13" s="23"/>
+      <c r="IN13" s="24"/>
+      <c r="IO13" s="1"/>
+      <c r="IP13" s="1"/>
+      <c r="IQ13" s="1"/>
+      <c r="IR13" s="1"/>
+      <c r="IS13" s="1"/>
+      <c r="IT13" s="23"/>
+      <c r="IU13" s="24"/>
+      <c r="IV13" s="24"/>
+      <c r="IW13" s="1"/>
+      <c r="IX13" s="1"/>
+      <c r="IY13" s="1"/>
+      <c r="IZ13" s="1"/>
+      <c r="JA13" s="23"/>
+      <c r="JB13" s="24"/>
+      <c r="JC13" s="1"/>
+      <c r="JD13" s="1"/>
+      <c r="JE13" s="1"/>
+      <c r="JF13" s="1"/>
+      <c r="JG13" s="1"/>
+      <c r="JH13" s="23"/>
+      <c r="JI13" s="24"/>
+      <c r="JJ13" s="1"/>
+      <c r="JK13" s="1"/>
+      <c r="JL13" s="1"/>
+      <c r="JM13" s="1"/>
+      <c r="JN13" s="1"/>
+      <c r="JO13" s="23"/>
+      <c r="JP13" s="24"/>
+      <c r="JQ13" s="24"/>
+      <c r="JR13" s="1"/>
+      <c r="JS13" s="1"/>
+      <c r="JT13" s="1"/>
+      <c r="JU13" s="1"/>
+      <c r="JV13" s="23"/>
+      <c r="JW13" s="24"/>
+      <c r="JX13" s="1"/>
+      <c r="JY13" s="1"/>
+      <c r="JZ13" s="1"/>
+      <c r="KA13" s="1"/>
+      <c r="KB13" s="1"/>
+      <c r="KC13" s="23"/>
+      <c r="KD13" s="24"/>
+      <c r="KE13" s="1"/>
+      <c r="KF13" s="1"/>
+      <c r="KG13" s="1"/>
+      <c r="KH13" s="1"/>
+      <c r="KI13" s="1"/>
+      <c r="KJ13" s="23"/>
+      <c r="KK13" s="24"/>
+      <c r="KL13" s="1"/>
+      <c r="KM13" s="1"/>
+      <c r="KN13" s="1"/>
+      <c r="KO13" s="1"/>
+      <c r="KP13" s="1"/>
+      <c r="KQ13" s="23"/>
+      <c r="KR13" s="24"/>
+      <c r="KS13" s="1"/>
+      <c r="KT13" s="1"/>
+      <c r="KU13" s="1"/>
+      <c r="KV13" s="1"/>
+      <c r="KW13" s="1"/>
+      <c r="KX13" s="23"/>
+      <c r="KY13" s="24"/>
+      <c r="KZ13" s="1"/>
+      <c r="LA13" s="1"/>
+      <c r="LB13" s="1"/>
+      <c r="LC13" s="24"/>
+      <c r="LD13" s="1"/>
+      <c r="LE13" s="23"/>
+      <c r="LF13" s="24"/>
+      <c r="LG13" s="1"/>
+      <c r="LH13" s="1"/>
+      <c r="LI13" s="1"/>
+      <c r="LJ13" s="1"/>
+      <c r="LK13" s="1"/>
     </row>
-    <row r="14" spans="1:228" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:323" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B14" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C14" s="2">
-        <v>45748</v>
+        <v>45842</v>
       </c>
       <c r="D14" s="2">
-        <v>45757</v>
+        <v>45853</v>
       </c>
       <c r="E14" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H14" s="1">
         <v>60</v>
@@ -5146,33 +6766,31 @@
       <c r="AK14" s="23"/>
       <c r="AL14" s="24"/>
       <c r="AM14" s="25"/>
-      <c r="AN14" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="AO14" s="38"/>
-      <c r="AP14" s="38"/>
-      <c r="AQ14" s="38"/>
-      <c r="AR14" s="38"/>
-      <c r="AS14" s="38"/>
-      <c r="AT14" s="38"/>
-      <c r="AU14" s="38"/>
-      <c r="AV14" s="38"/>
-      <c r="AW14" s="38"/>
+      <c r="AN14" s="25"/>
+      <c r="AO14" s="25"/>
+      <c r="AP14" s="25"/>
+      <c r="AQ14" s="25"/>
+      <c r="AR14" s="23"/>
+      <c r="AS14" s="24"/>
+      <c r="AT14" s="25"/>
+      <c r="AU14" s="25"/>
+      <c r="AV14" s="25"/>
+      <c r="AW14" s="25"/>
       <c r="AX14" s="25"/>
       <c r="AY14" s="23"/>
-      <c r="AZ14" s="26"/>
-      <c r="BA14" s="27"/>
-      <c r="BB14" s="28"/>
-      <c r="BC14" s="1"/>
-      <c r="BD14" s="1"/>
-      <c r="BE14" s="1"/>
+      <c r="AZ14" s="24"/>
+      <c r="BA14" s="25"/>
+      <c r="BB14" s="25"/>
+      <c r="BC14" s="25"/>
+      <c r="BD14" s="25"/>
+      <c r="BE14" s="25"/>
       <c r="BF14" s="23"/>
       <c r="BG14" s="24"/>
-      <c r="BH14" s="1"/>
-      <c r="BI14" s="1"/>
-      <c r="BJ14" s="1"/>
-      <c r="BK14" s="1"/>
-      <c r="BL14" s="1"/>
+      <c r="BH14" s="25"/>
+      <c r="BI14" s="25"/>
+      <c r="BJ14" s="26"/>
+      <c r="BK14" s="27"/>
+      <c r="BL14" s="28"/>
       <c r="BM14" s="23"/>
       <c r="BN14" s="24"/>
       <c r="BO14" s="1"/>
@@ -5242,18 +6860,20 @@
       <c r="EA14" s="1"/>
       <c r="EB14" s="1"/>
       <c r="EC14" s="1"/>
-      <c r="ED14" s="1"/>
-      <c r="EE14" s="23"/>
-      <c r="EF14" s="24"/>
-      <c r="EG14" s="1"/>
-      <c r="EH14" s="1"/>
-      <c r="EI14" s="1"/>
-      <c r="EJ14" s="1"/>
-      <c r="EK14" s="1"/>
-      <c r="EL14" s="23"/>
-      <c r="EM14" s="24"/>
-      <c r="EN14" s="1"/>
-      <c r="EO14" s="1"/>
+      <c r="ED14" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="EE14" s="33"/>
+      <c r="EF14" s="33"/>
+      <c r="EG14" s="33"/>
+      <c r="EH14" s="33"/>
+      <c r="EI14" s="33"/>
+      <c r="EJ14" s="33"/>
+      <c r="EK14" s="33"/>
+      <c r="EL14" s="33"/>
+      <c r="EM14" s="33"/>
+      <c r="EN14" s="33"/>
+      <c r="EO14" s="33"/>
       <c r="EP14" s="1"/>
       <c r="EQ14" s="1"/>
       <c r="ER14" s="1"/>
@@ -5337,28 +6957,123 @@
       <c r="HR14" s="23"/>
       <c r="HS14" s="24"/>
       <c r="HT14" s="1"/>
+      <c r="HU14" s="1"/>
+      <c r="HV14" s="1"/>
+      <c r="HW14" s="1"/>
+      <c r="HX14" s="1"/>
+      <c r="HY14" s="23"/>
+      <c r="HZ14" s="24"/>
+      <c r="IA14" s="24"/>
+      <c r="IB14" s="1"/>
+      <c r="IC14" s="1"/>
+      <c r="ID14" s="1"/>
+      <c r="IE14" s="1"/>
+      <c r="IF14" s="23"/>
+      <c r="IG14" s="24"/>
+      <c r="IH14" s="1"/>
+      <c r="II14" s="1"/>
+      <c r="IJ14" s="1"/>
+      <c r="IK14" s="1"/>
+      <c r="IL14" s="1"/>
+      <c r="IM14" s="23"/>
+      <c r="IN14" s="24"/>
+      <c r="IO14" s="1"/>
+      <c r="IP14" s="1"/>
+      <c r="IQ14" s="1"/>
+      <c r="IR14" s="1"/>
+      <c r="IS14" s="1"/>
+      <c r="IT14" s="23"/>
+      <c r="IU14" s="24"/>
+      <c r="IV14" s="24"/>
+      <c r="IW14" s="1"/>
+      <c r="IX14" s="1"/>
+      <c r="IY14" s="1"/>
+      <c r="IZ14" s="1"/>
+      <c r="JA14" s="23"/>
+      <c r="JB14" s="24"/>
+      <c r="JC14" s="1"/>
+      <c r="JD14" s="1"/>
+      <c r="JE14" s="1"/>
+      <c r="JF14" s="1"/>
+      <c r="JG14" s="1"/>
+      <c r="JH14" s="23"/>
+      <c r="JI14" s="24"/>
+      <c r="JJ14" s="1"/>
+      <c r="JK14" s="1"/>
+      <c r="JL14" s="1"/>
+      <c r="JM14" s="1"/>
+      <c r="JN14" s="1"/>
+      <c r="JO14" s="23"/>
+      <c r="JP14" s="24"/>
+      <c r="JQ14" s="24"/>
+      <c r="JR14" s="1"/>
+      <c r="JS14" s="1"/>
+      <c r="JT14" s="1"/>
+      <c r="JU14" s="1"/>
+      <c r="JV14" s="23"/>
+      <c r="JW14" s="24"/>
+      <c r="JX14" s="1"/>
+      <c r="JY14" s="1"/>
+      <c r="JZ14" s="1"/>
+      <c r="KA14" s="1"/>
+      <c r="KB14" s="1"/>
+      <c r="KC14" s="23"/>
+      <c r="KD14" s="24"/>
+      <c r="KE14" s="1"/>
+      <c r="KF14" s="1"/>
+      <c r="KG14" s="1"/>
+      <c r="KH14" s="1"/>
+      <c r="KI14" s="1"/>
+      <c r="KJ14" s="23"/>
+      <c r="KK14" s="24"/>
+      <c r="KL14" s="1"/>
+      <c r="KM14" s="1"/>
+      <c r="KN14" s="1"/>
+      <c r="KO14" s="1"/>
+      <c r="KP14" s="1"/>
+      <c r="KQ14" s="23"/>
+      <c r="KR14" s="24"/>
+      <c r="KS14" s="1"/>
+      <c r="KT14" s="1"/>
+      <c r="KU14" s="1"/>
+      <c r="KV14" s="1"/>
+      <c r="KW14" s="1"/>
+      <c r="KX14" s="23"/>
+      <c r="KY14" s="24"/>
+      <c r="KZ14" s="1"/>
+      <c r="LA14" s="1"/>
+      <c r="LB14" s="1"/>
+      <c r="LC14" s="24"/>
+      <c r="LD14" s="1"/>
+      <c r="LE14" s="23"/>
+      <c r="LF14" s="24"/>
+      <c r="LG14" s="1"/>
+      <c r="LH14" s="1"/>
+      <c r="LI14" s="1"/>
+      <c r="LJ14" s="1"/>
+      <c r="LK14" s="1"/>
     </row>
-    <row r="15" spans="1:228" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:323" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B15" s="1">
         <v>10</v>
       </c>
       <c r="C15" s="2">
-        <v>45758</v>
+        <v>45854</v>
       </c>
       <c r="D15" s="2">
-        <v>45771</v>
+        <v>45868</v>
       </c>
       <c r="E15" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H15" s="1">
         <v>100</v>
@@ -5404,23 +7119,21 @@
       <c r="AU15" s="25"/>
       <c r="AV15" s="25"/>
       <c r="AW15" s="25"/>
-      <c r="AX15" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="AY15" s="33"/>
-      <c r="AZ15" s="34"/>
-      <c r="BA15" s="35"/>
-      <c r="BB15" s="36"/>
-      <c r="BC15" s="33"/>
-      <c r="BD15" s="33"/>
-      <c r="BE15" s="33"/>
-      <c r="BF15" s="33"/>
-      <c r="BG15" s="33"/>
-      <c r="BH15" s="33"/>
-      <c r="BI15" s="33"/>
-      <c r="BJ15" s="33"/>
-      <c r="BK15" s="33"/>
-      <c r="BL15" s="1"/>
+      <c r="AX15" s="25"/>
+      <c r="AY15" s="23"/>
+      <c r="AZ15" s="24"/>
+      <c r="BA15" s="25"/>
+      <c r="BB15" s="25"/>
+      <c r="BC15" s="25"/>
+      <c r="BD15" s="25"/>
+      <c r="BE15" s="25"/>
+      <c r="BF15" s="23"/>
+      <c r="BG15" s="24"/>
+      <c r="BH15" s="25"/>
+      <c r="BI15" s="25"/>
+      <c r="BJ15" s="26"/>
+      <c r="BK15" s="27"/>
+      <c r="BL15" s="28"/>
       <c r="BM15" s="23"/>
       <c r="BN15" s="24"/>
       <c r="BO15" s="1"/>
@@ -5502,21 +7215,23 @@
       <c r="EM15" s="24"/>
       <c r="EN15" s="1"/>
       <c r="EO15" s="1"/>
-      <c r="EP15" s="1"/>
-      <c r="EQ15" s="1"/>
-      <c r="ER15" s="1"/>
-      <c r="ES15" s="23"/>
-      <c r="ET15" s="24"/>
-      <c r="EU15" s="24"/>
-      <c r="EV15" s="1"/>
-      <c r="EW15" s="1"/>
-      <c r="EX15" s="1"/>
-      <c r="EY15" s="1"/>
-      <c r="EZ15" s="23"/>
-      <c r="FA15" s="24"/>
-      <c r="FB15" s="1"/>
-      <c r="FC15" s="1"/>
-      <c r="FD15" s="1"/>
+      <c r="EP15" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="EQ15" s="33"/>
+      <c r="ER15" s="33"/>
+      <c r="ES15" s="33"/>
+      <c r="ET15" s="33"/>
+      <c r="EU15" s="33"/>
+      <c r="EV15" s="33"/>
+      <c r="EW15" s="33"/>
+      <c r="EX15" s="33"/>
+      <c r="EY15" s="33"/>
+      <c r="EZ15" s="33"/>
+      <c r="FA15" s="33"/>
+      <c r="FB15" s="33"/>
+      <c r="FC15" s="33"/>
+      <c r="FD15" s="33"/>
       <c r="FE15" s="1"/>
       <c r="FF15" s="1"/>
       <c r="FG15" s="23"/>
@@ -5585,28 +7300,123 @@
       <c r="HR15" s="23"/>
       <c r="HS15" s="24"/>
       <c r="HT15" s="1"/>
+      <c r="HU15" s="1"/>
+      <c r="HV15" s="1"/>
+      <c r="HW15" s="1"/>
+      <c r="HX15" s="1"/>
+      <c r="HY15" s="23"/>
+      <c r="HZ15" s="24"/>
+      <c r="IA15" s="24"/>
+      <c r="IB15" s="1"/>
+      <c r="IC15" s="1"/>
+      <c r="ID15" s="1"/>
+      <c r="IE15" s="1"/>
+      <c r="IF15" s="23"/>
+      <c r="IG15" s="24"/>
+      <c r="IH15" s="1"/>
+      <c r="II15" s="1"/>
+      <c r="IJ15" s="1"/>
+      <c r="IK15" s="1"/>
+      <c r="IL15" s="1"/>
+      <c r="IM15" s="23"/>
+      <c r="IN15" s="24"/>
+      <c r="IO15" s="1"/>
+      <c r="IP15" s="1"/>
+      <c r="IQ15" s="1"/>
+      <c r="IR15" s="1"/>
+      <c r="IS15" s="1"/>
+      <c r="IT15" s="23"/>
+      <c r="IU15" s="24"/>
+      <c r="IV15" s="24"/>
+      <c r="IW15" s="1"/>
+      <c r="IX15" s="1"/>
+      <c r="IY15" s="1"/>
+      <c r="IZ15" s="1"/>
+      <c r="JA15" s="23"/>
+      <c r="JB15" s="24"/>
+      <c r="JC15" s="1"/>
+      <c r="JD15" s="1"/>
+      <c r="JE15" s="1"/>
+      <c r="JF15" s="1"/>
+      <c r="JG15" s="1"/>
+      <c r="JH15" s="23"/>
+      <c r="JI15" s="24"/>
+      <c r="JJ15" s="1"/>
+      <c r="JK15" s="1"/>
+      <c r="JL15" s="1"/>
+      <c r="JM15" s="1"/>
+      <c r="JN15" s="1"/>
+      <c r="JO15" s="23"/>
+      <c r="JP15" s="24"/>
+      <c r="JQ15" s="24"/>
+      <c r="JR15" s="1"/>
+      <c r="JS15" s="1"/>
+      <c r="JT15" s="1"/>
+      <c r="JU15" s="1"/>
+      <c r="JV15" s="23"/>
+      <c r="JW15" s="24"/>
+      <c r="JX15" s="1"/>
+      <c r="JY15" s="1"/>
+      <c r="JZ15" s="1"/>
+      <c r="KA15" s="1"/>
+      <c r="KB15" s="1"/>
+      <c r="KC15" s="23"/>
+      <c r="KD15" s="24"/>
+      <c r="KE15" s="1"/>
+      <c r="KF15" s="1"/>
+      <c r="KG15" s="1"/>
+      <c r="KH15" s="1"/>
+      <c r="KI15" s="1"/>
+      <c r="KJ15" s="23"/>
+      <c r="KK15" s="24"/>
+      <c r="KL15" s="1"/>
+      <c r="KM15" s="1"/>
+      <c r="KN15" s="1"/>
+      <c r="KO15" s="1"/>
+      <c r="KP15" s="1"/>
+      <c r="KQ15" s="23"/>
+      <c r="KR15" s="24"/>
+      <c r="KS15" s="1"/>
+      <c r="KT15" s="1"/>
+      <c r="KU15" s="1"/>
+      <c r="KV15" s="1"/>
+      <c r="KW15" s="1"/>
+      <c r="KX15" s="23"/>
+      <c r="KY15" s="24"/>
+      <c r="KZ15" s="1"/>
+      <c r="LA15" s="1"/>
+      <c r="LB15" s="1"/>
+      <c r="LC15" s="24"/>
+      <c r="LD15" s="1"/>
+      <c r="LE15" s="23"/>
+      <c r="LF15" s="24"/>
+      <c r="LG15" s="1"/>
+      <c r="LH15" s="1"/>
+      <c r="LI15" s="1"/>
+      <c r="LJ15" s="1"/>
+      <c r="LK15" s="1"/>
     </row>
-    <row r="16" spans="1:228" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:323" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B16" s="1">
         <v>10</v>
       </c>
       <c r="C16" s="2">
-        <v>45772</v>
+        <v>45869</v>
       </c>
       <c r="D16" s="2">
-        <v>45790</v>
+        <v>45883</v>
       </c>
       <c r="E16" s="1">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H16" s="1">
         <v>120</v>
@@ -5654,39 +7464,37 @@
       <c r="AW16" s="25"/>
       <c r="AX16" s="25"/>
       <c r="AY16" s="23"/>
-      <c r="AZ16" s="26"/>
-      <c r="BA16" s="27"/>
-      <c r="BB16" s="28"/>
-      <c r="BC16" s="1"/>
-      <c r="BD16" s="1"/>
-      <c r="BE16" s="1"/>
+      <c r="AZ16" s="24"/>
+      <c r="BA16" s="25"/>
+      <c r="BB16" s="25"/>
+      <c r="BC16" s="25"/>
+      <c r="BD16" s="25"/>
+      <c r="BE16" s="25"/>
       <c r="BF16" s="23"/>
       <c r="BG16" s="24"/>
-      <c r="BH16" s="1"/>
-      <c r="BI16" s="1"/>
-      <c r="BJ16" s="1"/>
-      <c r="BK16" s="1"/>
-      <c r="BL16" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="BM16" s="33"/>
-      <c r="BN16" s="33"/>
-      <c r="BO16" s="33"/>
-      <c r="BP16" s="33"/>
-      <c r="BQ16" s="33"/>
-      <c r="BR16" s="33"/>
-      <c r="BS16" s="33"/>
-      <c r="BT16" s="33"/>
-      <c r="BU16" s="33"/>
-      <c r="BV16" s="33"/>
-      <c r="BW16" s="33"/>
-      <c r="BX16" s="33"/>
-      <c r="BY16" s="33"/>
-      <c r="BZ16" s="33"/>
-      <c r="CA16" s="33"/>
-      <c r="CB16" s="33"/>
-      <c r="CC16" s="33"/>
-      <c r="CD16" s="33"/>
+      <c r="BH16" s="25"/>
+      <c r="BI16" s="25"/>
+      <c r="BJ16" s="26"/>
+      <c r="BK16" s="27"/>
+      <c r="BL16" s="28"/>
+      <c r="BM16" s="23"/>
+      <c r="BN16" s="24"/>
+      <c r="BO16" s="1"/>
+      <c r="BP16" s="24"/>
+      <c r="BQ16" s="1"/>
+      <c r="BR16" s="1"/>
+      <c r="BS16" s="1"/>
+      <c r="BT16" s="24"/>
+      <c r="BU16" s="24"/>
+      <c r="BV16" s="24"/>
+      <c r="BW16" s="24"/>
+      <c r="BX16" s="1"/>
+      <c r="BY16" s="1"/>
+      <c r="BZ16" s="1"/>
+      <c r="CA16" s="23"/>
+      <c r="CB16" s="24"/>
+      <c r="CC16" s="1"/>
+      <c r="CD16" s="1"/>
       <c r="CE16" s="1"/>
       <c r="CF16" s="1"/>
       <c r="CG16" s="1"/>
@@ -5765,21 +7573,23 @@
       <c r="FB16" s="1"/>
       <c r="FC16" s="1"/>
       <c r="FD16" s="1"/>
-      <c r="FE16" s="1"/>
-      <c r="FF16" s="1"/>
-      <c r="FG16" s="23"/>
-      <c r="FH16" s="24"/>
-      <c r="FI16" s="1"/>
-      <c r="FJ16" s="1"/>
-      <c r="FK16" s="1"/>
-      <c r="FL16" s="1"/>
-      <c r="FM16" s="1"/>
-      <c r="FN16" s="23"/>
-      <c r="FO16" s="24"/>
-      <c r="FP16" s="24"/>
-      <c r="FQ16" s="1"/>
-      <c r="FR16" s="1"/>
-      <c r="FS16" s="1"/>
+      <c r="FE16" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="FF16" s="33"/>
+      <c r="FG16" s="33"/>
+      <c r="FH16" s="33"/>
+      <c r="FI16" s="33"/>
+      <c r="FJ16" s="33"/>
+      <c r="FK16" s="33"/>
+      <c r="FL16" s="33"/>
+      <c r="FM16" s="33"/>
+      <c r="FN16" s="33"/>
+      <c r="FO16" s="33"/>
+      <c r="FP16" s="33"/>
+      <c r="FQ16" s="33"/>
+      <c r="FR16" s="33"/>
+      <c r="FS16" s="33"/>
       <c r="FT16" s="1"/>
       <c r="FU16" s="23"/>
       <c r="FV16" s="24"/>
@@ -5833,28 +7643,123 @@
       <c r="HR16" s="23"/>
       <c r="HS16" s="24"/>
       <c r="HT16" s="1"/>
+      <c r="HU16" s="1"/>
+      <c r="HV16" s="1"/>
+      <c r="HW16" s="1"/>
+      <c r="HX16" s="1"/>
+      <c r="HY16" s="23"/>
+      <c r="HZ16" s="24"/>
+      <c r="IA16" s="24"/>
+      <c r="IB16" s="1"/>
+      <c r="IC16" s="1"/>
+      <c r="ID16" s="1"/>
+      <c r="IE16" s="1"/>
+      <c r="IF16" s="23"/>
+      <c r="IG16" s="24"/>
+      <c r="IH16" s="1"/>
+      <c r="II16" s="1"/>
+      <c r="IJ16" s="1"/>
+      <c r="IK16" s="1"/>
+      <c r="IL16" s="1"/>
+      <c r="IM16" s="23"/>
+      <c r="IN16" s="24"/>
+      <c r="IO16" s="1"/>
+      <c r="IP16" s="1"/>
+      <c r="IQ16" s="1"/>
+      <c r="IR16" s="1"/>
+      <c r="IS16" s="1"/>
+      <c r="IT16" s="23"/>
+      <c r="IU16" s="24"/>
+      <c r="IV16" s="24"/>
+      <c r="IW16" s="1"/>
+      <c r="IX16" s="1"/>
+      <c r="IY16" s="1"/>
+      <c r="IZ16" s="1"/>
+      <c r="JA16" s="23"/>
+      <c r="JB16" s="24"/>
+      <c r="JC16" s="1"/>
+      <c r="JD16" s="1"/>
+      <c r="JE16" s="1"/>
+      <c r="JF16" s="1"/>
+      <c r="JG16" s="1"/>
+      <c r="JH16" s="23"/>
+      <c r="JI16" s="24"/>
+      <c r="JJ16" s="1"/>
+      <c r="JK16" s="1"/>
+      <c r="JL16" s="1"/>
+      <c r="JM16" s="1"/>
+      <c r="JN16" s="1"/>
+      <c r="JO16" s="23"/>
+      <c r="JP16" s="24"/>
+      <c r="JQ16" s="24"/>
+      <c r="JR16" s="1"/>
+      <c r="JS16" s="1"/>
+      <c r="JT16" s="1"/>
+      <c r="JU16" s="1"/>
+      <c r="JV16" s="23"/>
+      <c r="JW16" s="24"/>
+      <c r="JX16" s="1"/>
+      <c r="JY16" s="1"/>
+      <c r="JZ16" s="1"/>
+      <c r="KA16" s="1"/>
+      <c r="KB16" s="1"/>
+      <c r="KC16" s="23"/>
+      <c r="KD16" s="24"/>
+      <c r="KE16" s="1"/>
+      <c r="KF16" s="1"/>
+      <c r="KG16" s="1"/>
+      <c r="KH16" s="1"/>
+      <c r="KI16" s="1"/>
+      <c r="KJ16" s="23"/>
+      <c r="KK16" s="24"/>
+      <c r="KL16" s="1"/>
+      <c r="KM16" s="1"/>
+      <c r="KN16" s="1"/>
+      <c r="KO16" s="1"/>
+      <c r="KP16" s="1"/>
+      <c r="KQ16" s="23"/>
+      <c r="KR16" s="24"/>
+      <c r="KS16" s="1"/>
+      <c r="KT16" s="1"/>
+      <c r="KU16" s="1"/>
+      <c r="KV16" s="1"/>
+      <c r="KW16" s="1"/>
+      <c r="KX16" s="23"/>
+      <c r="KY16" s="24"/>
+      <c r="KZ16" s="1"/>
+      <c r="LA16" s="1"/>
+      <c r="LB16" s="1"/>
+      <c r="LC16" s="24"/>
+      <c r="LD16" s="1"/>
+      <c r="LE16" s="23"/>
+      <c r="LF16" s="24"/>
+      <c r="LG16" s="1"/>
+      <c r="LH16" s="1"/>
+      <c r="LI16" s="1"/>
+      <c r="LJ16" s="1"/>
+      <c r="LK16" s="1"/>
     </row>
-    <row r="17" spans="1:228" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:323" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B17" s="1">
         <v>10</v>
       </c>
       <c r="C17" s="2">
-        <v>45791</v>
+        <v>45884</v>
       </c>
       <c r="D17" s="2">
-        <v>45804</v>
+        <v>45897</v>
       </c>
       <c r="E17" s="1">
         <v>14</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H17" s="1">
         <v>80</v>
@@ -5902,19 +7807,19 @@
       <c r="AW17" s="25"/>
       <c r="AX17" s="25"/>
       <c r="AY17" s="23"/>
-      <c r="AZ17" s="26"/>
-      <c r="BA17" s="27"/>
-      <c r="BB17" s="28"/>
-      <c r="BC17" s="1"/>
-      <c r="BD17" s="1"/>
-      <c r="BE17" s="1"/>
+      <c r="AZ17" s="24"/>
+      <c r="BA17" s="25"/>
+      <c r="BB17" s="25"/>
+      <c r="BC17" s="25"/>
+      <c r="BD17" s="25"/>
+      <c r="BE17" s="25"/>
       <c r="BF17" s="23"/>
       <c r="BG17" s="24"/>
-      <c r="BH17" s="1"/>
-      <c r="BI17" s="1"/>
-      <c r="BJ17" s="1"/>
-      <c r="BK17" s="1"/>
-      <c r="BL17" s="1"/>
+      <c r="BH17" s="25"/>
+      <c r="BI17" s="25"/>
+      <c r="BJ17" s="26"/>
+      <c r="BK17" s="27"/>
+      <c r="BL17" s="28"/>
       <c r="BM17" s="23"/>
       <c r="BN17" s="24"/>
       <c r="BO17" s="1"/>
@@ -5933,22 +7838,20 @@
       <c r="CB17" s="24"/>
       <c r="CC17" s="1"/>
       <c r="CD17" s="1"/>
-      <c r="CE17" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="CF17" s="33"/>
-      <c r="CG17" s="33"/>
-      <c r="CH17" s="33"/>
-      <c r="CI17" s="33"/>
-      <c r="CJ17" s="33"/>
-      <c r="CK17" s="33"/>
-      <c r="CL17" s="33"/>
-      <c r="CM17" s="33"/>
-      <c r="CN17" s="33"/>
-      <c r="CO17" s="33"/>
-      <c r="CP17" s="33"/>
-      <c r="CQ17" s="33"/>
-      <c r="CR17" s="33"/>
+      <c r="CE17" s="1"/>
+      <c r="CF17" s="1"/>
+      <c r="CG17" s="1"/>
+      <c r="CH17" s="23"/>
+      <c r="CI17" s="24"/>
+      <c r="CJ17" s="1"/>
+      <c r="CK17" s="1"/>
+      <c r="CL17" s="1"/>
+      <c r="CM17" s="1"/>
+      <c r="CN17" s="1"/>
+      <c r="CO17" s="23"/>
+      <c r="CP17" s="24"/>
+      <c r="CQ17" s="1"/>
+      <c r="CR17" s="1"/>
       <c r="CS17" s="1"/>
       <c r="CT17" s="1"/>
       <c r="CU17" s="1"/>
@@ -6028,20 +7931,22 @@
       <c r="FQ17" s="1"/>
       <c r="FR17" s="1"/>
       <c r="FS17" s="1"/>
-      <c r="FT17" s="1"/>
-      <c r="FU17" s="23"/>
-      <c r="FV17" s="24"/>
-      <c r="FW17" s="1"/>
-      <c r="FX17" s="1"/>
-      <c r="FY17" s="1"/>
-      <c r="FZ17" s="1"/>
-      <c r="GA17" s="1"/>
-      <c r="GB17" s="23"/>
-      <c r="GC17" s="24"/>
-      <c r="GD17" s="1"/>
-      <c r="GE17" s="1"/>
-      <c r="GF17" s="1"/>
-      <c r="GG17" s="1"/>
+      <c r="FT17" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="FU17" s="33"/>
+      <c r="FV17" s="33"/>
+      <c r="FW17" s="33"/>
+      <c r="FX17" s="33"/>
+      <c r="FY17" s="33"/>
+      <c r="FZ17" s="33"/>
+      <c r="GA17" s="33"/>
+      <c r="GB17" s="33"/>
+      <c r="GC17" s="33"/>
+      <c r="GD17" s="33"/>
+      <c r="GE17" s="33"/>
+      <c r="GF17" s="33"/>
+      <c r="GG17" s="33"/>
       <c r="GH17" s="1"/>
       <c r="GI17" s="23"/>
       <c r="GJ17" s="24"/>
@@ -6081,28 +7986,123 @@
       <c r="HR17" s="23"/>
       <c r="HS17" s="24"/>
       <c r="HT17" s="1"/>
+      <c r="HU17" s="1"/>
+      <c r="HV17" s="1"/>
+      <c r="HW17" s="1"/>
+      <c r="HX17" s="1"/>
+      <c r="HY17" s="23"/>
+      <c r="HZ17" s="24"/>
+      <c r="IA17" s="24"/>
+      <c r="IB17" s="1"/>
+      <c r="IC17" s="1"/>
+      <c r="ID17" s="1"/>
+      <c r="IE17" s="1"/>
+      <c r="IF17" s="23"/>
+      <c r="IG17" s="24"/>
+      <c r="IH17" s="1"/>
+      <c r="II17" s="1"/>
+      <c r="IJ17" s="1"/>
+      <c r="IK17" s="1"/>
+      <c r="IL17" s="1"/>
+      <c r="IM17" s="23"/>
+      <c r="IN17" s="24"/>
+      <c r="IO17" s="1"/>
+      <c r="IP17" s="1"/>
+      <c r="IQ17" s="1"/>
+      <c r="IR17" s="1"/>
+      <c r="IS17" s="1"/>
+      <c r="IT17" s="23"/>
+      <c r="IU17" s="24"/>
+      <c r="IV17" s="24"/>
+      <c r="IW17" s="1"/>
+      <c r="IX17" s="1"/>
+      <c r="IY17" s="1"/>
+      <c r="IZ17" s="1"/>
+      <c r="JA17" s="23"/>
+      <c r="JB17" s="24"/>
+      <c r="JC17" s="1"/>
+      <c r="JD17" s="1"/>
+      <c r="JE17" s="1"/>
+      <c r="JF17" s="1"/>
+      <c r="JG17" s="1"/>
+      <c r="JH17" s="23"/>
+      <c r="JI17" s="24"/>
+      <c r="JJ17" s="1"/>
+      <c r="JK17" s="1"/>
+      <c r="JL17" s="1"/>
+      <c r="JM17" s="1"/>
+      <c r="JN17" s="1"/>
+      <c r="JO17" s="23"/>
+      <c r="JP17" s="24"/>
+      <c r="JQ17" s="24"/>
+      <c r="JR17" s="1"/>
+      <c r="JS17" s="1"/>
+      <c r="JT17" s="1"/>
+      <c r="JU17" s="1"/>
+      <c r="JV17" s="23"/>
+      <c r="JW17" s="24"/>
+      <c r="JX17" s="1"/>
+      <c r="JY17" s="1"/>
+      <c r="JZ17" s="1"/>
+      <c r="KA17" s="1"/>
+      <c r="KB17" s="1"/>
+      <c r="KC17" s="23"/>
+      <c r="KD17" s="24"/>
+      <c r="KE17" s="1"/>
+      <c r="KF17" s="1"/>
+      <c r="KG17" s="1"/>
+      <c r="KH17" s="1"/>
+      <c r="KI17" s="1"/>
+      <c r="KJ17" s="23"/>
+      <c r="KK17" s="24"/>
+      <c r="KL17" s="1"/>
+      <c r="KM17" s="1"/>
+      <c r="KN17" s="1"/>
+      <c r="KO17" s="1"/>
+      <c r="KP17" s="1"/>
+      <c r="KQ17" s="23"/>
+      <c r="KR17" s="24"/>
+      <c r="KS17" s="1"/>
+      <c r="KT17" s="1"/>
+      <c r="KU17" s="1"/>
+      <c r="KV17" s="1"/>
+      <c r="KW17" s="1"/>
+      <c r="KX17" s="23"/>
+      <c r="KY17" s="24"/>
+      <c r="KZ17" s="1"/>
+      <c r="LA17" s="1"/>
+      <c r="LB17" s="1"/>
+      <c r="LC17" s="24"/>
+      <c r="LD17" s="1"/>
+      <c r="LE17" s="23"/>
+      <c r="LF17" s="24"/>
+      <c r="LG17" s="1"/>
+      <c r="LH17" s="1"/>
+      <c r="LI17" s="1"/>
+      <c r="LJ17" s="1"/>
+      <c r="LK17" s="1"/>
     </row>
-    <row r="18" spans="1:228" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:323" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B18" s="1">
         <v>10</v>
       </c>
       <c r="C18" s="2">
-        <v>45805</v>
+        <v>45898</v>
       </c>
       <c r="D18" s="2">
-        <v>45818</v>
+        <v>45911</v>
       </c>
       <c r="E18" s="1">
         <v>14</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H18" s="1">
         <v>40</v>
@@ -6150,19 +8150,19 @@
       <c r="AW18" s="25"/>
       <c r="AX18" s="25"/>
       <c r="AY18" s="23"/>
-      <c r="AZ18" s="26"/>
-      <c r="BA18" s="27"/>
-      <c r="BB18" s="28"/>
-      <c r="BC18" s="1"/>
-      <c r="BD18" s="1"/>
-      <c r="BE18" s="1"/>
+      <c r="AZ18" s="24"/>
+      <c r="BA18" s="25"/>
+      <c r="BB18" s="25"/>
+      <c r="BC18" s="25"/>
+      <c r="BD18" s="25"/>
+      <c r="BE18" s="25"/>
       <c r="BF18" s="23"/>
       <c r="BG18" s="24"/>
-      <c r="BH18" s="1"/>
-      <c r="BI18" s="1"/>
-      <c r="BJ18" s="1"/>
-      <c r="BK18" s="1"/>
-      <c r="BL18" s="1"/>
+      <c r="BH18" s="25"/>
+      <c r="BI18" s="25"/>
+      <c r="BJ18" s="26"/>
+      <c r="BK18" s="27"/>
+      <c r="BL18" s="28"/>
       <c r="BM18" s="23"/>
       <c r="BN18" s="24"/>
       <c r="BO18" s="1"/>
@@ -6195,22 +8195,20 @@
       <c r="CP18" s="24"/>
       <c r="CQ18" s="1"/>
       <c r="CR18" s="1"/>
-      <c r="CS18" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="CT18" s="33"/>
-      <c r="CU18" s="33"/>
-      <c r="CV18" s="33"/>
-      <c r="CW18" s="33"/>
-      <c r="CX18" s="33"/>
-      <c r="CY18" s="33"/>
-      <c r="CZ18" s="33"/>
-      <c r="DA18" s="33"/>
-      <c r="DB18" s="33"/>
-      <c r="DC18" s="33"/>
-      <c r="DD18" s="33"/>
-      <c r="DE18" s="33"/>
-      <c r="DF18" s="33"/>
+      <c r="CS18" s="1"/>
+      <c r="CT18" s="1"/>
+      <c r="CU18" s="1"/>
+      <c r="CV18" s="23"/>
+      <c r="CW18" s="24"/>
+      <c r="CX18" s="1"/>
+      <c r="CY18" s="1"/>
+      <c r="CZ18" s="1"/>
+      <c r="DA18" s="1"/>
+      <c r="DB18" s="1"/>
+      <c r="DC18" s="23"/>
+      <c r="DD18" s="24"/>
+      <c r="DE18" s="1"/>
+      <c r="DF18" s="1"/>
       <c r="DG18" s="1"/>
       <c r="DH18" s="1"/>
       <c r="DI18" s="1"/>
@@ -6290,20 +8288,22 @@
       <c r="GE18" s="1"/>
       <c r="GF18" s="1"/>
       <c r="GG18" s="1"/>
-      <c r="GH18" s="1"/>
-      <c r="GI18" s="23"/>
-      <c r="GJ18" s="24"/>
-      <c r="GK18" s="1"/>
-      <c r="GL18" s="1"/>
-      <c r="GM18" s="1"/>
-      <c r="GN18" s="1"/>
-      <c r="GO18" s="1"/>
-      <c r="GP18" s="23"/>
-      <c r="GQ18" s="24"/>
-      <c r="GR18" s="1"/>
-      <c r="GS18" s="1"/>
-      <c r="GT18" s="1"/>
-      <c r="GU18" s="1"/>
+      <c r="GH18" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="GI18" s="33"/>
+      <c r="GJ18" s="33"/>
+      <c r="GK18" s="33"/>
+      <c r="GL18" s="33"/>
+      <c r="GM18" s="33"/>
+      <c r="GN18" s="33"/>
+      <c r="GO18" s="33"/>
+      <c r="GP18" s="33"/>
+      <c r="GQ18" s="33"/>
+      <c r="GR18" s="33"/>
+      <c r="GS18" s="33"/>
+      <c r="GT18" s="33"/>
+      <c r="GU18" s="33"/>
       <c r="GV18" s="1"/>
       <c r="GW18" s="23"/>
       <c r="GX18" s="24"/>
@@ -6329,28 +8329,123 @@
       <c r="HR18" s="23"/>
       <c r="HS18" s="24"/>
       <c r="HT18" s="1"/>
+      <c r="HU18" s="1"/>
+      <c r="HV18" s="1"/>
+      <c r="HW18" s="1"/>
+      <c r="HX18" s="1"/>
+      <c r="HY18" s="23"/>
+      <c r="HZ18" s="24"/>
+      <c r="IA18" s="24"/>
+      <c r="IB18" s="1"/>
+      <c r="IC18" s="1"/>
+      <c r="ID18" s="1"/>
+      <c r="IE18" s="1"/>
+      <c r="IF18" s="23"/>
+      <c r="IG18" s="24"/>
+      <c r="IH18" s="1"/>
+      <c r="II18" s="1"/>
+      <c r="IJ18" s="1"/>
+      <c r="IK18" s="1"/>
+      <c r="IL18" s="1"/>
+      <c r="IM18" s="23"/>
+      <c r="IN18" s="24"/>
+      <c r="IO18" s="1"/>
+      <c r="IP18" s="1"/>
+      <c r="IQ18" s="1"/>
+      <c r="IR18" s="1"/>
+      <c r="IS18" s="1"/>
+      <c r="IT18" s="23"/>
+      <c r="IU18" s="24"/>
+      <c r="IV18" s="24"/>
+      <c r="IW18" s="1"/>
+      <c r="IX18" s="1"/>
+      <c r="IY18" s="1"/>
+      <c r="IZ18" s="1"/>
+      <c r="JA18" s="23"/>
+      <c r="JB18" s="24"/>
+      <c r="JC18" s="1"/>
+      <c r="JD18" s="1"/>
+      <c r="JE18" s="1"/>
+      <c r="JF18" s="1"/>
+      <c r="JG18" s="1"/>
+      <c r="JH18" s="23"/>
+      <c r="JI18" s="24"/>
+      <c r="JJ18" s="1"/>
+      <c r="JK18" s="1"/>
+      <c r="JL18" s="1"/>
+      <c r="JM18" s="1"/>
+      <c r="JN18" s="1"/>
+      <c r="JO18" s="23"/>
+      <c r="JP18" s="24"/>
+      <c r="JQ18" s="24"/>
+      <c r="JR18" s="1"/>
+      <c r="JS18" s="1"/>
+      <c r="JT18" s="1"/>
+      <c r="JU18" s="1"/>
+      <c r="JV18" s="23"/>
+      <c r="JW18" s="24"/>
+      <c r="JX18" s="1"/>
+      <c r="JY18" s="1"/>
+      <c r="JZ18" s="1"/>
+      <c r="KA18" s="1"/>
+      <c r="KB18" s="1"/>
+      <c r="KC18" s="23"/>
+      <c r="KD18" s="24"/>
+      <c r="KE18" s="1"/>
+      <c r="KF18" s="1"/>
+      <c r="KG18" s="1"/>
+      <c r="KH18" s="1"/>
+      <c r="KI18" s="1"/>
+      <c r="KJ18" s="23"/>
+      <c r="KK18" s="24"/>
+      <c r="KL18" s="1"/>
+      <c r="KM18" s="1"/>
+      <c r="KN18" s="1"/>
+      <c r="KO18" s="1"/>
+      <c r="KP18" s="1"/>
+      <c r="KQ18" s="23"/>
+      <c r="KR18" s="24"/>
+      <c r="KS18" s="1"/>
+      <c r="KT18" s="1"/>
+      <c r="KU18" s="1"/>
+      <c r="KV18" s="1"/>
+      <c r="KW18" s="1"/>
+      <c r="KX18" s="23"/>
+      <c r="KY18" s="24"/>
+      <c r="KZ18" s="1"/>
+      <c r="LA18" s="1"/>
+      <c r="LB18" s="1"/>
+      <c r="LC18" s="24"/>
+      <c r="LD18" s="1"/>
+      <c r="LE18" s="23"/>
+      <c r="LF18" s="24"/>
+      <c r="LG18" s="1"/>
+      <c r="LH18" s="1"/>
+      <c r="LI18" s="1"/>
+      <c r="LJ18" s="1"/>
+      <c r="LK18" s="1"/>
     </row>
-    <row r="19" spans="1:228" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:323" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B19" s="1">
         <v>10</v>
       </c>
       <c r="C19" s="2">
-        <v>45819</v>
+        <v>45912</v>
       </c>
       <c r="D19" s="2">
-        <v>45832</v>
+        <v>45929</v>
       </c>
       <c r="E19" s="1">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H19" s="1">
         <v>60</v>
@@ -6398,19 +8493,19 @@
       <c r="AW19" s="25"/>
       <c r="AX19" s="25"/>
       <c r="AY19" s="23"/>
-      <c r="AZ19" s="26"/>
-      <c r="BA19" s="27"/>
-      <c r="BB19" s="28"/>
-      <c r="BC19" s="1"/>
-      <c r="BD19" s="1"/>
-      <c r="BE19" s="1"/>
+      <c r="AZ19" s="24"/>
+      <c r="BA19" s="25"/>
+      <c r="BB19" s="25"/>
+      <c r="BC19" s="25"/>
+      <c r="BD19" s="25"/>
+      <c r="BE19" s="25"/>
       <c r="BF19" s="23"/>
       <c r="BG19" s="24"/>
-      <c r="BH19" s="1"/>
-      <c r="BI19" s="1"/>
-      <c r="BJ19" s="1"/>
-      <c r="BK19" s="1"/>
-      <c r="BL19" s="1"/>
+      <c r="BH19" s="25"/>
+      <c r="BI19" s="25"/>
+      <c r="BJ19" s="26"/>
+      <c r="BK19" s="27"/>
+      <c r="BL19" s="28"/>
       <c r="BM19" s="23"/>
       <c r="BN19" s="24"/>
       <c r="BO19" s="1"/>
@@ -6457,22 +8552,20 @@
       <c r="DD19" s="24"/>
       <c r="DE19" s="1"/>
       <c r="DF19" s="1"/>
-      <c r="DG19" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="DH19" s="33"/>
-      <c r="DI19" s="33"/>
-      <c r="DJ19" s="33"/>
-      <c r="DK19" s="33"/>
-      <c r="DL19" s="33"/>
-      <c r="DM19" s="33"/>
-      <c r="DN19" s="33"/>
-      <c r="DO19" s="33"/>
-      <c r="DP19" s="33"/>
-      <c r="DQ19" s="33"/>
-      <c r="DR19" s="33"/>
-      <c r="DS19" s="33"/>
-      <c r="DT19" s="33"/>
+      <c r="DG19" s="1"/>
+      <c r="DH19" s="1"/>
+      <c r="DI19" s="1"/>
+      <c r="DJ19" s="23"/>
+      <c r="DK19" s="24"/>
+      <c r="DL19" s="1"/>
+      <c r="DM19" s="1"/>
+      <c r="DN19" s="1"/>
+      <c r="DO19" s="1"/>
+      <c r="DP19" s="1"/>
+      <c r="DQ19" s="23"/>
+      <c r="DR19" s="24"/>
+      <c r="DS19" s="1"/>
+      <c r="DT19" s="1"/>
       <c r="DU19" s="1"/>
       <c r="DV19" s="1"/>
       <c r="DW19" s="1"/>
@@ -6552,24 +8645,26 @@
       <c r="GS19" s="1"/>
       <c r="GT19" s="1"/>
       <c r="GU19" s="1"/>
-      <c r="GV19" s="1"/>
-      <c r="GW19" s="23"/>
-      <c r="GX19" s="24"/>
-      <c r="GY19" s="24"/>
-      <c r="GZ19" s="1"/>
-      <c r="HA19" s="1"/>
-      <c r="HB19" s="1"/>
-      <c r="HC19" s="1"/>
-      <c r="HD19" s="23"/>
-      <c r="HE19" s="24"/>
-      <c r="HF19" s="1"/>
-      <c r="HG19" s="24"/>
-      <c r="HH19" s="1"/>
-      <c r="HI19" s="1"/>
-      <c r="HJ19" s="1"/>
-      <c r="HK19" s="23"/>
-      <c r="HL19" s="24"/>
-      <c r="HM19" s="1"/>
+      <c r="GV19" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="GW19" s="33"/>
+      <c r="GX19" s="33"/>
+      <c r="GY19" s="33"/>
+      <c r="GZ19" s="33"/>
+      <c r="HA19" s="33"/>
+      <c r="HB19" s="33"/>
+      <c r="HC19" s="33"/>
+      <c r="HD19" s="33"/>
+      <c r="HE19" s="33"/>
+      <c r="HF19" s="33"/>
+      <c r="HG19" s="33"/>
+      <c r="HH19" s="33"/>
+      <c r="HI19" s="33"/>
+      <c r="HJ19" s="33"/>
+      <c r="HK19" s="33"/>
+      <c r="HL19" s="33"/>
+      <c r="HM19" s="33"/>
       <c r="HN19" s="1"/>
       <c r="HO19" s="1"/>
       <c r="HP19" s="1"/>
@@ -6577,28 +8672,123 @@
       <c r="HR19" s="23"/>
       <c r="HS19" s="24"/>
       <c r="HT19" s="1"/>
+      <c r="HU19" s="1"/>
+      <c r="HV19" s="1"/>
+      <c r="HW19" s="1"/>
+      <c r="HX19" s="1"/>
+      <c r="HY19" s="23"/>
+      <c r="HZ19" s="24"/>
+      <c r="IA19" s="24"/>
+      <c r="IB19" s="1"/>
+      <c r="IC19" s="1"/>
+      <c r="ID19" s="1"/>
+      <c r="IE19" s="1"/>
+      <c r="IF19" s="23"/>
+      <c r="IG19" s="24"/>
+      <c r="IH19" s="1"/>
+      <c r="II19" s="1"/>
+      <c r="IJ19" s="1"/>
+      <c r="IK19" s="1"/>
+      <c r="IL19" s="1"/>
+      <c r="IM19" s="23"/>
+      <c r="IN19" s="24"/>
+      <c r="IO19" s="1"/>
+      <c r="IP19" s="1"/>
+      <c r="IQ19" s="1"/>
+      <c r="IR19" s="1"/>
+      <c r="IS19" s="1"/>
+      <c r="IT19" s="23"/>
+      <c r="IU19" s="24"/>
+      <c r="IV19" s="24"/>
+      <c r="IW19" s="1"/>
+      <c r="IX19" s="1"/>
+      <c r="IY19" s="1"/>
+      <c r="IZ19" s="1"/>
+      <c r="JA19" s="23"/>
+      <c r="JB19" s="24"/>
+      <c r="JC19" s="1"/>
+      <c r="JD19" s="1"/>
+      <c r="JE19" s="1"/>
+      <c r="JF19" s="1"/>
+      <c r="JG19" s="1"/>
+      <c r="JH19" s="23"/>
+      <c r="JI19" s="24"/>
+      <c r="JJ19" s="1"/>
+      <c r="JK19" s="1"/>
+      <c r="JL19" s="1"/>
+      <c r="JM19" s="1"/>
+      <c r="JN19" s="1"/>
+      <c r="JO19" s="23"/>
+      <c r="JP19" s="24"/>
+      <c r="JQ19" s="24"/>
+      <c r="JR19" s="1"/>
+      <c r="JS19" s="1"/>
+      <c r="JT19" s="1"/>
+      <c r="JU19" s="1"/>
+      <c r="JV19" s="23"/>
+      <c r="JW19" s="24"/>
+      <c r="JX19" s="1"/>
+      <c r="JY19" s="1"/>
+      <c r="JZ19" s="1"/>
+      <c r="KA19" s="1"/>
+      <c r="KB19" s="1"/>
+      <c r="KC19" s="23"/>
+      <c r="KD19" s="24"/>
+      <c r="KE19" s="1"/>
+      <c r="KF19" s="1"/>
+      <c r="KG19" s="1"/>
+      <c r="KH19" s="1"/>
+      <c r="KI19" s="1"/>
+      <c r="KJ19" s="23"/>
+      <c r="KK19" s="24"/>
+      <c r="KL19" s="1"/>
+      <c r="KM19" s="1"/>
+      <c r="KN19" s="1"/>
+      <c r="KO19" s="1"/>
+      <c r="KP19" s="1"/>
+      <c r="KQ19" s="23"/>
+      <c r="KR19" s="24"/>
+      <c r="KS19" s="1"/>
+      <c r="KT19" s="1"/>
+      <c r="KU19" s="1"/>
+      <c r="KV19" s="1"/>
+      <c r="KW19" s="1"/>
+      <c r="KX19" s="23"/>
+      <c r="KY19" s="24"/>
+      <c r="KZ19" s="1"/>
+      <c r="LA19" s="1"/>
+      <c r="LB19" s="1"/>
+      <c r="LC19" s="24"/>
+      <c r="LD19" s="1"/>
+      <c r="LE19" s="23"/>
+      <c r="LF19" s="24"/>
+      <c r="LG19" s="1"/>
+      <c r="LH19" s="1"/>
+      <c r="LI19" s="1"/>
+      <c r="LJ19" s="1"/>
+      <c r="LK19" s="1"/>
     </row>
-    <row r="20" spans="1:228" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:323" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B20" s="1">
         <v>10</v>
       </c>
       <c r="C20" s="2">
-        <v>45833</v>
+        <v>45930</v>
       </c>
       <c r="D20" s="2">
-        <v>45846</v>
+        <v>45944</v>
       </c>
       <c r="E20" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H20" s="1">
         <v>100</v>
@@ -6646,19 +8836,19 @@
       <c r="AW20" s="25"/>
       <c r="AX20" s="25"/>
       <c r="AY20" s="23"/>
-      <c r="AZ20" s="26"/>
-      <c r="BA20" s="27"/>
-      <c r="BB20" s="28"/>
-      <c r="BC20" s="1"/>
-      <c r="BD20" s="1"/>
-      <c r="BE20" s="1"/>
+      <c r="AZ20" s="24"/>
+      <c r="BA20" s="25"/>
+      <c r="BB20" s="25"/>
+      <c r="BC20" s="25"/>
+      <c r="BD20" s="25"/>
+      <c r="BE20" s="25"/>
       <c r="BF20" s="23"/>
       <c r="BG20" s="24"/>
-      <c r="BH20" s="1"/>
-      <c r="BI20" s="1"/>
-      <c r="BJ20" s="1"/>
-      <c r="BK20" s="1"/>
-      <c r="BL20" s="1"/>
+      <c r="BH20" s="25"/>
+      <c r="BI20" s="25"/>
+      <c r="BJ20" s="26"/>
+      <c r="BK20" s="27"/>
+      <c r="BL20" s="28"/>
       <c r="BM20" s="23"/>
       <c r="BN20" s="24"/>
       <c r="BO20" s="1"/>
@@ -6719,22 +8909,20 @@
       <c r="DR20" s="24"/>
       <c r="DS20" s="1"/>
       <c r="DT20" s="1"/>
-      <c r="DU20" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="DV20" s="33"/>
-      <c r="DW20" s="33"/>
-      <c r="DX20" s="33"/>
-      <c r="DY20" s="33"/>
-      <c r="DZ20" s="33"/>
-      <c r="EA20" s="33"/>
-      <c r="EB20" s="33"/>
-      <c r="EC20" s="33"/>
-      <c r="ED20" s="33"/>
-      <c r="EE20" s="33"/>
-      <c r="EF20" s="33"/>
-      <c r="EG20" s="33"/>
-      <c r="EH20" s="33"/>
+      <c r="DU20" s="1"/>
+      <c r="DV20" s="1"/>
+      <c r="DW20" s="1"/>
+      <c r="DX20" s="23"/>
+      <c r="DY20" s="24"/>
+      <c r="DZ20" s="1"/>
+      <c r="EA20" s="1"/>
+      <c r="EB20" s="1"/>
+      <c r="EC20" s="1"/>
+      <c r="ED20" s="1"/>
+      <c r="EE20" s="23"/>
+      <c r="EF20" s="24"/>
+      <c r="EG20" s="1"/>
+      <c r="EH20" s="1"/>
       <c r="EI20" s="1"/>
       <c r="EJ20" s="1"/>
       <c r="EK20" s="1"/>
@@ -6818,35 +9006,132 @@
       <c r="HK20" s="23"/>
       <c r="HL20" s="24"/>
       <c r="HM20" s="1"/>
-      <c r="HN20" s="1"/>
-      <c r="HO20" s="1"/>
-      <c r="HP20" s="1"/>
-      <c r="HQ20" s="1"/>
-      <c r="HR20" s="23"/>
-      <c r="HS20" s="24"/>
-      <c r="HT20" s="1"/>
+      <c r="HN20" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="HO20" s="33"/>
+      <c r="HP20" s="33"/>
+      <c r="HQ20" s="33"/>
+      <c r="HR20" s="33"/>
+      <c r="HS20" s="33"/>
+      <c r="HT20" s="33"/>
+      <c r="HU20" s="33"/>
+      <c r="HV20" s="33"/>
+      <c r="HW20" s="33"/>
+      <c r="HX20" s="33"/>
+      <c r="HY20" s="33"/>
+      <c r="HZ20" s="33"/>
+      <c r="IA20" s="33"/>
+      <c r="IB20" s="33"/>
+      <c r="IC20" s="1"/>
+      <c r="ID20" s="1"/>
+      <c r="IE20" s="1"/>
+      <c r="IF20" s="23"/>
+      <c r="IG20" s="24"/>
+      <c r="IH20" s="1"/>
+      <c r="II20" s="1"/>
+      <c r="IJ20" s="1"/>
+      <c r="IK20" s="1"/>
+      <c r="IL20" s="1"/>
+      <c r="IM20" s="23"/>
+      <c r="IN20" s="24"/>
+      <c r="IO20" s="1"/>
+      <c r="IP20" s="1"/>
+      <c r="IQ20" s="1"/>
+      <c r="IR20" s="1"/>
+      <c r="IS20" s="1"/>
+      <c r="IT20" s="23"/>
+      <c r="IU20" s="24"/>
+      <c r="IV20" s="24"/>
+      <c r="IW20" s="1"/>
+      <c r="IX20" s="1"/>
+      <c r="IY20" s="1"/>
+      <c r="IZ20" s="1"/>
+      <c r="JA20" s="23"/>
+      <c r="JB20" s="24"/>
+      <c r="JC20" s="1"/>
+      <c r="JD20" s="1"/>
+      <c r="JE20" s="1"/>
+      <c r="JF20" s="1"/>
+      <c r="JG20" s="1"/>
+      <c r="JH20" s="23"/>
+      <c r="JI20" s="24"/>
+      <c r="JJ20" s="1"/>
+      <c r="JK20" s="1"/>
+      <c r="JL20" s="1"/>
+      <c r="JM20" s="1"/>
+      <c r="JN20" s="1"/>
+      <c r="JO20" s="23"/>
+      <c r="JP20" s="24"/>
+      <c r="JQ20" s="24"/>
+      <c r="JR20" s="1"/>
+      <c r="JS20" s="1"/>
+      <c r="JT20" s="1"/>
+      <c r="JU20" s="1"/>
+      <c r="JV20" s="23"/>
+      <c r="JW20" s="24"/>
+      <c r="JX20" s="1"/>
+      <c r="JY20" s="1"/>
+      <c r="JZ20" s="1"/>
+      <c r="KA20" s="1"/>
+      <c r="KB20" s="1"/>
+      <c r="KC20" s="23"/>
+      <c r="KD20" s="24"/>
+      <c r="KE20" s="1"/>
+      <c r="KF20" s="1"/>
+      <c r="KG20" s="1"/>
+      <c r="KH20" s="1"/>
+      <c r="KI20" s="1"/>
+      <c r="KJ20" s="23"/>
+      <c r="KK20" s="24"/>
+      <c r="KL20" s="1"/>
+      <c r="KM20" s="1"/>
+      <c r="KN20" s="1"/>
+      <c r="KO20" s="1"/>
+      <c r="KP20" s="1"/>
+      <c r="KQ20" s="23"/>
+      <c r="KR20" s="24"/>
+      <c r="KS20" s="1"/>
+      <c r="KT20" s="1"/>
+      <c r="KU20" s="1"/>
+      <c r="KV20" s="1"/>
+      <c r="KW20" s="1"/>
+      <c r="KX20" s="23"/>
+      <c r="KY20" s="24"/>
+      <c r="KZ20" s="1"/>
+      <c r="LA20" s="1"/>
+      <c r="LB20" s="1"/>
+      <c r="LC20" s="24"/>
+      <c r="LD20" s="1"/>
+      <c r="LE20" s="23"/>
+      <c r="LF20" s="24"/>
+      <c r="LG20" s="1"/>
+      <c r="LH20" s="1"/>
+      <c r="LI20" s="1"/>
+      <c r="LJ20" s="1"/>
+      <c r="LK20" s="1"/>
     </row>
-    <row r="21" spans="1:228" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:323" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B21" s="1">
         <v>10</v>
       </c>
       <c r="C21" s="2">
-        <v>45847</v>
+        <v>45945</v>
       </c>
       <c r="D21" s="2">
-        <v>45861</v>
+        <v>45958</v>
       </c>
       <c r="E21" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H21" s="1">
         <v>120</v>
@@ -6894,19 +9179,19 @@
       <c r="AW21" s="25"/>
       <c r="AX21" s="25"/>
       <c r="AY21" s="23"/>
-      <c r="AZ21" s="26"/>
-      <c r="BA21" s="27"/>
-      <c r="BB21" s="28"/>
-      <c r="BC21" s="1"/>
-      <c r="BD21" s="1"/>
-      <c r="BE21" s="1"/>
+      <c r="AZ21" s="24"/>
+      <c r="BA21" s="25"/>
+      <c r="BB21" s="25"/>
+      <c r="BC21" s="25"/>
+      <c r="BD21" s="25"/>
+      <c r="BE21" s="25"/>
       <c r="BF21" s="23"/>
       <c r="BG21" s="24"/>
-      <c r="BH21" s="1"/>
-      <c r="BI21" s="1"/>
-      <c r="BJ21" s="1"/>
-      <c r="BK21" s="1"/>
-      <c r="BL21" s="1"/>
+      <c r="BH21" s="25"/>
+      <c r="BI21" s="25"/>
+      <c r="BJ21" s="26"/>
+      <c r="BK21" s="27"/>
+      <c r="BL21" s="28"/>
       <c r="BM21" s="23"/>
       <c r="BN21" s="24"/>
       <c r="BO21" s="1"/>
@@ -6981,23 +9266,21 @@
       <c r="EF21" s="24"/>
       <c r="EG21" s="1"/>
       <c r="EH21" s="1"/>
-      <c r="EI21" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="EJ21" s="33"/>
-      <c r="EK21" s="33"/>
-      <c r="EL21" s="33"/>
-      <c r="EM21" s="33"/>
-      <c r="EN21" s="33"/>
-      <c r="EO21" s="33"/>
-      <c r="EP21" s="33"/>
-      <c r="EQ21" s="33"/>
-      <c r="ER21" s="33"/>
-      <c r="ES21" s="33"/>
-      <c r="ET21" s="33"/>
-      <c r="EU21" s="33"/>
-      <c r="EV21" s="33"/>
-      <c r="EW21" s="33"/>
+      <c r="EI21" s="1"/>
+      <c r="EJ21" s="1"/>
+      <c r="EK21" s="1"/>
+      <c r="EL21" s="23"/>
+      <c r="EM21" s="24"/>
+      <c r="EN21" s="1"/>
+      <c r="EO21" s="1"/>
+      <c r="EP21" s="1"/>
+      <c r="EQ21" s="1"/>
+      <c r="ER21" s="1"/>
+      <c r="ES21" s="23"/>
+      <c r="ET21" s="24"/>
+      <c r="EU21" s="24"/>
+      <c r="EV21" s="1"/>
+      <c r="EW21" s="1"/>
       <c r="EX21" s="1"/>
       <c r="EY21" s="1"/>
       <c r="EZ21" s="23"/>
@@ -7073,28 +9356,125 @@
       <c r="HR21" s="23"/>
       <c r="HS21" s="24"/>
       <c r="HT21" s="1"/>
+      <c r="HU21" s="1"/>
+      <c r="HV21" s="1"/>
+      <c r="HW21" s="1"/>
+      <c r="HX21" s="1"/>
+      <c r="HY21" s="23"/>
+      <c r="HZ21" s="24"/>
+      <c r="IA21" s="24"/>
+      <c r="IB21" s="1"/>
+      <c r="IC21" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="ID21" s="33"/>
+      <c r="IE21" s="33"/>
+      <c r="IF21" s="33"/>
+      <c r="IG21" s="33"/>
+      <c r="IH21" s="33"/>
+      <c r="II21" s="33"/>
+      <c r="IJ21" s="33"/>
+      <c r="IK21" s="33"/>
+      <c r="IL21" s="33"/>
+      <c r="IM21" s="33"/>
+      <c r="IN21" s="33"/>
+      <c r="IO21" s="33"/>
+      <c r="IP21" s="33"/>
+      <c r="IQ21" s="1"/>
+      <c r="IR21" s="1"/>
+      <c r="IS21" s="1"/>
+      <c r="IT21" s="23"/>
+      <c r="IU21" s="24"/>
+      <c r="IV21" s="24"/>
+      <c r="IW21" s="1"/>
+      <c r="IX21" s="1"/>
+      <c r="IY21" s="1"/>
+      <c r="IZ21" s="1"/>
+      <c r="JA21" s="23"/>
+      <c r="JB21" s="24"/>
+      <c r="JC21" s="1"/>
+      <c r="JD21" s="1"/>
+      <c r="JE21" s="1"/>
+      <c r="JF21" s="1"/>
+      <c r="JG21" s="1"/>
+      <c r="JH21" s="23"/>
+      <c r="JI21" s="24"/>
+      <c r="JJ21" s="1"/>
+      <c r="JK21" s="1"/>
+      <c r="JL21" s="1"/>
+      <c r="JM21" s="1"/>
+      <c r="JN21" s="1"/>
+      <c r="JO21" s="23"/>
+      <c r="JP21" s="24"/>
+      <c r="JQ21" s="24"/>
+      <c r="JR21" s="1"/>
+      <c r="JS21" s="1"/>
+      <c r="JT21" s="1"/>
+      <c r="JU21" s="1"/>
+      <c r="JV21" s="23"/>
+      <c r="JW21" s="24"/>
+      <c r="JX21" s="1"/>
+      <c r="JY21" s="1"/>
+      <c r="JZ21" s="1"/>
+      <c r="KA21" s="1"/>
+      <c r="KB21" s="1"/>
+      <c r="KC21" s="23"/>
+      <c r="KD21" s="24"/>
+      <c r="KE21" s="1"/>
+      <c r="KF21" s="1"/>
+      <c r="KG21" s="1"/>
+      <c r="KH21" s="1"/>
+      <c r="KI21" s="1"/>
+      <c r="KJ21" s="23"/>
+      <c r="KK21" s="24"/>
+      <c r="KL21" s="1"/>
+      <c r="KM21" s="1"/>
+      <c r="KN21" s="1"/>
+      <c r="KO21" s="1"/>
+      <c r="KP21" s="1"/>
+      <c r="KQ21" s="23"/>
+      <c r="KR21" s="24"/>
+      <c r="KS21" s="1"/>
+      <c r="KT21" s="1"/>
+      <c r="KU21" s="1"/>
+      <c r="KV21" s="1"/>
+      <c r="KW21" s="1"/>
+      <c r="KX21" s="23"/>
+      <c r="KY21" s="24"/>
+      <c r="KZ21" s="1"/>
+      <c r="LA21" s="1"/>
+      <c r="LB21" s="1"/>
+      <c r="LC21" s="24"/>
+      <c r="LD21" s="1"/>
+      <c r="LE21" s="23"/>
+      <c r="LF21" s="24"/>
+      <c r="LG21" s="1"/>
+      <c r="LH21" s="1"/>
+      <c r="LI21" s="1"/>
+      <c r="LJ21" s="1"/>
+      <c r="LK21" s="1"/>
     </row>
-    <row r="22" spans="1:228" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:323" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B22" s="1">
         <v>10</v>
       </c>
       <c r="C22" s="2">
-        <v>45862</v>
+        <v>45959</v>
       </c>
       <c r="D22" s="2">
-        <v>45875</v>
+        <v>45973</v>
       </c>
       <c r="E22" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H22" s="1">
         <v>80</v>
@@ -7142,19 +9522,19 @@
       <c r="AW22" s="25"/>
       <c r="AX22" s="25"/>
       <c r="AY22" s="23"/>
-      <c r="AZ22" s="26"/>
-      <c r="BA22" s="27"/>
-      <c r="BB22" s="28"/>
-      <c r="BC22" s="1"/>
-      <c r="BD22" s="1"/>
-      <c r="BE22" s="1"/>
+      <c r="AZ22" s="24"/>
+      <c r="BA22" s="25"/>
+      <c r="BB22" s="25"/>
+      <c r="BC22" s="25"/>
+      <c r="BD22" s="25"/>
+      <c r="BE22" s="25"/>
       <c r="BF22" s="23"/>
       <c r="BG22" s="24"/>
-      <c r="BH22" s="1"/>
-      <c r="BI22" s="1"/>
-      <c r="BJ22" s="1"/>
-      <c r="BK22" s="1"/>
-      <c r="BL22" s="1"/>
+      <c r="BH22" s="25"/>
+      <c r="BI22" s="25"/>
+      <c r="BJ22" s="26"/>
+      <c r="BK22" s="27"/>
+      <c r="BL22" s="28"/>
       <c r="BM22" s="23"/>
       <c r="BN22" s="24"/>
       <c r="BO22" s="1"/>
@@ -7244,22 +9624,20 @@
       <c r="EU22" s="24"/>
       <c r="EV22" s="1"/>
       <c r="EW22" s="1"/>
-      <c r="EX22" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="EY22" s="33"/>
-      <c r="EZ22" s="33"/>
-      <c r="FA22" s="33"/>
-      <c r="FB22" s="33"/>
-      <c r="FC22" s="33"/>
-      <c r="FD22" s="33"/>
-      <c r="FE22" s="33"/>
-      <c r="FF22" s="33"/>
-      <c r="FG22" s="33"/>
-      <c r="FH22" s="33"/>
-      <c r="FI22" s="33"/>
-      <c r="FJ22" s="33"/>
-      <c r="FK22" s="33"/>
+      <c r="EX22" s="1"/>
+      <c r="EY22" s="1"/>
+      <c r="EZ22" s="23"/>
+      <c r="FA22" s="24"/>
+      <c r="FB22" s="1"/>
+      <c r="FC22" s="1"/>
+      <c r="FD22" s="1"/>
+      <c r="FE22" s="1"/>
+      <c r="FF22" s="1"/>
+      <c r="FG22" s="23"/>
+      <c r="FH22" s="24"/>
+      <c r="FI22" s="1"/>
+      <c r="FJ22" s="1"/>
+      <c r="FK22" s="1"/>
       <c r="FL22" s="1"/>
       <c r="FM22" s="1"/>
       <c r="FN22" s="23"/>
@@ -7321,28 +9699,125 @@
       <c r="HR22" s="23"/>
       <c r="HS22" s="24"/>
       <c r="HT22" s="1"/>
+      <c r="HU22" s="1"/>
+      <c r="HV22" s="1"/>
+      <c r="HW22" s="1"/>
+      <c r="HX22" s="1"/>
+      <c r="HY22" s="23"/>
+      <c r="HZ22" s="24"/>
+      <c r="IA22" s="24"/>
+      <c r="IB22" s="1"/>
+      <c r="IC22" s="1"/>
+      <c r="ID22" s="1"/>
+      <c r="IE22" s="1"/>
+      <c r="IF22" s="23"/>
+      <c r="IG22" s="24"/>
+      <c r="IH22" s="1"/>
+      <c r="II22" s="1"/>
+      <c r="IJ22" s="1"/>
+      <c r="IK22" s="1"/>
+      <c r="IL22" s="1"/>
+      <c r="IM22" s="23"/>
+      <c r="IN22" s="24"/>
+      <c r="IO22" s="1"/>
+      <c r="IP22" s="1"/>
+      <c r="IQ22" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="IR22" s="33"/>
+      <c r="IS22" s="33"/>
+      <c r="IT22" s="33"/>
+      <c r="IU22" s="33"/>
+      <c r="IV22" s="33"/>
+      <c r="IW22" s="33"/>
+      <c r="IX22" s="33"/>
+      <c r="IY22" s="33"/>
+      <c r="IZ22" s="33"/>
+      <c r="JA22" s="33"/>
+      <c r="JB22" s="33"/>
+      <c r="JC22" s="33"/>
+      <c r="JD22" s="33"/>
+      <c r="JE22" s="33"/>
+      <c r="JF22" s="1"/>
+      <c r="JG22" s="1"/>
+      <c r="JH22" s="23"/>
+      <c r="JI22" s="24"/>
+      <c r="JJ22" s="1"/>
+      <c r="JK22" s="1"/>
+      <c r="JL22" s="1"/>
+      <c r="JM22" s="1"/>
+      <c r="JN22" s="1"/>
+      <c r="JO22" s="23"/>
+      <c r="JP22" s="24"/>
+      <c r="JQ22" s="24"/>
+      <c r="JR22" s="1"/>
+      <c r="JS22" s="1"/>
+      <c r="JT22" s="1"/>
+      <c r="JU22" s="1"/>
+      <c r="JV22" s="23"/>
+      <c r="JW22" s="24"/>
+      <c r="JX22" s="1"/>
+      <c r="JY22" s="1"/>
+      <c r="JZ22" s="1"/>
+      <c r="KA22" s="1"/>
+      <c r="KB22" s="1"/>
+      <c r="KC22" s="23"/>
+      <c r="KD22" s="24"/>
+      <c r="KE22" s="1"/>
+      <c r="KF22" s="1"/>
+      <c r="KG22" s="1"/>
+      <c r="KH22" s="1"/>
+      <c r="KI22" s="1"/>
+      <c r="KJ22" s="23"/>
+      <c r="KK22" s="24"/>
+      <c r="KL22" s="1"/>
+      <c r="KM22" s="1"/>
+      <c r="KN22" s="1"/>
+      <c r="KO22" s="1"/>
+      <c r="KP22" s="1"/>
+      <c r="KQ22" s="23"/>
+      <c r="KR22" s="24"/>
+      <c r="KS22" s="1"/>
+      <c r="KT22" s="1"/>
+      <c r="KU22" s="1"/>
+      <c r="KV22" s="1"/>
+      <c r="KW22" s="1"/>
+      <c r="KX22" s="23"/>
+      <c r="KY22" s="24"/>
+      <c r="KZ22" s="1"/>
+      <c r="LA22" s="1"/>
+      <c r="LB22" s="1"/>
+      <c r="LC22" s="24"/>
+      <c r="LD22" s="1"/>
+      <c r="LE22" s="23"/>
+      <c r="LF22" s="24"/>
+      <c r="LG22" s="1"/>
+      <c r="LH22" s="1"/>
+      <c r="LI22" s="1"/>
+      <c r="LJ22" s="1"/>
+      <c r="LK22" s="1"/>
     </row>
-    <row r="23" spans="1:228" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:323" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B23" s="1">
         <v>10</v>
       </c>
       <c r="C23" s="2">
-        <v>45876</v>
+        <v>45974</v>
       </c>
       <c r="D23" s="2">
-        <v>45890</v>
+        <v>45988</v>
       </c>
       <c r="E23" s="1">
         <v>15</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H23" s="1">
         <v>60</v>
@@ -7390,19 +9865,19 @@
       <c r="AW23" s="25"/>
       <c r="AX23" s="25"/>
       <c r="AY23" s="23"/>
-      <c r="AZ23" s="26"/>
-      <c r="BA23" s="27"/>
-      <c r="BB23" s="28"/>
-      <c r="BC23" s="1"/>
-      <c r="BD23" s="1"/>
-      <c r="BE23" s="1"/>
+      <c r="AZ23" s="24"/>
+      <c r="BA23" s="25"/>
+      <c r="BB23" s="25"/>
+      <c r="BC23" s="25"/>
+      <c r="BD23" s="25"/>
+      <c r="BE23" s="25"/>
       <c r="BF23" s="23"/>
       <c r="BG23" s="24"/>
-      <c r="BH23" s="1"/>
-      <c r="BI23" s="1"/>
-      <c r="BJ23" s="1"/>
-      <c r="BK23" s="1"/>
-      <c r="BL23" s="1"/>
+      <c r="BH23" s="25"/>
+      <c r="BI23" s="25"/>
+      <c r="BJ23" s="26"/>
+      <c r="BK23" s="27"/>
+      <c r="BL23" s="28"/>
       <c r="BM23" s="23"/>
       <c r="BN23" s="24"/>
       <c r="BO23" s="1"/>
@@ -7506,23 +9981,21 @@
       <c r="FI23" s="1"/>
       <c r="FJ23" s="1"/>
       <c r="FK23" s="1"/>
-      <c r="FL23" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="FM23" s="33"/>
-      <c r="FN23" s="33"/>
-      <c r="FO23" s="33"/>
-      <c r="FP23" s="33"/>
-      <c r="FQ23" s="33"/>
-      <c r="FR23" s="33"/>
-      <c r="FS23" s="33"/>
-      <c r="FT23" s="33"/>
-      <c r="FU23" s="33"/>
-      <c r="FV23" s="33"/>
-      <c r="FW23" s="33"/>
-      <c r="FX23" s="33"/>
-      <c r="FY23" s="33"/>
-      <c r="FZ23" s="33"/>
+      <c r="FL23" s="1"/>
+      <c r="FM23" s="1"/>
+      <c r="FN23" s="23"/>
+      <c r="FO23" s="24"/>
+      <c r="FP23" s="24"/>
+      <c r="FQ23" s="1"/>
+      <c r="FR23" s="1"/>
+      <c r="FS23" s="1"/>
+      <c r="FT23" s="1"/>
+      <c r="FU23" s="23"/>
+      <c r="FV23" s="24"/>
+      <c r="FW23" s="1"/>
+      <c r="FX23" s="1"/>
+      <c r="FY23" s="1"/>
+      <c r="FZ23" s="1"/>
       <c r="GA23" s="1"/>
       <c r="GB23" s="23"/>
       <c r="GC23" s="24"/>
@@ -7569,28 +10042,125 @@
       <c r="HR23" s="23"/>
       <c r="HS23" s="24"/>
       <c r="HT23" s="1"/>
+      <c r="HU23" s="1"/>
+      <c r="HV23" s="1"/>
+      <c r="HW23" s="1"/>
+      <c r="HX23" s="1"/>
+      <c r="HY23" s="23"/>
+      <c r="HZ23" s="24"/>
+      <c r="IA23" s="24"/>
+      <c r="IB23" s="1"/>
+      <c r="IC23" s="1"/>
+      <c r="ID23" s="1"/>
+      <c r="IE23" s="1"/>
+      <c r="IF23" s="23"/>
+      <c r="IG23" s="24"/>
+      <c r="IH23" s="1"/>
+      <c r="II23" s="1"/>
+      <c r="IJ23" s="1"/>
+      <c r="IK23" s="1"/>
+      <c r="IL23" s="1"/>
+      <c r="IM23" s="23"/>
+      <c r="IN23" s="24"/>
+      <c r="IO23" s="1"/>
+      <c r="IP23" s="1"/>
+      <c r="IQ23" s="1"/>
+      <c r="IR23" s="1"/>
+      <c r="IS23" s="1"/>
+      <c r="IT23" s="23"/>
+      <c r="IU23" s="24"/>
+      <c r="IV23" s="24"/>
+      <c r="IW23" s="1"/>
+      <c r="IX23" s="1"/>
+      <c r="IY23" s="1"/>
+      <c r="IZ23" s="1"/>
+      <c r="JA23" s="23"/>
+      <c r="JB23" s="24"/>
+      <c r="JC23" s="1"/>
+      <c r="JD23" s="1"/>
+      <c r="JE23" s="1"/>
+      <c r="JF23" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="JG23" s="33"/>
+      <c r="JH23" s="33"/>
+      <c r="JI23" s="33"/>
+      <c r="JJ23" s="33"/>
+      <c r="JK23" s="33"/>
+      <c r="JL23" s="33"/>
+      <c r="JM23" s="33"/>
+      <c r="JN23" s="33"/>
+      <c r="JO23" s="33"/>
+      <c r="JP23" s="33"/>
+      <c r="JQ23" s="33"/>
+      <c r="JR23" s="33"/>
+      <c r="JS23" s="33"/>
+      <c r="JT23" s="33"/>
+      <c r="JU23" s="1"/>
+      <c r="JV23" s="23"/>
+      <c r="JW23" s="24"/>
+      <c r="JX23" s="1"/>
+      <c r="JY23" s="1"/>
+      <c r="JZ23" s="1"/>
+      <c r="KA23" s="1"/>
+      <c r="KB23" s="1"/>
+      <c r="KC23" s="23"/>
+      <c r="KD23" s="24"/>
+      <c r="KE23" s="1"/>
+      <c r="KF23" s="1"/>
+      <c r="KG23" s="1"/>
+      <c r="KH23" s="1"/>
+      <c r="KI23" s="1"/>
+      <c r="KJ23" s="23"/>
+      <c r="KK23" s="24"/>
+      <c r="KL23" s="1"/>
+      <c r="KM23" s="1"/>
+      <c r="KN23" s="1"/>
+      <c r="KO23" s="1"/>
+      <c r="KP23" s="1"/>
+      <c r="KQ23" s="23"/>
+      <c r="KR23" s="24"/>
+      <c r="KS23" s="1"/>
+      <c r="KT23" s="1"/>
+      <c r="KU23" s="1"/>
+      <c r="KV23" s="1"/>
+      <c r="KW23" s="1"/>
+      <c r="KX23" s="23"/>
+      <c r="KY23" s="24"/>
+      <c r="KZ23" s="1"/>
+      <c r="LA23" s="1"/>
+      <c r="LB23" s="1"/>
+      <c r="LC23" s="24"/>
+      <c r="LD23" s="1"/>
+      <c r="LE23" s="23"/>
+      <c r="LF23" s="24"/>
+      <c r="LG23" s="1"/>
+      <c r="LH23" s="1"/>
+      <c r="LI23" s="1"/>
+      <c r="LJ23" s="1"/>
+      <c r="LK23" s="1"/>
     </row>
-    <row r="24" spans="1:228" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:323" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B24" s="1">
         <v>10</v>
       </c>
       <c r="C24" s="2">
-        <v>45891</v>
+        <v>45989</v>
       </c>
       <c r="D24" s="2">
-        <v>45904</v>
+        <v>46002</v>
       </c>
       <c r="E24" s="1">
         <v>14</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H24" s="1">
         <v>16</v>
@@ -7638,19 +10208,19 @@
       <c r="AW24" s="25"/>
       <c r="AX24" s="25"/>
       <c r="AY24" s="23"/>
-      <c r="AZ24" s="26"/>
-      <c r="BA24" s="27"/>
-      <c r="BB24" s="28"/>
-      <c r="BC24" s="1"/>
-      <c r="BD24" s="1"/>
-      <c r="BE24" s="1"/>
+      <c r="AZ24" s="24"/>
+      <c r="BA24" s="25"/>
+      <c r="BB24" s="25"/>
+      <c r="BC24" s="25"/>
+      <c r="BD24" s="25"/>
+      <c r="BE24" s="25"/>
       <c r="BF24" s="23"/>
       <c r="BG24" s="24"/>
-      <c r="BH24" s="1"/>
-      <c r="BI24" s="1"/>
-      <c r="BJ24" s="1"/>
-      <c r="BK24" s="1"/>
-      <c r="BL24" s="1"/>
+      <c r="BH24" s="25"/>
+      <c r="BI24" s="25"/>
+      <c r="BJ24" s="26"/>
+      <c r="BK24" s="27"/>
+      <c r="BL24" s="28"/>
       <c r="BM24" s="23"/>
       <c r="BN24" s="24"/>
       <c r="BO24" s="1"/>
@@ -7769,22 +10339,20 @@
       <c r="FX24" s="1"/>
       <c r="FY24" s="1"/>
       <c r="FZ24" s="1"/>
-      <c r="GA24" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="GB24" s="33"/>
-      <c r="GC24" s="33"/>
-      <c r="GD24" s="33"/>
-      <c r="GE24" s="33"/>
-      <c r="GF24" s="33"/>
-      <c r="GG24" s="33"/>
-      <c r="GH24" s="33"/>
-      <c r="GI24" s="33"/>
-      <c r="GJ24" s="33"/>
-      <c r="GK24" s="33"/>
-      <c r="GL24" s="33"/>
-      <c r="GM24" s="33"/>
-      <c r="GN24" s="33"/>
+      <c r="GA24" s="1"/>
+      <c r="GB24" s="23"/>
+      <c r="GC24" s="24"/>
+      <c r="GD24" s="1"/>
+      <c r="GE24" s="1"/>
+      <c r="GF24" s="1"/>
+      <c r="GG24" s="1"/>
+      <c r="GH24" s="1"/>
+      <c r="GI24" s="23"/>
+      <c r="GJ24" s="24"/>
+      <c r="GK24" s="1"/>
+      <c r="GL24" s="1"/>
+      <c r="GM24" s="1"/>
+      <c r="GN24" s="1"/>
       <c r="GO24" s="1"/>
       <c r="GP24" s="23"/>
       <c r="GQ24" s="24"/>
@@ -7817,28 +10385,125 @@
       <c r="HR24" s="23"/>
       <c r="HS24" s="24"/>
       <c r="HT24" s="1"/>
+      <c r="HU24" s="1"/>
+      <c r="HV24" s="1"/>
+      <c r="HW24" s="1"/>
+      <c r="HX24" s="1"/>
+      <c r="HY24" s="23"/>
+      <c r="HZ24" s="24"/>
+      <c r="IA24" s="24"/>
+      <c r="IB24" s="1"/>
+      <c r="IC24" s="1"/>
+      <c r="ID24" s="1"/>
+      <c r="IE24" s="1"/>
+      <c r="IF24" s="23"/>
+      <c r="IG24" s="24"/>
+      <c r="IH24" s="1"/>
+      <c r="II24" s="1"/>
+      <c r="IJ24" s="1"/>
+      <c r="IK24" s="1"/>
+      <c r="IL24" s="1"/>
+      <c r="IM24" s="23"/>
+      <c r="IN24" s="24"/>
+      <c r="IO24" s="1"/>
+      <c r="IP24" s="1"/>
+      <c r="IQ24" s="1"/>
+      <c r="IR24" s="1"/>
+      <c r="IS24" s="1"/>
+      <c r="IT24" s="23"/>
+      <c r="IU24" s="24"/>
+      <c r="IV24" s="24"/>
+      <c r="IW24" s="1"/>
+      <c r="IX24" s="1"/>
+      <c r="IY24" s="1"/>
+      <c r="IZ24" s="1"/>
+      <c r="JA24" s="23"/>
+      <c r="JB24" s="24"/>
+      <c r="JC24" s="1"/>
+      <c r="JD24" s="1"/>
+      <c r="JE24" s="1"/>
+      <c r="JF24" s="1"/>
+      <c r="JG24" s="1"/>
+      <c r="JH24" s="23"/>
+      <c r="JI24" s="24"/>
+      <c r="JJ24" s="1"/>
+      <c r="JK24" s="1"/>
+      <c r="JL24" s="1"/>
+      <c r="JM24" s="1"/>
+      <c r="JN24" s="1"/>
+      <c r="JO24" s="23"/>
+      <c r="JP24" s="24"/>
+      <c r="JQ24" s="24"/>
+      <c r="JR24" s="1"/>
+      <c r="JS24" s="1"/>
+      <c r="JT24" s="1"/>
+      <c r="JU24" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="JV24" s="33"/>
+      <c r="JW24" s="33"/>
+      <c r="JX24" s="33"/>
+      <c r="JY24" s="33"/>
+      <c r="JZ24" s="33"/>
+      <c r="KA24" s="33"/>
+      <c r="KB24" s="33"/>
+      <c r="KC24" s="33"/>
+      <c r="KD24" s="33"/>
+      <c r="KE24" s="33"/>
+      <c r="KF24" s="33"/>
+      <c r="KG24" s="33"/>
+      <c r="KH24" s="33"/>
+      <c r="KI24" s="1"/>
+      <c r="KJ24" s="23"/>
+      <c r="KK24" s="24"/>
+      <c r="KL24" s="1"/>
+      <c r="KM24" s="1"/>
+      <c r="KN24" s="1"/>
+      <c r="KO24" s="1"/>
+      <c r="KP24" s="1"/>
+      <c r="KQ24" s="23"/>
+      <c r="KR24" s="24"/>
+      <c r="KS24" s="1"/>
+      <c r="KT24" s="1"/>
+      <c r="KU24" s="1"/>
+      <c r="KV24" s="1"/>
+      <c r="KW24" s="1"/>
+      <c r="KX24" s="23"/>
+      <c r="KY24" s="24"/>
+      <c r="KZ24" s="1"/>
+      <c r="LA24" s="1"/>
+      <c r="LB24" s="1"/>
+      <c r="LC24" s="24"/>
+      <c r="LD24" s="1"/>
+      <c r="LE24" s="23"/>
+      <c r="LF24" s="24"/>
+      <c r="LG24" s="1"/>
+      <c r="LH24" s="1"/>
+      <c r="LI24" s="1"/>
+      <c r="LJ24" s="1"/>
+      <c r="LK24" s="1"/>
     </row>
-    <row r="25" spans="1:228" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:323" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B25" s="1">
         <v>10</v>
       </c>
       <c r="C25" s="2">
-        <v>45905</v>
+        <v>46003</v>
       </c>
       <c r="D25" s="2">
-        <v>45919</v>
+        <v>46016</v>
       </c>
       <c r="E25" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H25" s="1">
         <v>100</v>
@@ -7886,19 +10551,19 @@
       <c r="AW25" s="25"/>
       <c r="AX25" s="25"/>
       <c r="AY25" s="23"/>
-      <c r="AZ25" s="26"/>
-      <c r="BA25" s="27"/>
-      <c r="BB25" s="28"/>
-      <c r="BC25" s="1"/>
-      <c r="BD25" s="1"/>
-      <c r="BE25" s="1"/>
+      <c r="AZ25" s="24"/>
+      <c r="BA25" s="25"/>
+      <c r="BB25" s="25"/>
+      <c r="BC25" s="25"/>
+      <c r="BD25" s="25"/>
+      <c r="BE25" s="25"/>
       <c r="BF25" s="23"/>
       <c r="BG25" s="24"/>
-      <c r="BH25" s="1"/>
-      <c r="BI25" s="1"/>
-      <c r="BJ25" s="1"/>
-      <c r="BK25" s="1"/>
-      <c r="BL25" s="1"/>
+      <c r="BH25" s="25"/>
+      <c r="BI25" s="25"/>
+      <c r="BJ25" s="26"/>
+      <c r="BK25" s="27"/>
+      <c r="BL25" s="28"/>
       <c r="BM25" s="23"/>
       <c r="BN25" s="24"/>
       <c r="BO25" s="1"/>
@@ -8031,23 +10696,21 @@
       <c r="GL25" s="1"/>
       <c r="GM25" s="1"/>
       <c r="GN25" s="1"/>
-      <c r="GO25" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="GP25" s="33"/>
-      <c r="GQ25" s="33"/>
-      <c r="GR25" s="33"/>
-      <c r="GS25" s="33"/>
-      <c r="GT25" s="33"/>
-      <c r="GU25" s="33"/>
-      <c r="GV25" s="33"/>
-      <c r="GW25" s="33"/>
-      <c r="GX25" s="33"/>
-      <c r="GY25" s="33"/>
-      <c r="GZ25" s="33"/>
-      <c r="HA25" s="33"/>
-      <c r="HB25" s="33"/>
-      <c r="HC25" s="33"/>
+      <c r="GO25" s="1"/>
+      <c r="GP25" s="23"/>
+      <c r="GQ25" s="24"/>
+      <c r="GR25" s="1"/>
+      <c r="GS25" s="1"/>
+      <c r="GT25" s="1"/>
+      <c r="GU25" s="1"/>
+      <c r="GV25" s="1"/>
+      <c r="GW25" s="23"/>
+      <c r="GX25" s="24"/>
+      <c r="GY25" s="24"/>
+      <c r="GZ25" s="1"/>
+      <c r="HA25" s="1"/>
+      <c r="HB25" s="1"/>
+      <c r="HC25" s="1"/>
       <c r="HD25" s="23"/>
       <c r="HE25" s="24"/>
       <c r="HF25" s="1"/>
@@ -8065,28 +10728,125 @@
       <c r="HR25" s="23"/>
       <c r="HS25" s="24"/>
       <c r="HT25" s="1"/>
+      <c r="HU25" s="1"/>
+      <c r="HV25" s="1"/>
+      <c r="HW25" s="1"/>
+      <c r="HX25" s="1"/>
+      <c r="HY25" s="23"/>
+      <c r="HZ25" s="24"/>
+      <c r="IA25" s="24"/>
+      <c r="IB25" s="1"/>
+      <c r="IC25" s="1"/>
+      <c r="ID25" s="1"/>
+      <c r="IE25" s="1"/>
+      <c r="IF25" s="23"/>
+      <c r="IG25" s="24"/>
+      <c r="IH25" s="1"/>
+      <c r="II25" s="1"/>
+      <c r="IJ25" s="1"/>
+      <c r="IK25" s="1"/>
+      <c r="IL25" s="1"/>
+      <c r="IM25" s="23"/>
+      <c r="IN25" s="24"/>
+      <c r="IO25" s="1"/>
+      <c r="IP25" s="1"/>
+      <c r="IQ25" s="1"/>
+      <c r="IR25" s="1"/>
+      <c r="IS25" s="1"/>
+      <c r="IT25" s="23"/>
+      <c r="IU25" s="24"/>
+      <c r="IV25" s="24"/>
+      <c r="IW25" s="1"/>
+      <c r="IX25" s="1"/>
+      <c r="IY25" s="1"/>
+      <c r="IZ25" s="1"/>
+      <c r="JA25" s="23"/>
+      <c r="JB25" s="24"/>
+      <c r="JC25" s="1"/>
+      <c r="JD25" s="1"/>
+      <c r="JE25" s="1"/>
+      <c r="JF25" s="1"/>
+      <c r="JG25" s="1"/>
+      <c r="JH25" s="23"/>
+      <c r="JI25" s="24"/>
+      <c r="JJ25" s="1"/>
+      <c r="JK25" s="1"/>
+      <c r="JL25" s="1"/>
+      <c r="JM25" s="1"/>
+      <c r="JN25" s="1"/>
+      <c r="JO25" s="23"/>
+      <c r="JP25" s="24"/>
+      <c r="JQ25" s="24"/>
+      <c r="JR25" s="1"/>
+      <c r="JS25" s="1"/>
+      <c r="JT25" s="1"/>
+      <c r="JU25" s="1"/>
+      <c r="JV25" s="23"/>
+      <c r="JW25" s="24"/>
+      <c r="JX25" s="1"/>
+      <c r="JY25" s="1"/>
+      <c r="JZ25" s="1"/>
+      <c r="KA25" s="1"/>
+      <c r="KB25" s="1"/>
+      <c r="KC25" s="23"/>
+      <c r="KD25" s="24"/>
+      <c r="KE25" s="1"/>
+      <c r="KF25" s="1"/>
+      <c r="KG25" s="1"/>
+      <c r="KH25" s="1"/>
+      <c r="KI25" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="KJ25" s="33"/>
+      <c r="KK25" s="33"/>
+      <c r="KL25" s="33"/>
+      <c r="KM25" s="33"/>
+      <c r="KN25" s="33"/>
+      <c r="KO25" s="33"/>
+      <c r="KP25" s="33"/>
+      <c r="KQ25" s="33"/>
+      <c r="KR25" s="33"/>
+      <c r="KS25" s="33"/>
+      <c r="KT25" s="33"/>
+      <c r="KU25" s="33"/>
+      <c r="KV25" s="33"/>
+      <c r="KW25" s="1"/>
+      <c r="KX25" s="23"/>
+      <c r="KY25" s="24"/>
+      <c r="KZ25" s="1"/>
+      <c r="LA25" s="1"/>
+      <c r="LB25" s="1"/>
+      <c r="LC25" s="24"/>
+      <c r="LD25" s="1"/>
+      <c r="LE25" s="23"/>
+      <c r="LF25" s="24"/>
+      <c r="LG25" s="1"/>
+      <c r="LH25" s="1"/>
+      <c r="LI25" s="1"/>
+      <c r="LJ25" s="1"/>
+      <c r="LK25" s="1"/>
     </row>
-    <row r="26" spans="1:228" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:323" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B26" s="1">
         <v>10</v>
       </c>
       <c r="C26" s="2">
-        <v>45922</v>
+        <v>46017</v>
       </c>
       <c r="D26" s="2">
-        <v>45936</v>
+        <v>46031</v>
       </c>
       <c r="E26" s="1">
         <v>15</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H26" s="1">
         <v>24</v>
@@ -8134,19 +10894,19 @@
       <c r="AW26" s="25"/>
       <c r="AX26" s="25"/>
       <c r="AY26" s="23"/>
-      <c r="AZ26" s="26"/>
-      <c r="BA26" s="27"/>
-      <c r="BB26" s="28"/>
-      <c r="BC26" s="1"/>
-      <c r="BD26" s="1"/>
-      <c r="BE26" s="1"/>
+      <c r="AZ26" s="24"/>
+      <c r="BA26" s="25"/>
+      <c r="BB26" s="25"/>
+      <c r="BC26" s="25"/>
+      <c r="BD26" s="25"/>
+      <c r="BE26" s="25"/>
       <c r="BF26" s="23"/>
       <c r="BG26" s="24"/>
-      <c r="BH26" s="1"/>
-      <c r="BI26" s="1"/>
-      <c r="BJ26" s="1"/>
-      <c r="BK26" s="1"/>
-      <c r="BL26" s="1"/>
+      <c r="BH26" s="25"/>
+      <c r="BI26" s="25"/>
+      <c r="BJ26" s="26"/>
+      <c r="BK26" s="27"/>
+      <c r="BL26" s="28"/>
       <c r="BM26" s="23"/>
       <c r="BN26" s="24"/>
       <c r="BO26" s="1"/>
@@ -8296,83 +11056,182 @@
       <c r="HC26" s="1"/>
       <c r="HD26" s="23"/>
       <c r="HE26" s="24"/>
-      <c r="HF26" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="HG26" s="33"/>
-      <c r="HH26" s="33"/>
-      <c r="HI26" s="33"/>
-      <c r="HJ26" s="33"/>
-      <c r="HK26" s="33"/>
-      <c r="HL26" s="33"/>
-      <c r="HM26" s="33"/>
-      <c r="HN26" s="33"/>
-      <c r="HO26" s="33"/>
-      <c r="HP26" s="33"/>
-      <c r="HQ26" s="33"/>
-      <c r="HR26" s="33"/>
-      <c r="HS26" s="33"/>
-      <c r="HT26" s="33"/>
+      <c r="HF26" s="1"/>
+      <c r="HG26" s="24"/>
+      <c r="HH26" s="1"/>
+      <c r="HI26" s="1"/>
+      <c r="HJ26" s="1"/>
+      <c r="HK26" s="23"/>
+      <c r="HL26" s="24"/>
+      <c r="HM26" s="1"/>
+      <c r="HN26" s="1"/>
+      <c r="HO26" s="1"/>
+      <c r="HP26" s="1"/>
+      <c r="HQ26" s="1"/>
+      <c r="HR26" s="23"/>
+      <c r="HS26" s="24"/>
+      <c r="HT26" s="1"/>
+      <c r="HU26" s="1"/>
+      <c r="HV26" s="1"/>
+      <c r="HW26" s="1"/>
+      <c r="HX26" s="1"/>
+      <c r="HY26" s="23"/>
+      <c r="HZ26" s="24"/>
+      <c r="IA26" s="24"/>
+      <c r="IB26" s="1"/>
+      <c r="IC26" s="1"/>
+      <c r="ID26" s="1"/>
+      <c r="IE26" s="1"/>
+      <c r="IF26" s="23"/>
+      <c r="IG26" s="24"/>
+      <c r="IH26" s="1"/>
+      <c r="II26" s="1"/>
+      <c r="IJ26" s="1"/>
+      <c r="IK26" s="1"/>
+      <c r="IL26" s="1"/>
+      <c r="IM26" s="23"/>
+      <c r="IN26" s="24"/>
+      <c r="IO26" s="1"/>
+      <c r="IP26" s="1"/>
+      <c r="IQ26" s="1"/>
+      <c r="IR26" s="1"/>
+      <c r="IS26" s="1"/>
+      <c r="IT26" s="23"/>
+      <c r="IU26" s="24"/>
+      <c r="IV26" s="24"/>
+      <c r="IW26" s="1"/>
+      <c r="IX26" s="1"/>
+      <c r="IY26" s="1"/>
+      <c r="IZ26" s="1"/>
+      <c r="JA26" s="23"/>
+      <c r="JB26" s="24"/>
+      <c r="JC26" s="1"/>
+      <c r="JD26" s="1"/>
+      <c r="JE26" s="1"/>
+      <c r="JF26" s="1"/>
+      <c r="JG26" s="1"/>
+      <c r="JH26" s="23"/>
+      <c r="JI26" s="24"/>
+      <c r="JJ26" s="1"/>
+      <c r="JK26" s="1"/>
+      <c r="JL26" s="1"/>
+      <c r="JM26" s="1"/>
+      <c r="JN26" s="1"/>
+      <c r="JO26" s="23"/>
+      <c r="JP26" s="24"/>
+      <c r="JQ26" s="24"/>
+      <c r="JR26" s="1"/>
+      <c r="JS26" s="1"/>
+      <c r="JT26" s="1"/>
+      <c r="JU26" s="1"/>
+      <c r="JV26" s="23"/>
+      <c r="JW26" s="24"/>
+      <c r="JX26" s="1"/>
+      <c r="JY26" s="1"/>
+      <c r="JZ26" s="1"/>
+      <c r="KA26" s="1"/>
+      <c r="KB26" s="1"/>
+      <c r="KC26" s="23"/>
+      <c r="KD26" s="24"/>
+      <c r="KE26" s="1"/>
+      <c r="KF26" s="1"/>
+      <c r="KG26" s="1"/>
+      <c r="KH26" s="1"/>
+      <c r="KI26" s="1"/>
+      <c r="KJ26" s="23"/>
+      <c r="KK26" s="24"/>
+      <c r="KL26" s="1"/>
+      <c r="KM26" s="1"/>
+      <c r="KN26" s="1"/>
+      <c r="KO26" s="1"/>
+      <c r="KP26" s="1"/>
+      <c r="KQ26" s="23"/>
+      <c r="KR26" s="24"/>
+      <c r="KS26" s="1"/>
+      <c r="KT26" s="1"/>
+      <c r="KU26" s="1"/>
+      <c r="KV26" s="1"/>
+      <c r="KW26" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="KX26" s="33"/>
+      <c r="KY26" s="33"/>
+      <c r="KZ26" s="33"/>
+      <c r="LA26" s="33"/>
+      <c r="LB26" s="33"/>
+      <c r="LC26" s="33"/>
+      <c r="LD26" s="33"/>
+      <c r="LE26" s="33"/>
+      <c r="LF26" s="33"/>
+      <c r="LG26" s="33"/>
+      <c r="LH26" s="33"/>
+      <c r="LI26" s="33"/>
+      <c r="LJ26" s="33"/>
+      <c r="LK26" s="33"/>
     </row>
-    <row r="28" spans="1:228" x14ac:dyDescent="0.45">
-      <c r="A28" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" s="40"/>
-      <c r="C28" s="41"/>
+    <row r="28" spans="1:323" x14ac:dyDescent="0.45">
+      <c r="A28" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="35"/>
+      <c r="C28" s="36"/>
     </row>
-    <row r="29" spans="1:228" x14ac:dyDescent="0.45">
-      <c r="A29" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="B29" s="44"/>
-      <c r="C29" s="45"/>
+    <row r="29" spans="1:323" x14ac:dyDescent="0.45">
+      <c r="A29" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="39"/>
+      <c r="C29" s="40"/>
     </row>
-    <row r="30" spans="1:228" x14ac:dyDescent="0.45">
-      <c r="A30" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="B30" s="46"/>
-      <c r="C30" s="47"/>
+    <row r="30" spans="1:323" x14ac:dyDescent="0.45">
+      <c r="A30" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="41"/>
+      <c r="C30" s="42"/>
     </row>
-    <row r="31" spans="1:228" x14ac:dyDescent="0.45">
-      <c r="A31" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="B31" s="48"/>
-      <c r="C31" s="49"/>
+    <row r="31" spans="1:323" x14ac:dyDescent="0.45">
+      <c r="A31" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" s="43"/>
+      <c r="C31" s="44"/>
     </row>
-    <row r="32" spans="1:228" x14ac:dyDescent="0.45">
-      <c r="A32" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="B32" s="50"/>
-      <c r="C32" s="51"/>
+    <row r="32" spans="1:323" x14ac:dyDescent="0.45">
+      <c r="A32" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="45"/>
+      <c r="C32" s="46"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A33" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="B33" s="52"/>
-      <c r="C33" s="53"/>
+      <c r="A33" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" s="47"/>
+      <c r="C33" s="48"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A34" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="B34" s="54"/>
-      <c r="C34" s="55"/>
+      <c r="A34" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" s="49"/>
+      <c r="C34" s="50"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A35" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="B35" s="56"/>
-      <c r="C35" s="41"/>
+      <c r="A35" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" s="51"/>
+      <c r="C35" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="I1:HT1"/>
+  <mergeCells count="13">
+    <mergeCell ref="IT2:JW2"/>
+    <mergeCell ref="JX2:LB2"/>
+    <mergeCell ref="LC2:LK2"/>
+    <mergeCell ref="I1:LB1"/>
+    <mergeCell ref="LC1:LK1"/>
     <mergeCell ref="I2:AM2"/>
     <mergeCell ref="AN2:BQ2"/>
     <mergeCell ref="BR2:CV2"/>
@@ -8380,7 +11239,7 @@
     <mergeCell ref="EA2:FE2"/>
     <mergeCell ref="FF2:GJ2"/>
     <mergeCell ref="GK2:HN2"/>
-    <mergeCell ref="HO2:HT2"/>
+    <mergeCell ref="HO2:IS2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
